--- a/我的创作/炒股/技术面研究.xlsx
+++ b/我的创作/炒股/技术面研究.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="12380" activeTab="1"/>
+    <workbookView windowWidth="27240" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
-    <sheet name="买入指标监控" sheetId="2" r:id="rId2"/>
-    <sheet name="运行状态监控1" sheetId="3" r:id="rId3"/>
-    <sheet name="运行状态表2" sheetId="4" r:id="rId4"/>
+    <sheet name="买入指标" sheetId="2" r:id="rId2"/>
+    <sheet name="久吾高科运行指标" sheetId="5" r:id="rId3"/>
+    <sheet name="久吾高科日志" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -291,6 +291,15 @@
     <t>(赛意信息)</t>
   </si>
   <si>
+    <t>20日均线与开盘价关系</t>
+  </si>
+  <si>
+    <t>上涨/下跌幅度</t>
+  </si>
+  <si>
+    <t>放量/缩量(w)</t>
+  </si>
+  <si>
     <t>20日均线</t>
   </si>
   <si>
@@ -301,15 +310,6 @@
   </si>
   <si>
     <t>成交量(w)</t>
-  </si>
-  <si>
-    <t>20日均线与开盘价关系</t>
-  </si>
-  <si>
-    <t>上涨/下跌幅度</t>
-  </si>
-  <si>
-    <t>放量/缩量(w)</t>
   </si>
 </sst>
 </file>
@@ -332,12 +332,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -351,6 +345,12 @@
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1235,7 +1235,7 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1287,38 +1287,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1327,47 +1321,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1375,16 +1378,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1402,7 +1405,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,7 +1435,7 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1441,24 +1444,18 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1468,16 +1465,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2653,7 +2650,7 @@
   <sheetPr/>
   <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2664,66 +2661,66 @@
   </cols>
   <sheetData>
     <row r="3" ht="50" customHeight="1" spans="2:2">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="17" spans="2:4">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:4">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
     </row>
     <row r="10" ht="15" spans="2:4">
-      <c r="B10" s="63"/>
-      <c r="C10" s="63" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:4">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" ht="15" spans="2:4">
-      <c r="B12" s="63"/>
-      <c r="C12" s="63" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:4">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
     </row>
     <row r="14" ht="15" spans="2:4">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="64" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2746,346 +2743,346 @@
   <sheetPr/>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H2"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="16.3482142857143" style="15" customWidth="1"/>
-    <col min="3" max="3" width="7.36607142857143" style="15" customWidth="1"/>
-    <col min="4" max="4" width="7.3125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="7.11607142857143" style="15" customWidth="1"/>
-    <col min="6" max="6" width="8.22321428571429" style="15" customWidth="1"/>
-    <col min="7" max="8" width="11.7232142857143" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.7232142857143" style="15" customWidth="1"/>
-    <col min="10" max="10" width="11.5803571428571" style="15" customWidth="1"/>
-    <col min="11" max="11" width="16.3482142857143" style="15" customWidth="1"/>
-    <col min="12" max="12" width="8.22321428571429" style="15" customWidth="1"/>
-    <col min="13" max="15" width="7.41071428571429" style="15" customWidth="1"/>
-    <col min="16" max="16" width="7.95535714285714" style="15" customWidth="1"/>
-    <col min="17" max="22" width="7.41071428571429" style="15" customWidth="1"/>
-    <col min="23" max="23" width="8.84821428571429" style="15" customWidth="1"/>
-    <col min="24" max="29" width="7.41071428571429" style="15" customWidth="1"/>
-    <col min="30" max="30" width="8.22321428571429" style="15" customWidth="1"/>
-    <col min="31" max="32" width="13.2232142857143" style="15" customWidth="1"/>
-    <col min="33" max="33" width="11.5803571428571" style="15" customWidth="1"/>
-    <col min="34" max="34" width="10.0803571428571" style="15" customWidth="1"/>
-    <col min="35" max="35" width="8.85714285714286" style="15" customWidth="1"/>
-    <col min="36" max="36" width="11.7321428571429" style="15" customWidth="1"/>
-    <col min="37" max="37" width="11.6517857142857" style="15" customWidth="1"/>
-    <col min="38" max="43" width="10.4017857142857" style="15" customWidth="1"/>
-    <col min="44" max="16384" width="16.3482142857143" style="15" customWidth="1"/>
+    <col min="1" max="2" width="16.3482142857143" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.36607142857143" style="18" customWidth="1"/>
+    <col min="4" max="4" width="7.3125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="7.11607142857143" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.22321428571429" style="18" customWidth="1"/>
+    <col min="7" max="8" width="11.7232142857143" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.7232142857143" style="18" customWidth="1"/>
+    <col min="10" max="10" width="11.5803571428571" style="18" customWidth="1"/>
+    <col min="11" max="11" width="16.3482142857143" style="18" customWidth="1"/>
+    <col min="12" max="12" width="8.22321428571429" style="18" customWidth="1"/>
+    <col min="13" max="15" width="7.41071428571429" style="18" customWidth="1"/>
+    <col min="16" max="16" width="7.95535714285714" style="18" customWidth="1"/>
+    <col min="17" max="22" width="7.41071428571429" style="18" customWidth="1"/>
+    <col min="23" max="23" width="8.84821428571429" style="18" customWidth="1"/>
+    <col min="24" max="29" width="7.41071428571429" style="18" customWidth="1"/>
+    <col min="30" max="30" width="8.22321428571429" style="18" customWidth="1"/>
+    <col min="31" max="32" width="13.2232142857143" style="18" customWidth="1"/>
+    <col min="33" max="33" width="11.5803571428571" style="18" customWidth="1"/>
+    <col min="34" max="34" width="10.0803571428571" style="18" customWidth="1"/>
+    <col min="35" max="35" width="8.85714285714286" style="18" customWidth="1"/>
+    <col min="36" max="36" width="11.7321428571429" style="18" customWidth="1"/>
+    <col min="37" max="37" width="11.6517857142857" style="18" customWidth="1"/>
+    <col min="38" max="43" width="10.4017857142857" style="18" customWidth="1"/>
+    <col min="44" max="16384" width="16.3482142857143" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.55" customHeight="1" spans="1:43">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="17" t="s">
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AH1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="17" t="s">
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" s="51" t="s">
+      <c r="AL1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="AM1" s="51" t="s">
+      <c r="AM1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AN1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AO1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AP1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AQ1" s="52" t="s">
+      <c r="AQ1" s="53" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="70.45" customHeight="1" spans="1:43">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="32" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="32" t="s">
+      <c r="AB2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="32" t="s">
+      <c r="AC2" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" s="32" t="s">
+      <c r="AD2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="AE2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="32" t="s">
+      <c r="AF2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="49" t="s">
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AI2" s="49" t="s">
+      <c r="AI2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="AJ2" s="50" t="s">
+      <c r="AJ2" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="53"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="54"/>
     </row>
     <row r="3" ht="36.55" customHeight="1" spans="1:43">
-      <c r="A3" s="20">
+      <c r="A3" s="23">
         <v>44517</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="13">
         <v>22.15</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="25">
         <v>23.55</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="25">
         <v>24.52</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="25">
         <v>25.7</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="25">
         <v>5.46</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="25">
         <v>46.33</v>
       </c>
-      <c r="I3" s="33">
-        <f t="shared" ref="I3:I16" si="0">(F3-G3)/G3</f>
+      <c r="I3" s="34">
+        <f>(F3-G3)/G3</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="J3" s="33">
-        <f t="shared" ref="J3:J16" si="1">(H3-F3)/H3</f>
+      <c r="J3" s="34">
+        <f t="shared" ref="J3:J16" si="0">(H3-F3)/H3</f>
         <v>0.445283833369307</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="23">
+      <c r="K3" s="35"/>
+      <c r="L3" s="25">
         <v>20.79</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="25">
         <v>29.8</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="25">
         <v>21.88</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="25">
         <v>25.14</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="25">
         <v>22.1</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="25">
         <v>26.4</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="25">
         <v>24</v>
       </c>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="39" t="s">
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="40">
-        <f t="shared" ref="X3:X16" si="2">(H3-L3)/H3</f>
+      <c r="X3" s="41">
+        <f t="shared" ref="X3:X16" si="1">(H3-L3)/H3</f>
         <v>0.551262680768401</v>
       </c>
-      <c r="Y3" s="44">
-        <f t="shared" ref="Y3:Y16" si="3">(M3-N3)/M3</f>
+      <c r="Y3" s="45">
+        <f t="shared" ref="Y3:Y16" si="2">(M3-N3)/M3</f>
         <v>0.265771812080537</v>
       </c>
-      <c r="Z3" s="44">
-        <f t="shared" ref="Z3:Z16" si="4">(O3-P3)/O3</f>
+      <c r="Z3" s="45">
+        <f t="shared" ref="Z3:Z16" si="3">(O3-P3)/O3</f>
         <v>0.120922832140016</v>
       </c>
-      <c r="AA3" s="44">
-        <f t="shared" ref="AA3:AA16" si="5">(Q3-R3)/Q3</f>
+      <c r="AA3" s="45">
+        <f t="shared" ref="AA3:AA16" si="4">(Q3-R3)/Q3</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="AB3" s="44" t="e">
-        <f t="shared" ref="AB3:AB16" si="6">(S3-T3)/S3</f>
+      <c r="AB3" s="45" t="e">
+        <f t="shared" ref="AB3:AB16" si="5">(S3-T3)/S3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="46" t="s">
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="AE3" s="46" t="s">
+      <c r="AE3" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="AF3" s="46" t="s">
+      <c r="AF3" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="AG3" s="39" t="s">
+      <c r="AG3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AH3" s="23">
+      <c r="AH3" s="25">
         <v>28.15</v>
       </c>
-      <c r="AI3" s="23">
+      <c r="AI3" s="25">
         <v>21.87</v>
       </c>
-      <c r="AJ3" s="27">
-        <f t="shared" ref="AJ3:AJ11" si="7">AH3-AI3</f>
+      <c r="AJ3" s="28">
+        <f t="shared" ref="AJ3:AJ11" si="6">AH3-AI3</f>
         <v>6.28</v>
       </c>
-      <c r="AK3" s="23">
+      <c r="AK3" s="25">
         <v>26.2</v>
       </c>
-      <c r="AL3" s="23">
+      <c r="AL3" s="25">
         <v>24.68</v>
       </c>
-      <c r="AM3" s="23">
+      <c r="AM3" s="25">
         <v>32.49</v>
       </c>
-      <c r="AN3" s="23">
-        <f t="shared" ref="AN3:AN9" si="8">(AM3-AK3)/(AK3-AL3)</f>
+      <c r="AN3" s="25">
+        <f t="shared" ref="AN3:AN9" si="7">(AM3-AK3)/(AK3-AL3)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="AO3" s="54">
-        <f t="shared" ref="AO3:AO9" si="9">(AK3-AL3)/AK3</f>
+      <c r="AO3" s="14">
+        <f t="shared" ref="AO3:AO9" si="8">(AK3-AL3)/AK3</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="AP3" s="54">
-        <f t="shared" ref="AP3:AP9" si="10">(AM3-AK3)/AK3</f>
+      <c r="AP3" s="14">
+        <f t="shared" ref="AP3:AP9" si="9">(AM3-AK3)/AK3</f>
         <v>0.240076335877863</v>
       </c>
       <c r="AQ3" s="55">
@@ -3093,1497 +3090,1497 @@
       </c>
     </row>
     <row r="4" ht="36.35" customHeight="1" spans="1:43">
-      <c r="A4" s="24">
+      <c r="A4" s="26">
         <v>44517</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="16">
         <v>38.45</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="28">
         <v>39.06</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="28">
         <v>39.91</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="28">
         <v>39.92</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="28">
         <v>27.1</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="28">
         <v>59.95</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="36">
+        <f t="shared" ref="I3:I16" si="10">(F4-G4)/G4</f>
+        <v>0.473062730627306</v>
+      </c>
+      <c r="J4" s="36">
         <f t="shared" si="0"/>
-        <v>0.473062730627306</v>
-      </c>
-      <c r="J4" s="35">
+        <v>0.334111759799833</v>
+      </c>
+      <c r="K4" s="37"/>
+      <c r="L4" s="29">
+        <v>36.59</v>
+      </c>
+      <c r="M4" s="29">
+        <v>41.5</v>
+      </c>
+      <c r="N4" s="29">
+        <v>37.17</v>
+      </c>
+      <c r="O4" s="29">
+        <v>42</v>
+      </c>
+      <c r="P4" s="29">
+        <v>39.01</v>
+      </c>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" s="43">
         <f t="shared" si="1"/>
-        <v>0.334111759799833</v>
-      </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="28">
-        <v>36.59</v>
-      </c>
-      <c r="M4" s="28">
-        <v>41.5</v>
-      </c>
-      <c r="N4" s="28">
-        <v>37.17</v>
-      </c>
-      <c r="O4" s="28">
-        <v>42</v>
-      </c>
-      <c r="P4" s="28">
-        <v>39.01</v>
-      </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="X4" s="42">
+        <v>0.389658048373645</v>
+      </c>
+      <c r="Y4" s="46">
         <f t="shared" si="2"/>
-        <v>0.389658048373645</v>
-      </c>
-      <c r="Y4" s="45">
+        <v>0.10433734939759</v>
+      </c>
+      <c r="Z4" s="46">
         <f t="shared" si="3"/>
-        <v>0.10433734939759</v>
-      </c>
-      <c r="Z4" s="45">
+        <v>0.0711904761904762</v>
+      </c>
+      <c r="AA4" s="46" t="e">
         <f t="shared" si="4"/>
-        <v>0.0711904761904762</v>
-      </c>
-      <c r="AA4" s="45" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB4" s="46" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB4" s="45" t="e">
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE4" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF4" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH4" s="28">
+        <v>43.92</v>
+      </c>
+      <c r="AI4" s="28">
+        <v>35.16</v>
+      </c>
+      <c r="AJ4" s="28">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF4" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG4" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH4" s="27">
-        <v>43.92</v>
-      </c>
-      <c r="AI4" s="27">
-        <v>35.16</v>
-      </c>
-      <c r="AJ4" s="27">
+        <v>8.76000000000001</v>
+      </c>
+      <c r="AK4" s="28">
+        <v>41.7</v>
+      </c>
+      <c r="AL4" s="28">
+        <v>39.01</v>
+      </c>
+      <c r="AM4" s="28">
+        <v>52.05</v>
+      </c>
+      <c r="AN4" s="28">
         <f t="shared" si="7"/>
-        <v>8.76000000000001</v>
-      </c>
-      <c r="AK4" s="27">
-        <v>41.7</v>
-      </c>
-      <c r="AL4" s="27">
-        <v>39.01</v>
-      </c>
-      <c r="AM4" s="27">
-        <v>52.05</v>
-      </c>
-      <c r="AN4" s="27">
+        <v>3.84758364312267</v>
+      </c>
+      <c r="AO4" s="17">
         <f t="shared" si="8"/>
-        <v>3.84758364312267</v>
-      </c>
-      <c r="AO4" s="56">
+        <v>0.0645083932853718</v>
+      </c>
+      <c r="AP4" s="17">
         <f t="shared" si="9"/>
-        <v>0.0645083932853718</v>
-      </c>
-      <c r="AP4" s="56">
-        <f t="shared" si="10"/>
         <v>0.248201438848921</v>
       </c>
-      <c r="AQ4" s="57">
+      <c r="AQ4" s="56">
         <v>129.12</v>
       </c>
     </row>
     <row r="5" ht="36.35" customHeight="1" spans="1:43">
-      <c r="A5" s="24">
+      <c r="A5" s="26">
         <v>44517</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="16">
         <v>31.92</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="28">
         <v>32.63</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="28">
         <v>33.17</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="28">
         <v>33.73</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="28">
         <v>22.98</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="28">
         <v>44.42</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="36">
+        <f t="shared" si="10"/>
+        <v>0.467798085291558</v>
+      </c>
+      <c r="J5" s="36">
         <f t="shared" si="0"/>
-        <v>0.467798085291558</v>
-      </c>
-      <c r="J5" s="35">
+        <v>0.240657361548852</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="28">
+        <v>30.78</v>
+      </c>
+      <c r="M5" s="28">
+        <v>35</v>
+      </c>
+      <c r="N5" s="28">
+        <v>31.27</v>
+      </c>
+      <c r="O5" s="28">
+        <v>34.82</v>
+      </c>
+      <c r="P5" s="28">
+        <v>32.12</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>34.11</v>
+      </c>
+      <c r="R5" s="28">
+        <v>32.53</v>
+      </c>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" s="43">
         <f t="shared" si="1"/>
-        <v>0.240657361548852</v>
-      </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="27">
-        <v>30.78</v>
-      </c>
-      <c r="M5" s="27">
-        <v>35</v>
-      </c>
-      <c r="N5" s="27">
-        <v>31.27</v>
-      </c>
-      <c r="O5" s="27">
-        <v>34.82</v>
-      </c>
-      <c r="P5" s="27">
-        <v>32.12</v>
-      </c>
-      <c r="Q5" s="27">
-        <v>34.11</v>
-      </c>
-      <c r="R5" s="27">
+        <v>0.307068887888339</v>
+      </c>
+      <c r="Y5" s="46">
+        <f t="shared" si="2"/>
+        <v>0.106571428571429</v>
+      </c>
+      <c r="Z5" s="46">
+        <f t="shared" si="3"/>
+        <v>0.077541642734061</v>
+      </c>
+      <c r="AA5" s="46">
+        <f t="shared" si="4"/>
+        <v>0.0463207270595133</v>
+      </c>
+      <c r="AB5" s="46" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE5" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF5" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG5" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH5" s="28">
+        <v>35.48</v>
+      </c>
+      <c r="AI5" s="28">
+        <v>31.36</v>
+      </c>
+      <c r="AJ5" s="28">
+        <f t="shared" si="6"/>
+        <v>4.12</v>
+      </c>
+      <c r="AK5" s="28">
+        <v>34.12</v>
+      </c>
+      <c r="AL5" s="28">
         <v>32.53</v>
       </c>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="X5" s="42">
-        <f t="shared" si="2"/>
-        <v>0.307068887888339</v>
-      </c>
-      <c r="Y5" s="45">
-        <f t="shared" si="3"/>
-        <v>0.106571428571429</v>
-      </c>
-      <c r="Z5" s="45">
-        <f t="shared" si="4"/>
-        <v>0.077541642734061</v>
-      </c>
-      <c r="AA5" s="45">
-        <f t="shared" si="5"/>
-        <v>0.0463207270595133</v>
-      </c>
-      <c r="AB5" s="45" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE5" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF5" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG5" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH5" s="27">
-        <v>35.48</v>
-      </c>
-      <c r="AI5" s="27">
-        <v>31.36</v>
-      </c>
-      <c r="AJ5" s="27">
+      <c r="AM5" s="28">
+        <v>39.33</v>
+      </c>
+      <c r="AN5" s="28">
         <f t="shared" si="7"/>
-        <v>4.12</v>
-      </c>
-      <c r="AK5" s="27">
-        <v>34.12</v>
-      </c>
-      <c r="AL5" s="27">
-        <v>32.53</v>
-      </c>
-      <c r="AM5" s="27">
-        <v>39.33</v>
-      </c>
-      <c r="AN5" s="27">
+        <v>3.27672955974844</v>
+      </c>
+      <c r="AO5" s="17">
         <f t="shared" si="8"/>
-        <v>3.27672955974844</v>
-      </c>
-      <c r="AO5" s="56">
+        <v>0.0466002344665884</v>
+      </c>
+      <c r="AP5" s="17">
         <f t="shared" si="9"/>
-        <v>0.0466002344665884</v>
-      </c>
-      <c r="AP5" s="56">
-        <f t="shared" si="10"/>
         <v>0.152696365767878</v>
       </c>
-      <c r="AQ5" s="57">
+      <c r="AQ5" s="56">
         <v>37.41</v>
       </c>
     </row>
     <row r="6" ht="36.35" customHeight="1" spans="1:43">
-      <c r="A6" s="24">
+      <c r="A6" s="26">
         <v>44519</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="16">
         <v>19.1</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="29">
         <v>19.18</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="29">
         <v>19.66</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="29">
         <v>20.94</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="28">
         <v>15.72</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="28">
         <v>26.22</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="36">
+        <f t="shared" si="10"/>
+        <v>0.33206106870229</v>
+      </c>
+      <c r="J6" s="36">
         <f t="shared" si="0"/>
-        <v>0.33206106870229</v>
-      </c>
-      <c r="J6" s="35">
+        <v>0.20137299771167</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="29">
+        <v>17.62</v>
+      </c>
+      <c r="M6" s="29">
+        <v>21.19</v>
+      </c>
+      <c r="N6" s="29">
+        <v>18.13</v>
+      </c>
+      <c r="O6" s="29">
+        <v>19.94</v>
+      </c>
+      <c r="P6" s="29">
+        <v>19.09</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>20.74</v>
+      </c>
+      <c r="R6" s="29">
+        <v>19.91</v>
+      </c>
+      <c r="S6" s="29">
+        <v>21.65</v>
+      </c>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" s="43">
         <f t="shared" si="1"/>
-        <v>0.20137299771167</v>
-      </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="28">
-        <v>17.62</v>
-      </c>
-      <c r="M6" s="28">
-        <v>21.19</v>
-      </c>
-      <c r="N6" s="28">
-        <v>18.13</v>
-      </c>
-      <c r="O6" s="28">
-        <v>19.94</v>
-      </c>
-      <c r="P6" s="28">
-        <v>19.09</v>
-      </c>
-      <c r="Q6" s="28">
-        <v>20.74</v>
-      </c>
-      <c r="R6" s="28">
+        <v>0.327993897787948</v>
+      </c>
+      <c r="Y6" s="46">
+        <f t="shared" si="2"/>
+        <v>0.144407739499764</v>
+      </c>
+      <c r="Z6" s="46">
+        <f t="shared" si="3"/>
+        <v>0.0426278836509529</v>
+      </c>
+      <c r="AA6" s="46">
+        <f t="shared" si="4"/>
+        <v>0.0400192864030857</v>
+      </c>
+      <c r="AB6" s="46">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE6" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG6" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH6" s="28">
+        <v>22.09</v>
+      </c>
+      <c r="AI6" s="28">
+        <v>17.84</v>
+      </c>
+      <c r="AJ6" s="28">
+        <f t="shared" si="6"/>
+        <v>4.25</v>
+      </c>
+      <c r="AK6" s="28">
+        <v>21.66</v>
+      </c>
+      <c r="AL6" s="28">
         <v>19.91</v>
       </c>
-      <c r="S6" s="28">
-        <v>21.65</v>
-      </c>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="X6" s="42">
-        <f t="shared" si="2"/>
-        <v>0.327993897787948</v>
-      </c>
-      <c r="Y6" s="45">
-        <f t="shared" si="3"/>
-        <v>0.144407739499764</v>
-      </c>
-      <c r="Z6" s="45">
-        <f t="shared" si="4"/>
-        <v>0.0426278836509529</v>
-      </c>
-      <c r="AA6" s="45">
-        <f t="shared" si="5"/>
-        <v>0.0400192864030857</v>
-      </c>
-      <c r="AB6" s="45">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE6" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG6" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH6" s="27">
-        <v>22.09</v>
-      </c>
-      <c r="AI6" s="27">
-        <v>17.84</v>
-      </c>
-      <c r="AJ6" s="27">
+      <c r="AM6" s="28">
+        <v>26.99</v>
+      </c>
+      <c r="AN6" s="28">
         <f t="shared" si="7"/>
-        <v>4.25</v>
-      </c>
-      <c r="AK6" s="27">
-        <v>21.66</v>
-      </c>
-      <c r="AL6" s="27">
-        <v>19.91</v>
-      </c>
-      <c r="AM6" s="27">
-        <v>26.99</v>
-      </c>
-      <c r="AN6" s="27">
+        <v>3.04571428571428</v>
+      </c>
+      <c r="AO6" s="17">
         <f t="shared" si="8"/>
-        <v>3.04571428571428</v>
-      </c>
-      <c r="AO6" s="56">
+        <v>0.0807940904893814</v>
+      </c>
+      <c r="AP6" s="17">
         <f t="shared" si="9"/>
-        <v>0.0807940904893814</v>
-      </c>
-      <c r="AP6" s="56">
-        <f t="shared" si="10"/>
         <v>0.246075715604801</v>
       </c>
-      <c r="AQ6" s="57">
+      <c r="AQ6" s="56">
         <v>41.29</v>
       </c>
     </row>
     <row r="7" ht="36.35" customHeight="1" spans="1:43">
-      <c r="A7" s="24">
+      <c r="A7" s="26">
         <v>44519</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="16">
         <v>28.2</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="29">
         <v>29.15</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="29">
         <v>31.53</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="29">
         <v>32.57</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="28">
         <v>20.61</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="28">
         <v>41.5</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="36">
+        <f t="shared" si="10"/>
+        <v>0.58030082484231</v>
+      </c>
+      <c r="J7" s="36">
         <f t="shared" si="0"/>
-        <v>0.58030082484231</v>
-      </c>
-      <c r="J7" s="35">
+        <v>0.215180722891566</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="28">
+        <v>28.42</v>
+      </c>
+      <c r="M7" s="28">
+        <v>34.7</v>
+      </c>
+      <c r="N7" s="28">
+        <v>29</v>
+      </c>
+      <c r="O7" s="28">
+        <v>35.27</v>
+      </c>
+      <c r="P7" s="28">
+        <v>30.89</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>32.65</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="X7" s="43">
         <f t="shared" si="1"/>
-        <v>0.215180722891566</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="27">
-        <v>28.42</v>
-      </c>
-      <c r="M7" s="27">
-        <v>34.7</v>
-      </c>
-      <c r="N7" s="27">
-        <v>29</v>
-      </c>
-      <c r="O7" s="27">
-        <v>35.27</v>
-      </c>
-      <c r="P7" s="27">
+        <v>0.315180722891566</v>
+      </c>
+      <c r="Y7" s="46">
+        <f t="shared" si="2"/>
+        <v>0.164265129682997</v>
+      </c>
+      <c r="Z7" s="46">
+        <f t="shared" si="3"/>
+        <v>0.124184859654097</v>
+      </c>
+      <c r="AA7" s="46">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB7" s="46" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE7" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF7" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG7" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH7" s="28">
+        <v>36.21</v>
+      </c>
+      <c r="AI7" s="28">
+        <v>27.35</v>
+      </c>
+      <c r="AJ7" s="28">
+        <f t="shared" si="6"/>
+        <v>8.86</v>
+      </c>
+      <c r="AK7" s="28">
+        <v>32.65</v>
+      </c>
+      <c r="AL7" s="28">
         <v>30.89</v>
       </c>
-      <c r="Q7" s="27">
-        <v>32.65</v>
-      </c>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="X7" s="42">
-        <f t="shared" si="2"/>
-        <v>0.315180722891566</v>
-      </c>
-      <c r="Y7" s="45">
-        <f t="shared" si="3"/>
-        <v>0.164265129682997</v>
-      </c>
-      <c r="Z7" s="45">
-        <f t="shared" si="4"/>
-        <v>0.124184859654097</v>
-      </c>
-      <c r="AA7" s="45">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AB7" s="45" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE7" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF7" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG7" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH7" s="27">
-        <v>36.21</v>
-      </c>
-      <c r="AI7" s="27">
-        <v>27.35</v>
-      </c>
-      <c r="AJ7" s="27">
+      <c r="AM7" s="28">
+        <v>36.22</v>
+      </c>
+      <c r="AN7" s="28">
         <f t="shared" si="7"/>
-        <v>8.86</v>
-      </c>
-      <c r="AK7" s="27">
-        <v>32.65</v>
-      </c>
-      <c r="AL7" s="27">
-        <v>30.89</v>
-      </c>
-      <c r="AM7" s="27">
-        <v>36.22</v>
-      </c>
-      <c r="AN7" s="27">
+        <v>2.02840909090909</v>
+      </c>
+      <c r="AO7" s="17">
         <f t="shared" si="8"/>
-        <v>2.02840909090909</v>
-      </c>
-      <c r="AO7" s="56">
+        <v>0.0539050535987748</v>
+      </c>
+      <c r="AP7" s="17">
         <f t="shared" si="9"/>
-        <v>0.0539050535987748</v>
-      </c>
-      <c r="AP7" s="56">
-        <f t="shared" si="10"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="AQ7" s="57">
+      <c r="AQ7" s="56">
         <v>28.82</v>
       </c>
     </row>
     <row r="8" ht="36.35" customHeight="1" spans="1:43">
-      <c r="A8" s="24">
+      <c r="A8" s="26">
         <v>44519</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="16">
         <v>37.4</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="29">
         <v>37.76</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="29">
         <v>39.88</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="29">
         <v>43.96</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="28">
         <v>27.85</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="28">
         <v>59.98</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="36">
+        <f t="shared" si="10"/>
+        <v>0.578456014362657</v>
+      </c>
+      <c r="J8" s="36">
         <f t="shared" si="0"/>
-        <v>0.578456014362657</v>
-      </c>
-      <c r="J8" s="35">
+        <v>0.267089029676559</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="28">
+        <v>33.01</v>
+      </c>
+      <c r="M8" s="28">
+        <v>42.56</v>
+      </c>
+      <c r="N8" s="28">
+        <v>35.92</v>
+      </c>
+      <c r="O8" s="28">
+        <v>41.5</v>
+      </c>
+      <c r="P8" s="28">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>43.61</v>
+      </c>
+      <c r="R8" s="28">
+        <v>39.32</v>
+      </c>
+      <c r="S8" s="28">
+        <v>45.16</v>
+      </c>
+      <c r="T8" s="28">
+        <v>42.57</v>
+      </c>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="X8" s="43">
         <f t="shared" si="1"/>
-        <v>0.267089029676559</v>
-      </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="27">
-        <v>33.01</v>
-      </c>
-      <c r="M8" s="27">
-        <v>42.56</v>
-      </c>
-      <c r="N8" s="27">
-        <v>35.92</v>
-      </c>
-      <c r="O8" s="27">
-        <v>41.5</v>
-      </c>
-      <c r="P8" s="27">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="27">
-        <v>43.61</v>
-      </c>
-      <c r="R8" s="27">
-        <v>39.32</v>
-      </c>
-      <c r="S8" s="27">
+        <v>0.449649883294432</v>
+      </c>
+      <c r="Y8" s="46">
+        <f t="shared" si="2"/>
+        <v>0.156015037593985</v>
+      </c>
+      <c r="Z8" s="46">
+        <f t="shared" si="3"/>
+        <v>0.0843373493975904</v>
+      </c>
+      <c r="AA8" s="46">
+        <f t="shared" si="4"/>
+        <v>0.0983719330428801</v>
+      </c>
+      <c r="AB8" s="46">
+        <f t="shared" si="5"/>
+        <v>0.0573516386182462</v>
+      </c>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE8" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH8" s="28">
+        <v>47.52</v>
+      </c>
+      <c r="AI8" s="28">
+        <v>33.98</v>
+      </c>
+      <c r="AJ8" s="28">
+        <f t="shared" si="6"/>
+        <v>13.54</v>
+      </c>
+      <c r="AK8" s="28">
         <v>45.16</v>
       </c>
-      <c r="T8" s="27">
-        <v>42.57</v>
-      </c>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="X8" s="42">
-        <f t="shared" si="2"/>
-        <v>0.449649883294432</v>
-      </c>
-      <c r="Y8" s="45">
-        <f t="shared" si="3"/>
-        <v>0.156015037593985</v>
-      </c>
-      <c r="Z8" s="45">
-        <f t="shared" si="4"/>
-        <v>0.0843373493975904</v>
-      </c>
-      <c r="AA8" s="45">
-        <f t="shared" si="5"/>
-        <v>0.0983719330428801</v>
-      </c>
-      <c r="AB8" s="45">
-        <f t="shared" si="6"/>
-        <v>0.0573516386182462</v>
-      </c>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE8" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF8" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG8" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH8" s="27">
-        <v>47.52</v>
-      </c>
-      <c r="AI8" s="27">
-        <v>33.98</v>
-      </c>
-      <c r="AJ8" s="27">
+      <c r="AL8" s="28">
+        <v>39.22</v>
+      </c>
+      <c r="AM8" s="28">
+        <v>58.11</v>
+      </c>
+      <c r="AN8" s="28">
         <f t="shared" si="7"/>
-        <v>13.54</v>
-      </c>
-      <c r="AK8" s="27">
-        <v>45.16</v>
-      </c>
-      <c r="AL8" s="27">
-        <v>39.22</v>
-      </c>
-      <c r="AM8" s="27">
-        <v>58.11</v>
-      </c>
-      <c r="AN8" s="27">
+        <v>2.18013468013468</v>
+      </c>
+      <c r="AO8" s="17">
         <f t="shared" si="8"/>
-        <v>2.18013468013468</v>
-      </c>
-      <c r="AO8" s="56">
+        <v>0.131532329495128</v>
+      </c>
+      <c r="AP8" s="17">
         <f t="shared" si="9"/>
-        <v>0.131532329495128</v>
-      </c>
-      <c r="AP8" s="56">
-        <f t="shared" si="10"/>
         <v>0.286758193091231</v>
       </c>
-      <c r="AQ8" s="57">
+      <c r="AQ8" s="56">
         <v>82.55</v>
       </c>
     </row>
     <row r="9" ht="36.35" customHeight="1" spans="1:43">
-      <c r="A9" s="24">
+      <c r="A9" s="26">
         <v>44519</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="16">
         <v>21.29</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="29">
         <v>21.51</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="29">
         <v>22.02</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="29">
         <v>23.3</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="28">
         <v>16.26</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="28">
         <v>27.5</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="36">
+        <f t="shared" si="10"/>
+        <v>0.432964329643296</v>
+      </c>
+      <c r="J9" s="36">
         <f t="shared" si="0"/>
-        <v>0.432964329643296</v>
-      </c>
-      <c r="J9" s="35">
+        <v>0.152727272727273</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="28">
+        <v>18.3</v>
+      </c>
+      <c r="M9" s="28">
+        <v>22.98</v>
+      </c>
+      <c r="N9" s="28">
+        <v>19.34</v>
+      </c>
+      <c r="O9" s="28">
+        <v>25.26</v>
+      </c>
+      <c r="P9" s="28">
+        <v>19.82</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>21.69</v>
+      </c>
+      <c r="R9" s="28">
+        <v>20.32</v>
+      </c>
+      <c r="S9" s="28">
+        <v>22.41</v>
+      </c>
+      <c r="T9" s="28">
+        <v>21.4</v>
+      </c>
+      <c r="U9" s="28">
+        <v>22.64</v>
+      </c>
+      <c r="V9" s="28">
+        <v>22</v>
+      </c>
+      <c r="W9" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" s="43">
         <f t="shared" si="1"/>
-        <v>0.152727272727273</v>
-      </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="27">
-        <v>18.3</v>
-      </c>
-      <c r="M9" s="27">
-        <v>22.98</v>
-      </c>
-      <c r="N9" s="27">
-        <v>19.34</v>
-      </c>
-      <c r="O9" s="27">
-        <v>25.26</v>
-      </c>
-      <c r="P9" s="27">
-        <v>19.82</v>
-      </c>
-      <c r="Q9" s="27">
-        <v>21.69</v>
-      </c>
-      <c r="R9" s="27">
-        <v>20.32</v>
-      </c>
-      <c r="S9" s="27">
-        <v>22.41</v>
-      </c>
-      <c r="T9" s="27">
-        <v>21.4</v>
-      </c>
-      <c r="U9" s="27">
-        <v>22.64</v>
-      </c>
-      <c r="V9" s="27">
-        <v>22</v>
-      </c>
-      <c r="W9" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="X9" s="42">
+        <v>0.334545454545455</v>
+      </c>
+      <c r="Y9" s="46">
         <f t="shared" si="2"/>
-        <v>0.334545454545455</v>
-      </c>
-      <c r="Y9" s="45">
+        <v>0.158398607484769</v>
+      </c>
+      <c r="Z9" s="46">
         <f t="shared" si="3"/>
-        <v>0.158398607484769</v>
-      </c>
-      <c r="Z9" s="45">
+        <v>0.215360253365004</v>
+      </c>
+      <c r="AA9" s="46">
         <f t="shared" si="4"/>
-        <v>0.215360253365004</v>
-      </c>
-      <c r="AA9" s="45">
+        <v>0.0631627478100508</v>
+      </c>
+      <c r="AB9" s="46">
         <f t="shared" si="5"/>
-        <v>0.0631627478100508</v>
-      </c>
-      <c r="AB9" s="45">
-        <f t="shared" si="6"/>
         <v>0.0450691655510933</v>
       </c>
-      <c r="AC9" s="45">
+      <c r="AC9" s="46">
         <f>(U9-V9)/U9</f>
         <v>0.0282685512367491</v>
       </c>
-      <c r="AD9" s="43" t="s">
+      <c r="AD9" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="AE9" s="43" t="s">
+      <c r="AE9" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="AF9" s="43" t="s">
+      <c r="AF9" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="AG9" s="41" t="s">
+      <c r="AG9" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="AH9" s="27">
+      <c r="AH9" s="28">
         <v>24.48</v>
       </c>
-      <c r="AI9" s="27">
+      <c r="AI9" s="28">
         <v>19.98</v>
       </c>
-      <c r="AJ9" s="27">
+      <c r="AJ9" s="28">
+        <f t="shared" si="6"/>
+        <v>4.5</v>
+      </c>
+      <c r="AK9" s="28">
+        <v>23.56</v>
+      </c>
+      <c r="AL9" s="28">
+        <v>22.4</v>
+      </c>
+      <c r="AM9" s="28">
+        <v>27.75</v>
+      </c>
+      <c r="AN9" s="28">
         <f t="shared" si="7"/>
-        <v>4.5</v>
-      </c>
-      <c r="AK9" s="27">
-        <v>23.56</v>
-      </c>
-      <c r="AL9" s="27">
-        <v>22.4</v>
-      </c>
-      <c r="AM9" s="27">
-        <v>27.75</v>
-      </c>
-      <c r="AN9" s="27">
+        <v>3.61206896551724</v>
+      </c>
+      <c r="AO9" s="17">
         <f t="shared" si="8"/>
-        <v>3.61206896551724</v>
-      </c>
-      <c r="AO9" s="56">
+        <v>0.0492359932088285</v>
+      </c>
+      <c r="AP9" s="17">
         <f t="shared" si="9"/>
-        <v>0.0492359932088285</v>
-      </c>
-      <c r="AP9" s="56">
-        <f t="shared" si="10"/>
         <v>0.177843803056027</v>
       </c>
-      <c r="AQ9" s="58" t="s">
+      <c r="AQ9" s="57" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" ht="86.6" customHeight="1" spans="1:43">
-      <c r="A10" s="24">
+      <c r="A10" s="26">
         <v>44517</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="16">
         <v>4.31</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="28">
         <v>4.51</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="28">
         <v>4.87</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="28">
         <v>5.19</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="28">
         <v>1.86</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="28">
         <v>7.01</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="36">
+        <f t="shared" si="10"/>
+        <v>1.79032258064516</v>
+      </c>
+      <c r="J10" s="36">
         <f t="shared" si="0"/>
-        <v>1.79032258064516</v>
-      </c>
-      <c r="J10" s="35">
+        <v>0.25962910128388</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" s="43">
         <f t="shared" si="1"/>
-        <v>0.25962910128388</v>
-      </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="X10" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="46" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y10" s="45" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z10" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z10" s="45" t="e">
+      <c r="AA10" s="46" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA10" s="45" t="e">
+      <c r="AB10" s="46" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB10" s="45" t="e">
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH10" s="28">
+        <v>5.54</v>
+      </c>
+      <c r="AI10" s="28">
+        <v>4.19</v>
+      </c>
+      <c r="AJ10" s="28">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH10" s="27">
-        <v>5.54</v>
-      </c>
-      <c r="AI10" s="27">
-        <v>4.19</v>
-      </c>
-      <c r="AJ10" s="27">
-        <f t="shared" si="7"/>
         <v>1.35</v>
       </c>
-      <c r="AK10" s="27">
+      <c r="AK10" s="28">
         <v>5.48</v>
       </c>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="36"/>
-      <c r="AQ10" s="57">
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="37"/>
+      <c r="AO10" s="37"/>
+      <c r="AP10" s="37"/>
+      <c r="AQ10" s="56">
         <v>-15.78</v>
       </c>
     </row>
     <row r="11" ht="84.35" customHeight="1" spans="1:43">
-      <c r="A11" s="24">
+      <c r="A11" s="26">
         <v>44517</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="16">
         <v>33.16</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="28">
         <v>35.76</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="28">
         <v>39.55</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="28">
         <v>40.84</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="28">
         <v>14.11</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="28">
         <v>66.5</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="36">
+        <f t="shared" si="10"/>
+        <v>1.89440113394756</v>
+      </c>
+      <c r="J11" s="36">
         <f t="shared" si="0"/>
-        <v>1.89440113394756</v>
-      </c>
-      <c r="J11" s="35">
+        <v>0.385864661654135</v>
+      </c>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="X11" s="43">
         <f t="shared" si="1"/>
-        <v>0.385864661654135</v>
-      </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="X11" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="46" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y11" s="45" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z11" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z11" s="45" t="e">
+      <c r="AA11" s="46" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA11" s="45" t="e">
+      <c r="AB11" s="46" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB11" s="45" t="e">
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH11" s="28">
+        <v>45.49</v>
+      </c>
+      <c r="AI11" s="28">
+        <v>34.77</v>
+      </c>
+      <c r="AJ11" s="28">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH11" s="27">
-        <v>45.49</v>
-      </c>
-      <c r="AI11" s="27">
-        <v>34.77</v>
-      </c>
-      <c r="AJ11" s="27">
-        <f t="shared" si="7"/>
         <v>10.72</v>
       </c>
-      <c r="AK11" s="41" t="s">
+      <c r="AK11" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="58" t="s">
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="37"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" ht="22.35" customHeight="1" spans="1:43">
-      <c r="A12" s="24">
+      <c r="A12" s="26">
         <v>44519</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="16">
         <v>15.38</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="28">
         <v>15.75</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="28">
         <v>16.69</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="28">
         <v>17.14</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="28">
         <v>11.61</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="28">
         <v>22.7</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="36">
+        <f t="shared" si="10"/>
+        <v>0.476313522825151</v>
+      </c>
+      <c r="J12" s="36">
         <f t="shared" si="0"/>
-        <v>0.476313522825151</v>
-      </c>
-      <c r="J12" s="35">
+        <v>0.244933920704846</v>
+      </c>
+      <c r="K12" s="37"/>
+      <c r="L12" s="28">
+        <v>15.1</v>
+      </c>
+      <c r="M12" s="28">
+        <v>16.1</v>
+      </c>
+      <c r="N12" s="28">
+        <v>15.26</v>
+      </c>
+      <c r="O12" s="28">
+        <v>16.92</v>
+      </c>
+      <c r="P12" s="28">
+        <v>16.36</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>17.75</v>
+      </c>
+      <c r="R12" s="28">
+        <v>16.98</v>
+      </c>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="X12" s="43">
         <f t="shared" si="1"/>
-        <v>0.244933920704846</v>
-      </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="27">
-        <v>15.1</v>
-      </c>
-      <c r="M12" s="27">
-        <v>16.1</v>
-      </c>
-      <c r="N12" s="27">
-        <v>15.26</v>
-      </c>
-      <c r="O12" s="27">
-        <v>16.92</v>
-      </c>
-      <c r="P12" s="27">
-        <v>16.36</v>
-      </c>
-      <c r="Q12" s="27">
-        <v>17.75</v>
-      </c>
-      <c r="R12" s="27">
-        <v>16.98</v>
-      </c>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="X12" s="42">
+        <v>0.334801762114537</v>
+      </c>
+      <c r="Y12" s="46">
         <f t="shared" si="2"/>
-        <v>0.334801762114537</v>
-      </c>
-      <c r="Y12" s="45">
+        <v>0.0521739130434784</v>
+      </c>
+      <c r="Z12" s="46">
         <f t="shared" si="3"/>
-        <v>0.0521739130434784</v>
-      </c>
-      <c r="Z12" s="45">
+        <v>0.0330969267139481</v>
+      </c>
+      <c r="AA12" s="46">
         <f t="shared" si="4"/>
-        <v>0.0330969267139481</v>
-      </c>
-      <c r="AA12" s="45">
+        <v>0.0433802816901408</v>
+      </c>
+      <c r="AB12" s="46" t="e">
         <f t="shared" si="5"/>
-        <v>0.0433802816901408</v>
-      </c>
-      <c r="AB12" s="45" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="41" t="s">
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="41" t="s">
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="59"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="58"/>
     </row>
     <row r="13" ht="22.35" customHeight="1" spans="1:43">
-      <c r="A13" s="24">
+      <c r="A13" s="26">
         <v>44519</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="16">
         <v>26.92</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="29">
         <v>28.71</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="29">
         <v>32.1</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="29">
         <v>33.88</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="28">
         <v>11.79</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="28">
         <v>46.88</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="36">
+        <f t="shared" si="10"/>
+        <v>1.87362171331637</v>
+      </c>
+      <c r="J13" s="36">
         <f t="shared" si="0"/>
-        <v>1.87362171331637</v>
-      </c>
-      <c r="J13" s="35">
+        <v>0.277303754266212</v>
+      </c>
+      <c r="K13" s="37"/>
+      <c r="L13" s="28">
+        <v>28.02</v>
+      </c>
+      <c r="M13" s="28">
+        <v>35.35</v>
+      </c>
+      <c r="N13" s="28">
+        <v>32.02</v>
+      </c>
+      <c r="O13" s="28">
+        <v>34.49</v>
+      </c>
+      <c r="P13" s="28">
+        <v>33.63</v>
+      </c>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="X13" s="43">
         <f t="shared" si="1"/>
-        <v>0.277303754266212</v>
-      </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="27">
-        <v>28.02</v>
-      </c>
-      <c r="M13" s="27">
-        <v>35.35</v>
-      </c>
-      <c r="N13" s="27">
-        <v>32.02</v>
-      </c>
-      <c r="O13" s="27">
-        <v>34.49</v>
-      </c>
-      <c r="P13" s="27">
-        <v>33.63</v>
-      </c>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="X13" s="42">
+        <v>0.402303754266212</v>
+      </c>
+      <c r="Y13" s="46">
         <f t="shared" si="2"/>
-        <v>0.402303754266212</v>
-      </c>
-      <c r="Y13" s="45">
+        <v>0.0942008486562941</v>
+      </c>
+      <c r="Z13" s="46">
         <f t="shared" si="3"/>
-        <v>0.0942008486562941</v>
-      </c>
-      <c r="Z13" s="45">
+        <v>0.0249347636996231</v>
+      </c>
+      <c r="AA13" s="46" t="e">
         <f t="shared" si="4"/>
-        <v>0.0249347636996231</v>
-      </c>
-      <c r="AA13" s="45" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB13" s="46" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB13" s="45" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="41" t="s">
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="41" t="s">
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="36"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="36"/>
-      <c r="AQ13" s="59"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
+      <c r="AM13" s="37"/>
+      <c r="AN13" s="37"/>
+      <c r="AO13" s="37"/>
+      <c r="AP13" s="37"/>
+      <c r="AQ13" s="58"/>
     </row>
     <row r="14" ht="22.35" customHeight="1" spans="1:43">
-      <c r="A14" s="24">
+      <c r="A14" s="26">
         <v>44519</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="16">
         <v>35.35</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="29">
         <v>35.58</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="29">
         <v>37.2</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="29">
         <v>38.9</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="28">
         <v>28.09</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="28">
         <v>58.63</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="36">
+        <f t="shared" si="10"/>
+        <v>0.384834460662157</v>
+      </c>
+      <c r="J14" s="36">
         <f t="shared" si="0"/>
-        <v>0.384834460662157</v>
-      </c>
-      <c r="J14" s="35">
+        <v>0.33651714139519</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="28">
+        <v>33.45</v>
+      </c>
+      <c r="M14" s="28">
+        <v>38.48</v>
+      </c>
+      <c r="N14" s="28">
+        <v>36.62</v>
+      </c>
+      <c r="O14" s="28">
+        <v>38.88</v>
+      </c>
+      <c r="P14" s="28">
+        <v>36.26</v>
+      </c>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="X14" s="43">
         <f t="shared" si="1"/>
-        <v>0.33651714139519</v>
-      </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="27">
-        <v>33.45</v>
-      </c>
-      <c r="M14" s="27">
-        <v>38.48</v>
-      </c>
-      <c r="N14" s="27">
-        <v>36.62</v>
-      </c>
-      <c r="O14" s="27">
-        <v>38.88</v>
-      </c>
-      <c r="P14" s="27">
-        <v>36.26</v>
-      </c>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="X14" s="42">
+        <v>0.429472966058332</v>
+      </c>
+      <c r="Y14" s="46">
         <f t="shared" si="2"/>
-        <v>0.429472966058332</v>
-      </c>
-      <c r="Y14" s="45">
+        <v>0.0483367983367983</v>
+      </c>
+      <c r="Z14" s="46">
         <f t="shared" si="3"/>
-        <v>0.0483367983367983</v>
-      </c>
-      <c r="Z14" s="45">
+        <v>0.0673868312757203</v>
+      </c>
+      <c r="AA14" s="46" t="e">
         <f t="shared" si="4"/>
-        <v>0.0673868312757203</v>
-      </c>
-      <c r="AA14" s="45" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB14" s="46" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB14" s="45" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="41" t="s">
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="41" t="s">
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="59"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="58"/>
     </row>
     <row r="15" ht="22.35" customHeight="1" spans="1:43">
-      <c r="A15" s="24">
+      <c r="A15" s="26">
         <v>44519</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="16">
         <v>16.62</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="29">
         <v>16.82</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="29">
         <v>17.84</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="29">
         <v>18.08</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="28">
         <v>12.36</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="28">
         <v>25.47</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="36">
+        <f t="shared" si="10"/>
+        <v>0.462783171521036</v>
+      </c>
+      <c r="J15" s="36">
         <f t="shared" si="0"/>
-        <v>0.462783171521036</v>
-      </c>
-      <c r="J15" s="35">
+        <v>0.290145268943856</v>
+      </c>
+      <c r="K15" s="37"/>
+      <c r="L15" s="28">
+        <v>15.61</v>
+      </c>
+      <c r="M15" s="28">
+        <v>17.86</v>
+      </c>
+      <c r="N15" s="28">
+        <v>16.76</v>
+      </c>
+      <c r="O15" s="28">
+        <v>18.28</v>
+      </c>
+      <c r="P15" s="28">
+        <v>16.74</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>19</v>
+      </c>
+      <c r="R15" s="28">
+        <v>18.01</v>
+      </c>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="43">
         <f t="shared" si="1"/>
-        <v>0.290145268943856</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="27">
-        <v>15.61</v>
-      </c>
-      <c r="M15" s="27">
-        <v>17.86</v>
-      </c>
-      <c r="N15" s="27">
-        <v>16.76</v>
-      </c>
-      <c r="O15" s="27">
-        <v>18.28</v>
-      </c>
-      <c r="P15" s="27">
-        <v>16.74</v>
-      </c>
-      <c r="Q15" s="27">
-        <v>19</v>
-      </c>
-      <c r="R15" s="27">
-        <v>18.01</v>
-      </c>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="42">
+        <v>0.387122104436592</v>
+      </c>
+      <c r="Y15" s="46">
         <f t="shared" si="2"/>
-        <v>0.387122104436592</v>
-      </c>
-      <c r="Y15" s="45">
+        <v>0.0615901455767076</v>
+      </c>
+      <c r="Z15" s="46">
         <f t="shared" si="3"/>
-        <v>0.0615901455767076</v>
-      </c>
-      <c r="Z15" s="45">
+        <v>0.0842450765864334</v>
+      </c>
+      <c r="AA15" s="46">
         <f t="shared" si="4"/>
-        <v>0.0842450765864334</v>
-      </c>
-      <c r="AA15" s="45">
+        <v>0.0521052631578947</v>
+      </c>
+      <c r="AB15" s="46" t="e">
         <f t="shared" si="5"/>
-        <v>0.0521052631578947</v>
-      </c>
-      <c r="AB15" s="45" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC15" s="47" t="e">
+      <c r="AC15" s="48" t="e">
         <f>(U15-V15)/U15*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="43" t="s">
+      <c r="AD15" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="41" t="s">
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="36"/>
-      <c r="AQ15" s="59"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="37"/>
+      <c r="AO15" s="37"/>
+      <c r="AP15" s="37"/>
+      <c r="AQ15" s="58"/>
     </row>
     <row r="16" ht="22.35" customHeight="1" spans="1:43">
-      <c r="A16" s="30">
+      <c r="A16" s="31">
         <v>44519</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="16">
         <v>22.34</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="29">
         <v>23.02</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="29">
         <v>25.02</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="29">
         <v>26.63</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="28">
         <v>13.32</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="28">
         <v>33.8</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="36">
+        <f t="shared" si="10"/>
+        <v>0.999249249249249</v>
+      </c>
+      <c r="J16" s="36">
         <f t="shared" si="0"/>
-        <v>0.999249249249249</v>
-      </c>
-      <c r="J16" s="35">
+        <v>0.212130177514793</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="28">
+        <v>21.89</v>
+      </c>
+      <c r="M16" s="28">
+        <v>25.6</v>
+      </c>
+      <c r="N16" s="28">
+        <v>23.35</v>
+      </c>
+      <c r="O16" s="28">
+        <v>26.73</v>
+      </c>
+      <c r="P16" s="28">
+        <v>25.3</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>26.85</v>
+      </c>
+      <c r="R16" s="28">
+        <v>25.46</v>
+      </c>
+      <c r="S16" s="28">
+        <v>27.38</v>
+      </c>
+      <c r="T16" s="28">
+        <v>26.6</v>
+      </c>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="43">
         <f t="shared" si="1"/>
-        <v>0.212130177514793</v>
-      </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="27">
-        <v>21.89</v>
-      </c>
-      <c r="M16" s="27">
-        <v>25.6</v>
-      </c>
-      <c r="N16" s="27">
-        <v>23.35</v>
-      </c>
-      <c r="O16" s="27">
-        <v>26.73</v>
-      </c>
-      <c r="P16" s="27">
-        <v>25.3</v>
-      </c>
-      <c r="Q16" s="27">
-        <v>26.85</v>
-      </c>
-      <c r="R16" s="27">
-        <v>25.46</v>
-      </c>
-      <c r="S16" s="27">
-        <v>27.38</v>
-      </c>
-      <c r="T16" s="27">
-        <v>26.6</v>
-      </c>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="42">
+        <v>0.352366863905325</v>
+      </c>
+      <c r="Y16" s="46">
         <f t="shared" si="2"/>
-        <v>0.352366863905325</v>
-      </c>
-      <c r="Y16" s="45">
+        <v>0.087890625</v>
+      </c>
+      <c r="Z16" s="46">
         <f t="shared" si="3"/>
-        <v>0.087890625</v>
-      </c>
-      <c r="Z16" s="45">
+        <v>0.0534979423868313</v>
+      </c>
+      <c r="AA16" s="46">
         <f t="shared" si="4"/>
-        <v>0.0534979423868313</v>
-      </c>
-      <c r="AA16" s="45">
+        <v>0.0517690875232775</v>
+      </c>
+      <c r="AB16" s="46">
         <f t="shared" si="5"/>
-        <v>0.0517690875232775</v>
-      </c>
-      <c r="AB16" s="45">
-        <f t="shared" si="6"/>
         <v>0.0284879474068662</v>
       </c>
-      <c r="AC16" s="47" t="e">
+      <c r="AC16" s="48" t="e">
         <f>(U16-V16)/U16*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD16" s="43" t="s">
+      <c r="AD16" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="41" t="s">
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="36"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="37"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
+      <c r="AQ16" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4622,283 +4619,243 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
+  <sheetPr/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1339285714286" customWidth="1"/>
+    <col min="2" max="2" width="19.9375" customWidth="1"/>
+    <col min="3" max="3" width="13.0892857142857" customWidth="1"/>
+    <col min="4" max="4" width="11.5982142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+    <row r="1" ht="13" spans="1:4">
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" ht="22.55" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>93</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="12">
+        <v>44518</v>
+      </c>
+      <c r="B2" s="13">
+        <f>VLOOKUP(久吾高科日志!A3,久吾高科日志!A2:E10,4,FALSE)-VLOOKUP(久吾高科日志!A3,久吾高科日志!A2:E10,2,FALSE)</f>
+        <v>6.38</v>
+      </c>
+      <c r="C2" s="14">
+        <f>(VLOOKUP(久吾高科日志!A3,久吾高科日志!A2:E9,4,FALSE)-VLOOKUP(久吾高科日志!A2,久吾高科日志!A2:E9,4,FALSE))/VLOOKUP(久吾高科日志!A2,久吾高科日志!A2:E9,4,FALSE)</f>
+        <v>0.127081292850147</v>
+      </c>
+      <c r="D2" s="14">
+        <f>(VLOOKUP(久吾高科日志!A3,久吾高科日志!A2:E10,5,FALSE)-VLOOKUP(久吾高科日志!A2,久吾高科日志!A2:E10,5,FALSE))/VLOOKUP(久吾高科日志!A2,久吾高科日志!A2:E10,5,FALSE)</f>
+        <v>0.898795180722892</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1" spans="1:5">
-      <c r="A3" s="4">
-        <v>44517</v>
-      </c>
-      <c r="B3" s="5">
-        <v>38.97</v>
-      </c>
-      <c r="C3" s="13">
-        <v>38.25</v>
-      </c>
-      <c r="D3" s="13">
-        <v>40.84</v>
-      </c>
-      <c r="E3" s="13">
-        <v>12.45</v>
+    <row r="3" spans="1:4">
+      <c r="A3" s="15">
+        <v>44519</v>
+      </c>
+      <c r="B3" s="16">
+        <f>VLOOKUP(久吾高科日志!A4,久吾高科日志!A3:E10,4,FALSE)-VLOOKUP(久吾高科日志!A4,久吾高科日志!A3:E10,2,FALSE)</f>
+        <v>4.56</v>
+      </c>
+      <c r="C3" s="17">
+        <f>(VLOOKUP(久吾高科日志!A4,久吾高科日志!A3:E10,4,FALSE)-VLOOKUP(久吾高科日志!A3,久吾高科日志!A3:E10,4,FALSE))/VLOOKUP(久吾高科日志!A3,久吾高科日志!A3:E10,4,FALSE)</f>
+        <v>-0.0293286986747773</v>
+      </c>
+      <c r="D3" s="17">
+        <f>(VLOOKUP(久吾高科日志!A4,久吾高科日志!A3:E10,5,FALSE)-VLOOKUP(久吾高科日志!A3,久吾高科日志!A3:E10,5,FALSE))/VLOOKUP(久吾高科日志!A3,久吾高科日志!A3:E10,5,FALSE)</f>
+        <v>-0.258883248730965</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1" spans="1:5">
-      <c r="A4" s="7">
-        <v>44518</v>
-      </c>
-      <c r="B4" s="8">
-        <v>39.65</v>
-      </c>
-      <c r="C4" s="14">
-        <v>40.05</v>
-      </c>
-      <c r="D4" s="14">
-        <v>46.03</v>
-      </c>
-      <c r="E4" s="14">
-        <v>23.64</v>
-      </c>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1" spans="1:5">
-      <c r="A5" s="7">
-        <v>44519</v>
-      </c>
-      <c r="B5" s="8">
-        <v>40.12</v>
-      </c>
-      <c r="C5" s="14">
-        <v>44.4</v>
-      </c>
-      <c r="D5" s="14">
-        <v>44.68</v>
-      </c>
-      <c r="E5" s="14">
-        <v>17.52</v>
-      </c>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1" spans="1:5">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1" spans="1:5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1" spans="1:5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1" spans="1:5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5982142857143" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1964285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+    <row r="1" ht="13" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="2" ht="22.55" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>96</v>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B2" s="3">
+        <v>38.97</v>
+      </c>
+      <c r="C2" s="4">
+        <v>38.25</v>
+      </c>
+      <c r="D2" s="4">
+        <v>40.84</v>
+      </c>
+      <c r="E2" s="4">
+        <v>12.45</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1" spans="1:4">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
         <v>44518</v>
       </c>
-      <c r="B3" s="5">
-        <f>VLOOKUP(运行状态监控1!A4,运行状态监控1!A3:E11,4,FALSE)-VLOOKUP(运行状态监控1!A4,运行状态监控1!A3:E11,2,FALSE)</f>
-        <v>6.38</v>
-      </c>
-      <c r="C3" s="6">
-        <f>(VLOOKUP(运行状态监控1!A4,运行状态监控1!A3:E10,4,FALSE)-VLOOKUP(运行状态监控1!A3,运行状态监控1!A3:E10,4,FALSE))/VLOOKUP(运行状态监控1!A3,运行状态监控1!A3:E10,4,FALSE)</f>
-        <v>0.127081292850147</v>
-      </c>
-      <c r="D3" s="6">
-        <f>(VLOOKUP(运行状态监控1!A4,运行状态监控1!A3:E11,5,FALSE)-VLOOKUP(运行状态监控1!A3,运行状态监控1!A3:E11,5,FALSE))/VLOOKUP(运行状态监控1!A3,运行状态监控1!A3:E11,5,FALSE)</f>
-        <v>0.898795180722892</v>
+      <c r="B3" s="6">
+        <v>39.65</v>
+      </c>
+      <c r="C3" s="7">
+        <v>40.05</v>
+      </c>
+      <c r="D3" s="7">
+        <v>46.03</v>
+      </c>
+      <c r="E3" s="7">
+        <v>23.64</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1" spans="1:4">
-      <c r="A4" s="7">
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
         <v>44519</v>
       </c>
-      <c r="B4" s="8">
-        <f>VLOOKUP(运行状态监控1!A5,运行状态监控1!A4:E11,4,FALSE)-VLOOKUP(运行状态监控1!A5,运行状态监控1!A4:E11,2,FALSE)</f>
-        <v>4.56</v>
-      </c>
-      <c r="C4" s="9">
-        <f>(VLOOKUP(运行状态监控1!A5,运行状态监控1!A4:E11,4,FALSE)-VLOOKUP(运行状态监控1!A4,运行状态监控1!A4:E11,4,FALSE))/VLOOKUP(运行状态监控1!A4,运行状态监控1!A4:E11,4,FALSE)</f>
-        <v>-0.0293286986747773</v>
-      </c>
-      <c r="D4" s="9">
-        <f>(VLOOKUP(运行状态监控1!A5,运行状态监控1!A4:E11,5,FALSE)-VLOOKUP(运行状态监控1!A4,运行状态监控1!A4:E11,5,FALSE))/VLOOKUP(运行状态监控1!A4,运行状态监控1!A4:E11,5,FALSE)</f>
-        <v>-0.258883248730965</v>
+      <c r="B4" s="6">
+        <v>40.12</v>
+      </c>
+      <c r="C4" s="7">
+        <v>44.4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>44.68</v>
+      </c>
+      <c r="E4" s="7">
+        <v>17.52</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1" spans="1:4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1" spans="1:4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1" spans="1:4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1" spans="1:4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1" spans="1:4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/我的创作/炒股/技术面研究.xlsx
+++ b/我的创作/炒股/技术面研究.xlsx
@@ -7,41 +7,16 @@
     <workbookView windowWidth="27240" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
-    <sheet name="买入指标" sheetId="2" r:id="rId2"/>
-    <sheet name="久吾高科运行指标" sheetId="5" r:id="rId3"/>
-    <sheet name="久吾高科日志" sheetId="6" r:id="rId4"/>
+    <sheet name="买入筛选条件" sheetId="7" r:id="rId1"/>
+    <sheet name="久吾高科运行指标" sheetId="5" r:id="rId2"/>
+    <sheet name="久吾高科日志" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
-  <si>
-    <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
-  </si>
-  <si>
-    <t>Numbers 工作表名称</t>
-  </si>
-  <si>
-    <t>Numbers 表格名称</t>
-  </si>
-  <si>
-    <t>Excel 工作表名称</t>
-  </si>
-  <si>
-    <t>买入指标监控</t>
-  </si>
-  <si>
-    <t>表格 1</t>
-  </si>
-  <si>
-    <t>运行状态监控1</t>
-  </si>
-  <si>
-    <t>运行状态表2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>日期</t>
   </si>
@@ -64,7 +39,19 @@
     <t>52周内最低点</t>
   </si>
   <si>
-    <t>52周内最高点</t>
+    <r>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="2" tint="-0.9"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周内最高点</t>
+    </r>
   </si>
   <si>
     <t>前期上涨
@@ -285,10 +272,54 @@
     <t>300927(江天化学)</t>
   </si>
   <si>
-    <t>(洪通燃气)</t>
-  </si>
-  <si>
-    <t>(赛意信息)</t>
+    <r>
+      <t>605169(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洪通燃气</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>300687(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛意信息</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>20日均线与开盘价关系</t>
@@ -316,13 +347,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0000%"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000%"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -347,28 +376,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF800080"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="11"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="2" tint="-0.9"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
@@ -381,17 +398,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,30 +427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,10 +442,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,6 +480,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
@@ -486,8 +502,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,20 +527,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="2" tint="-0.9"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,13 +580,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +604,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,13 +628,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,25 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,13 +694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,7 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,43 +736,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,25 +766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,15 +1074,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1069,21 +1085,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,157 +1138,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1342,9 +1367,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1358,19 +1380,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1379,26 +1401,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1411,21 +1442,15 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1464,24 +1489,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2648,1939 +2655,1824 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B3:D14"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.5982142857143" customWidth="1"/>
+    <col min="1" max="1" width="11.9017857142857" customWidth="1"/>
+    <col min="2" max="2" width="17.1160714285714" customWidth="1"/>
+    <col min="9" max="9" width="12.0714285714286"/>
+    <col min="10" max="10" width="9.85714285714286"/>
+    <col min="24" max="24" width="9.85714285714286"/>
+    <col min="40" max="40" width="12.7857142857143"/>
   </cols>
   <sheetData>
-    <row r="3" ht="50" customHeight="1" spans="2:2">
-      <c r="B3" s="59" t="s">
+    <row r="1" spans="1:43">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL1" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM1" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ1" s="53" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" ht="17" spans="2:4">
-      <c r="B7" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="2:4">
-      <c r="B9" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-    </row>
-    <row r="10" ht="15" spans="2:4">
-      <c r="B10" s="62"/>
-      <c r="C10" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="2:4">
-      <c r="B11" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-    </row>
-    <row r="12" ht="15" spans="2:4">
-      <c r="B12" s="62"/>
-      <c r="C12" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="2:4">
-      <c r="B13" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-    </row>
-    <row r="14" ht="15" spans="2:4">
-      <c r="B14" s="62"/>
-      <c r="C14" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'买入指标监控'!R2C1" display="买入指标监控"/>
-    <hyperlink ref="D12" location="'运行状态监控1'!R2C1" display="运行状态监控1"/>
-    <hyperlink ref="D14" location="'运行状态表2'!R2C1" display="运行状态表2"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AQ16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
-  <cols>
-    <col min="1" max="2" width="16.3482142857143" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.36607142857143" style="18" customWidth="1"/>
-    <col min="4" max="4" width="7.3125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="7.11607142857143" style="18" customWidth="1"/>
-    <col min="6" max="6" width="8.22321428571429" style="18" customWidth="1"/>
-    <col min="7" max="8" width="11.7232142857143" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.7232142857143" style="18" customWidth="1"/>
-    <col min="10" max="10" width="11.5803571428571" style="18" customWidth="1"/>
-    <col min="11" max="11" width="16.3482142857143" style="18" customWidth="1"/>
-    <col min="12" max="12" width="8.22321428571429" style="18" customWidth="1"/>
-    <col min="13" max="15" width="7.41071428571429" style="18" customWidth="1"/>
-    <col min="16" max="16" width="7.95535714285714" style="18" customWidth="1"/>
-    <col min="17" max="22" width="7.41071428571429" style="18" customWidth="1"/>
-    <col min="23" max="23" width="8.84821428571429" style="18" customWidth="1"/>
-    <col min="24" max="29" width="7.41071428571429" style="18" customWidth="1"/>
-    <col min="30" max="30" width="8.22321428571429" style="18" customWidth="1"/>
-    <col min="31" max="32" width="13.2232142857143" style="18" customWidth="1"/>
-    <col min="33" max="33" width="11.5803571428571" style="18" customWidth="1"/>
-    <col min="34" max="34" width="10.0803571428571" style="18" customWidth="1"/>
-    <col min="35" max="35" width="8.85714285714286" style="18" customWidth="1"/>
-    <col min="36" max="36" width="11.7321428571429" style="18" customWidth="1"/>
-    <col min="37" max="37" width="11.6517857142857" style="18" customWidth="1"/>
-    <col min="38" max="43" width="10.4017857142857" style="18" customWidth="1"/>
-    <col min="44" max="16384" width="16.3482142857143" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="22.55" customHeight="1" spans="1:43">
-      <c r="A1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH1" s="20" t="s">
+    <row r="2" ht="25" spans="1:43">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="20" t="s">
+      <c r="M2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" s="52" t="s">
+      <c r="N2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AM1" s="52" t="s">
+      <c r="O2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="P2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="Q2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="R2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AQ1" s="53" t="s">
+      <c r="S2" s="37" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" ht="70.45" customHeight="1" spans="1:43">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="33" t="s">
+      <c r="T2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="U2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="V2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="W2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="X2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Y2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="Z2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="AA2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="AB2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="AC2" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="AD2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="AE2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="AF2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="AI2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AJ2" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI2" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ2" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
       <c r="AQ2" s="54"/>
     </row>
-    <row r="3" ht="36.55" customHeight="1" spans="1:43">
-      <c r="A3" s="23">
+    <row r="3" ht="36" spans="1:43">
+      <c r="A3" s="22">
         <v>44517</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>53</v>
+      <c r="B3" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="C3" s="13">
         <v>22.15</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>23.55</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>24.52</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>25.7</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>5.46</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <v>46.33</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="14">
         <f>(F3-G3)/G3</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="J3" s="34">
-        <f t="shared" ref="J3:J16" si="0">(H3-F3)/H3</f>
+      <c r="J3" s="14">
+        <f>(H3-F3)/H3</f>
         <v>0.445283833369307</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="25">
+      <c r="K3" s="38"/>
+      <c r="L3" s="24">
         <v>20.79</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="24">
         <v>29.8</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="24">
         <v>21.88</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="24">
         <v>25.14</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="24">
         <v>22.1</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="24">
         <v>26.4</v>
       </c>
-      <c r="R3" s="25">
+      <c r="R3" s="24">
         <v>24</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="X3" s="41">
-        <f t="shared" ref="X3:X16" si="1">(H3-L3)/H3</f>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="43">
+        <f>(H3-L3)/H3</f>
         <v>0.551262680768401</v>
       </c>
-      <c r="Y3" s="45">
-        <f t="shared" ref="Y3:Y16" si="2">(M3-N3)/M3</f>
+      <c r="Y3" s="43">
+        <f t="shared" ref="Y3:Y16" si="0">(M3-N3)/M3</f>
         <v>0.265771812080537</v>
       </c>
-      <c r="Z3" s="45">
-        <f t="shared" ref="Z3:Z16" si="3">(O3-P3)/O3</f>
+      <c r="Z3" s="43">
+        <f t="shared" ref="Z3:Z16" si="1">(O3-P3)/O3</f>
         <v>0.120922832140016</v>
       </c>
-      <c r="AA3" s="45">
-        <f t="shared" ref="AA3:AA16" si="4">(Q3-R3)/Q3</f>
+      <c r="AA3" s="43">
+        <f t="shared" ref="AA3:AA16" si="2">(Q3-R3)/Q3</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="AB3" s="45" t="e">
-        <f t="shared" ref="AB3:AB16" si="5">(S3-T3)/S3</f>
+      <c r="AB3" s="43" t="e">
+        <f t="shared" ref="AB3:AB16" si="3">(S3-T3)/S3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC3" s="35"/>
+      <c r="AC3" s="38"/>
       <c r="AD3" s="47" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="AE3" s="47" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AF3" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG3" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH3" s="25">
+        <v>49</v>
+      </c>
+      <c r="AG3" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH3" s="24">
         <v>28.15</v>
       </c>
-      <c r="AI3" s="25">
+      <c r="AI3" s="24">
         <v>21.87</v>
       </c>
-      <c r="AJ3" s="28">
-        <f t="shared" ref="AJ3:AJ11" si="6">AH3-AI3</f>
+      <c r="AJ3" s="27">
+        <f t="shared" ref="AJ3:AJ11" si="4">AH3-AI3</f>
         <v>6.28</v>
       </c>
-      <c r="AK3" s="25">
+      <c r="AK3" s="24">
         <v>26.2</v>
       </c>
-      <c r="AL3" s="25">
+      <c r="AL3" s="24">
         <v>24.68</v>
       </c>
-      <c r="AM3" s="25">
+      <c r="AM3" s="24">
         <v>32.49</v>
       </c>
-      <c r="AN3" s="25">
-        <f t="shared" ref="AN3:AN9" si="7">(AM3-AK3)/(AK3-AL3)</f>
+      <c r="AN3" s="24">
+        <f t="shared" ref="AN3:AN9" si="5">(AM3-AK3)/(AK3-AL3)</f>
         <v>4.13815789473685</v>
       </c>
       <c r="AO3" s="14">
-        <f t="shared" ref="AO3:AO9" si="8">(AK3-AL3)/AK3</f>
+        <f t="shared" ref="AO3:AO9" si="6">(AK3-AL3)/AK3</f>
         <v>0.0580152671755725</v>
       </c>
       <c r="AP3" s="14">
-        <f t="shared" ref="AP3:AP9" si="9">(AM3-AK3)/AK3</f>
+        <f t="shared" ref="AP3:AP9" si="7">(AM3-AK3)/AK3</f>
         <v>0.240076335877863</v>
       </c>
       <c r="AQ3" s="55">
         <v>150.88</v>
       </c>
     </row>
-    <row r="4" ht="36.35" customHeight="1" spans="1:43">
-      <c r="A4" s="26">
+    <row r="4" ht="48" spans="1:43">
+      <c r="A4" s="25">
         <v>44517</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>59</v>
+      <c r="B4" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="16">
         <v>38.45</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>39.06</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>39.91</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>39.92</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>27.1</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="27">
         <v>59.95</v>
       </c>
-      <c r="I4" s="36">
-        <f t="shared" ref="I3:I16" si="10">(F4-G4)/G4</f>
+      <c r="I4" s="14">
+        <f t="shared" ref="I4:I10" si="8">(F4-G4)/G4</f>
         <v>0.473062730627306</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="14">
+        <f t="shared" ref="J4:J13" si="9">(H4-F4)/H4</f>
+        <v>0.334111759799833</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="28">
+        <v>36.59</v>
+      </c>
+      <c r="M4" s="28">
+        <v>41.5</v>
+      </c>
+      <c r="N4" s="28">
+        <v>37.17</v>
+      </c>
+      <c r="O4" s="28">
+        <v>42</v>
+      </c>
+      <c r="P4" s="28">
+        <v>39.01</v>
+      </c>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="43">
+        <f t="shared" ref="X4:X11" si="10">(H4-L4)/H4</f>
+        <v>0.389658048373645</v>
+      </c>
+      <c r="Y4" s="46">
         <f t="shared" si="0"/>
-        <v>0.334111759799833</v>
-      </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="29">
-        <v>36.59</v>
-      </c>
-      <c r="M4" s="29">
-        <v>41.5</v>
-      </c>
-      <c r="N4" s="29">
-        <v>37.17</v>
-      </c>
-      <c r="O4" s="29">
-        <v>42</v>
-      </c>
-      <c r="P4" s="29">
+        <v>0.10433734939759</v>
+      </c>
+      <c r="Z4" s="46">
+        <f t="shared" si="1"/>
+        <v>0.0711904761904762</v>
+      </c>
+      <c r="AA4" s="46" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB4" s="46" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF4" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG4" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH4" s="27">
+        <v>43.92</v>
+      </c>
+      <c r="AI4" s="27">
+        <v>35.16</v>
+      </c>
+      <c r="AJ4" s="27">
+        <f t="shared" si="4"/>
+        <v>8.76000000000001</v>
+      </c>
+      <c r="AK4" s="27">
+        <v>41.7</v>
+      </c>
+      <c r="AL4" s="27">
         <v>39.01</v>
       </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="X4" s="43">
-        <f t="shared" si="1"/>
-        <v>0.389658048373645</v>
-      </c>
-      <c r="Y4" s="46">
-        <f t="shared" si="2"/>
-        <v>0.10433734939759</v>
-      </c>
-      <c r="Z4" s="46">
-        <f t="shared" si="3"/>
-        <v>0.0711904761904762</v>
-      </c>
-      <c r="AA4" s="46" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB4" s="46" t="e">
+      <c r="AM4" s="27">
+        <v>52.05</v>
+      </c>
+      <c r="AN4" s="27">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE4" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF4" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG4" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH4" s="28">
-        <v>43.92</v>
-      </c>
-      <c r="AI4" s="28">
-        <v>35.16</v>
-      </c>
-      <c r="AJ4" s="28">
+        <v>3.84758364312267</v>
+      </c>
+      <c r="AO4" s="17">
         <f t="shared" si="6"/>
-        <v>8.76000000000001</v>
-      </c>
-      <c r="AK4" s="28">
-        <v>41.7</v>
-      </c>
-      <c r="AL4" s="28">
-        <v>39.01</v>
-      </c>
-      <c r="AM4" s="28">
-        <v>52.05</v>
-      </c>
-      <c r="AN4" s="28">
+        <v>0.0645083932853718</v>
+      </c>
+      <c r="AP4" s="17">
         <f t="shared" si="7"/>
-        <v>3.84758364312267</v>
-      </c>
-      <c r="AO4" s="17">
-        <f t="shared" si="8"/>
-        <v>0.0645083932853718</v>
-      </c>
-      <c r="AP4" s="17">
-        <f t="shared" si="9"/>
         <v>0.248201438848921</v>
       </c>
       <c r="AQ4" s="56">
         <v>129.12</v>
       </c>
     </row>
-    <row r="5" ht="36.35" customHeight="1" spans="1:43">
-      <c r="A5" s="26">
+    <row r="5" ht="36" spans="1:43">
+      <c r="A5" s="25">
         <v>44517</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>64</v>
+      <c r="B5" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="C5" s="16">
         <v>31.92</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>32.63</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>33.17</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>33.73</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>22.98</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="27">
         <v>44.42</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="14">
+        <f t="shared" si="8"/>
+        <v>0.467798085291558</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="9"/>
+        <v>0.240657361548852</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="27">
+        <v>30.78</v>
+      </c>
+      <c r="M5" s="27">
+        <v>35</v>
+      </c>
+      <c r="N5" s="27">
+        <v>31.27</v>
+      </c>
+      <c r="O5" s="27">
+        <v>34.82</v>
+      </c>
+      <c r="P5" s="27">
+        <v>32.12</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>34.11</v>
+      </c>
+      <c r="R5" s="27">
+        <v>32.53</v>
+      </c>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="43">
         <f t="shared" si="10"/>
-        <v>0.467798085291558</v>
-      </c>
-      <c r="J5" s="36">
+        <v>0.307068887888339</v>
+      </c>
+      <c r="Y5" s="46">
         <f t="shared" si="0"/>
-        <v>0.240657361548852</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="28">
-        <v>30.78</v>
-      </c>
-      <c r="M5" s="28">
-        <v>35</v>
-      </c>
-      <c r="N5" s="28">
-        <v>31.27</v>
-      </c>
-      <c r="O5" s="28">
-        <v>34.82</v>
-      </c>
-      <c r="P5" s="28">
-        <v>32.12</v>
-      </c>
-      <c r="Q5" s="28">
-        <v>34.11</v>
-      </c>
-      <c r="R5" s="28">
+        <v>0.106571428571429</v>
+      </c>
+      <c r="Z5" s="46">
+        <f t="shared" si="1"/>
+        <v>0.077541642734061</v>
+      </c>
+      <c r="AA5" s="46">
+        <f t="shared" si="2"/>
+        <v>0.0463207270595133</v>
+      </c>
+      <c r="AB5" s="46" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF5" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH5" s="27">
+        <v>35.48</v>
+      </c>
+      <c r="AI5" s="27">
+        <v>31.36</v>
+      </c>
+      <c r="AJ5" s="27">
+        <f t="shared" si="4"/>
+        <v>4.12</v>
+      </c>
+      <c r="AK5" s="27">
+        <v>34.12</v>
+      </c>
+      <c r="AL5" s="27">
         <v>32.53</v>
       </c>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="X5" s="43">
-        <f t="shared" si="1"/>
-        <v>0.307068887888339</v>
-      </c>
-      <c r="Y5" s="46">
-        <f t="shared" si="2"/>
-        <v>0.106571428571429</v>
-      </c>
-      <c r="Z5" s="46">
-        <f t="shared" si="3"/>
-        <v>0.077541642734061</v>
-      </c>
-      <c r="AA5" s="46">
-        <f t="shared" si="4"/>
-        <v>0.0463207270595133</v>
-      </c>
-      <c r="AB5" s="46" t="e">
+      <c r="AM5" s="27">
+        <v>39.33</v>
+      </c>
+      <c r="AN5" s="27">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE5" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF5" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG5" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH5" s="28">
-        <v>35.48</v>
-      </c>
-      <c r="AI5" s="28">
-        <v>31.36</v>
-      </c>
-      <c r="AJ5" s="28">
+        <v>3.27672955974844</v>
+      </c>
+      <c r="AO5" s="17">
         <f t="shared" si="6"/>
-        <v>4.12</v>
-      </c>
-      <c r="AK5" s="28">
-        <v>34.12</v>
-      </c>
-      <c r="AL5" s="28">
-        <v>32.53</v>
-      </c>
-      <c r="AM5" s="28">
-        <v>39.33</v>
-      </c>
-      <c r="AN5" s="28">
+        <v>0.0466002344665884</v>
+      </c>
+      <c r="AP5" s="17">
         <f t="shared" si="7"/>
-        <v>3.27672955974844</v>
-      </c>
-      <c r="AO5" s="17">
-        <f t="shared" si="8"/>
-        <v>0.0466002344665884</v>
-      </c>
-      <c r="AP5" s="17">
-        <f t="shared" si="9"/>
         <v>0.152696365767878</v>
       </c>
       <c r="AQ5" s="56">
         <v>37.41</v>
       </c>
     </row>
-    <row r="6" ht="36.35" customHeight="1" spans="1:43">
-      <c r="A6" s="26">
+    <row r="6" ht="36" spans="1:43">
+      <c r="A6" s="25">
         <v>44519</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>66</v>
+      <c r="B6" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="C6" s="16">
         <v>19.1</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>19.18</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <v>19.66</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <v>20.94</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="27">
         <v>15.72</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="27">
         <v>26.22</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="14">
+        <f t="shared" si="8"/>
+        <v>0.33206106870229</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="9"/>
+        <v>0.20137299771167</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="28">
+        <v>17.62</v>
+      </c>
+      <c r="M6" s="28">
+        <v>21.19</v>
+      </c>
+      <c r="N6" s="28">
+        <v>18.13</v>
+      </c>
+      <c r="O6" s="28">
+        <v>19.94</v>
+      </c>
+      <c r="P6" s="28">
+        <v>19.09</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>20.74</v>
+      </c>
+      <c r="R6" s="28">
+        <v>19.91</v>
+      </c>
+      <c r="S6" s="28">
+        <v>21.65</v>
+      </c>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="43">
         <f t="shared" si="10"/>
-        <v>0.33206106870229</v>
-      </c>
-      <c r="J6" s="36">
+        <v>0.327993897787948</v>
+      </c>
+      <c r="Y6" s="46">
         <f t="shared" si="0"/>
-        <v>0.20137299771167</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="29">
-        <v>17.62</v>
-      </c>
-      <c r="M6" s="29">
-        <v>21.19</v>
-      </c>
-      <c r="N6" s="29">
-        <v>18.13</v>
-      </c>
-      <c r="O6" s="29">
-        <v>19.94</v>
-      </c>
-      <c r="P6" s="29">
-        <v>19.09</v>
-      </c>
-      <c r="Q6" s="29">
-        <v>20.74</v>
-      </c>
-      <c r="R6" s="29">
+        <v>0.144407739499764</v>
+      </c>
+      <c r="Z6" s="46">
+        <f t="shared" si="1"/>
+        <v>0.0426278836509529</v>
+      </c>
+      <c r="AA6" s="46">
+        <f t="shared" si="2"/>
+        <v>0.0400192864030857</v>
+      </c>
+      <c r="AB6" s="46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE6" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF6" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG6" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="27">
+        <v>22.09</v>
+      </c>
+      <c r="AI6" s="27">
+        <v>17.84</v>
+      </c>
+      <c r="AJ6" s="27">
+        <f t="shared" si="4"/>
+        <v>4.25</v>
+      </c>
+      <c r="AK6" s="27">
+        <v>21.66</v>
+      </c>
+      <c r="AL6" s="27">
         <v>19.91</v>
       </c>
-      <c r="S6" s="29">
-        <v>21.65</v>
-      </c>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="X6" s="43">
-        <f t="shared" si="1"/>
-        <v>0.327993897787948</v>
-      </c>
-      <c r="Y6" s="46">
-        <f t="shared" si="2"/>
-        <v>0.144407739499764</v>
-      </c>
-      <c r="Z6" s="46">
-        <f t="shared" si="3"/>
-        <v>0.0426278836509529</v>
-      </c>
-      <c r="AA6" s="46">
-        <f t="shared" si="4"/>
-        <v>0.0400192864030857</v>
-      </c>
-      <c r="AB6" s="46">
+      <c r="AM6" s="27">
+        <v>26.99</v>
+      </c>
+      <c r="AN6" s="27">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE6" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF6" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG6" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH6" s="28">
-        <v>22.09</v>
-      </c>
-      <c r="AI6" s="28">
-        <v>17.84</v>
-      </c>
-      <c r="AJ6" s="28">
+        <v>3.04571428571428</v>
+      </c>
+      <c r="AO6" s="17">
         <f t="shared" si="6"/>
-        <v>4.25</v>
-      </c>
-      <c r="AK6" s="28">
-        <v>21.66</v>
-      </c>
-      <c r="AL6" s="28">
-        <v>19.91</v>
-      </c>
-      <c r="AM6" s="28">
-        <v>26.99</v>
-      </c>
-      <c r="AN6" s="28">
+        <v>0.0807940904893814</v>
+      </c>
+      <c r="AP6" s="17">
         <f t="shared" si="7"/>
-        <v>3.04571428571428</v>
-      </c>
-      <c r="AO6" s="17">
-        <f t="shared" si="8"/>
-        <v>0.0807940904893814</v>
-      </c>
-      <c r="AP6" s="17">
-        <f t="shared" si="9"/>
         <v>0.246075715604801</v>
       </c>
       <c r="AQ6" s="56">
         <v>41.29</v>
       </c>
     </row>
-    <row r="7" ht="36.35" customHeight="1" spans="1:43">
-      <c r="A7" s="26">
+    <row r="7" ht="48" spans="1:43">
+      <c r="A7" s="25">
         <v>44519</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>69</v>
+      <c r="B7" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="16">
         <v>28.2</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>29.15</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>31.53</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <v>32.57</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>20.61</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>41.5</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="14">
+        <f t="shared" si="8"/>
+        <v>0.58030082484231</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="9"/>
+        <v>0.215180722891566</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="27">
+        <v>28.42</v>
+      </c>
+      <c r="M7" s="27">
+        <v>34.7</v>
+      </c>
+      <c r="N7" s="27">
+        <v>29</v>
+      </c>
+      <c r="O7" s="27">
+        <v>35.27</v>
+      </c>
+      <c r="P7" s="27">
+        <v>30.89</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>32.65</v>
+      </c>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="X7" s="43">
         <f t="shared" si="10"/>
-        <v>0.58030082484231</v>
-      </c>
-      <c r="J7" s="36">
+        <v>0.315180722891566</v>
+      </c>
+      <c r="Y7" s="46">
         <f t="shared" si="0"/>
-        <v>0.215180722891566</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="28">
-        <v>28.42</v>
-      </c>
-      <c r="M7" s="28">
-        <v>34.7</v>
-      </c>
-      <c r="N7" s="28">
-        <v>29</v>
-      </c>
-      <c r="O7" s="28">
-        <v>35.27</v>
-      </c>
-      <c r="P7" s="28">
+        <v>0.164265129682997</v>
+      </c>
+      <c r="Z7" s="46">
+        <f t="shared" si="1"/>
+        <v>0.124184859654097</v>
+      </c>
+      <c r="AA7" s="46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB7" s="46" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE7" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF7" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG7" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH7" s="27">
+        <v>36.21</v>
+      </c>
+      <c r="AI7" s="27">
+        <v>27.35</v>
+      </c>
+      <c r="AJ7" s="27">
+        <f t="shared" si="4"/>
+        <v>8.86</v>
+      </c>
+      <c r="AK7" s="27">
+        <v>32.65</v>
+      </c>
+      <c r="AL7" s="27">
         <v>30.89</v>
       </c>
-      <c r="Q7" s="28">
-        <v>32.65</v>
-      </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="X7" s="43">
-        <f t="shared" si="1"/>
-        <v>0.315180722891566</v>
-      </c>
-      <c r="Y7" s="46">
-        <f t="shared" si="2"/>
-        <v>0.164265129682997</v>
-      </c>
-      <c r="Z7" s="46">
-        <f t="shared" si="3"/>
-        <v>0.124184859654097</v>
-      </c>
-      <c r="AA7" s="46">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB7" s="46" t="e">
+      <c r="AM7" s="27">
+        <v>36.22</v>
+      </c>
+      <c r="AN7" s="27">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE7" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF7" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG7" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH7" s="28">
-        <v>36.21</v>
-      </c>
-      <c r="AI7" s="28">
-        <v>27.35</v>
-      </c>
-      <c r="AJ7" s="28">
+        <v>2.02840909090909</v>
+      </c>
+      <c r="AO7" s="17">
         <f t="shared" si="6"/>
-        <v>8.86</v>
-      </c>
-      <c r="AK7" s="28">
-        <v>32.65</v>
-      </c>
-      <c r="AL7" s="28">
-        <v>30.89</v>
-      </c>
-      <c r="AM7" s="28">
-        <v>36.22</v>
-      </c>
-      <c r="AN7" s="28">
+        <v>0.0539050535987748</v>
+      </c>
+      <c r="AP7" s="17">
         <f t="shared" si="7"/>
-        <v>2.02840909090909</v>
-      </c>
-      <c r="AO7" s="17">
-        <f t="shared" si="8"/>
-        <v>0.0539050535987748</v>
-      </c>
-      <c r="AP7" s="17">
-        <f t="shared" si="9"/>
         <v>0.109341500765697</v>
       </c>
       <c r="AQ7" s="56">
         <v>28.82</v>
       </c>
     </row>
-    <row r="8" ht="36.35" customHeight="1" spans="1:43">
-      <c r="A8" s="26">
+    <row r="8" ht="36" spans="1:43">
+      <c r="A8" s="25">
         <v>44519</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>71</v>
+      <c r="B8" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="16">
         <v>37.4</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>37.76</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <v>39.88</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>43.96</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>27.85</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="27">
         <v>59.98</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="14">
+        <f t="shared" si="8"/>
+        <v>0.578456014362657</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="9"/>
+        <v>0.267089029676559</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="27">
+        <v>33.01</v>
+      </c>
+      <c r="M8" s="27">
+        <v>42.56</v>
+      </c>
+      <c r="N8" s="27">
+        <v>35.92</v>
+      </c>
+      <c r="O8" s="27">
+        <v>41.5</v>
+      </c>
+      <c r="P8" s="27">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>43.61</v>
+      </c>
+      <c r="R8" s="27">
+        <v>39.32</v>
+      </c>
+      <c r="S8" s="27">
+        <v>45.16</v>
+      </c>
+      <c r="T8" s="27">
+        <v>42.57</v>
+      </c>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" s="43">
         <f t="shared" si="10"/>
-        <v>0.578456014362657</v>
-      </c>
-      <c r="J8" s="36">
+        <v>0.449649883294432</v>
+      </c>
+      <c r="Y8" s="46">
         <f t="shared" si="0"/>
-        <v>0.267089029676559</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="28">
-        <v>33.01</v>
-      </c>
-      <c r="M8" s="28">
-        <v>42.56</v>
-      </c>
-      <c r="N8" s="28">
-        <v>35.92</v>
-      </c>
-      <c r="O8" s="28">
-        <v>41.5</v>
-      </c>
-      <c r="P8" s="28">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="28">
-        <v>43.61</v>
-      </c>
-      <c r="R8" s="28">
-        <v>39.32</v>
-      </c>
-      <c r="S8" s="28">
+        <v>0.156015037593985</v>
+      </c>
+      <c r="Z8" s="46">
+        <f t="shared" si="1"/>
+        <v>0.0843373493975904</v>
+      </c>
+      <c r="AA8" s="46">
+        <f t="shared" si="2"/>
+        <v>0.0983719330428801</v>
+      </c>
+      <c r="AB8" s="46">
+        <f t="shared" si="3"/>
+        <v>0.0573516386182462</v>
+      </c>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE8" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG8" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH8" s="27">
+        <v>47.52</v>
+      </c>
+      <c r="AI8" s="27">
+        <v>33.98</v>
+      </c>
+      <c r="AJ8" s="27">
+        <f t="shared" si="4"/>
+        <v>13.54</v>
+      </c>
+      <c r="AK8" s="27">
         <v>45.16</v>
       </c>
-      <c r="T8" s="28">
-        <v>42.57</v>
-      </c>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="X8" s="43">
-        <f t="shared" si="1"/>
-        <v>0.449649883294432</v>
-      </c>
-      <c r="Y8" s="46">
-        <f t="shared" si="2"/>
-        <v>0.156015037593985</v>
-      </c>
-      <c r="Z8" s="46">
-        <f t="shared" si="3"/>
-        <v>0.0843373493975904</v>
-      </c>
-      <c r="AA8" s="46">
-        <f t="shared" si="4"/>
-        <v>0.0983719330428801</v>
-      </c>
-      <c r="AB8" s="46">
+      <c r="AL8" s="27">
+        <v>39.22</v>
+      </c>
+      <c r="AM8" s="27">
+        <v>58.11</v>
+      </c>
+      <c r="AN8" s="27">
         <f t="shared" si="5"/>
-        <v>0.0573516386182462</v>
-      </c>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE8" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF8" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG8" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH8" s="28">
-        <v>47.52</v>
-      </c>
-      <c r="AI8" s="28">
-        <v>33.98</v>
-      </c>
-      <c r="AJ8" s="28">
+        <v>2.18013468013468</v>
+      </c>
+      <c r="AO8" s="17">
         <f t="shared" si="6"/>
-        <v>13.54</v>
-      </c>
-      <c r="AK8" s="28">
-        <v>45.16</v>
-      </c>
-      <c r="AL8" s="28">
-        <v>39.22</v>
-      </c>
-      <c r="AM8" s="28">
-        <v>58.11</v>
-      </c>
-      <c r="AN8" s="28">
+        <v>0.131532329495128</v>
+      </c>
+      <c r="AP8" s="17">
         <f t="shared" si="7"/>
-        <v>2.18013468013468</v>
-      </c>
-      <c r="AO8" s="17">
-        <f t="shared" si="8"/>
-        <v>0.131532329495128</v>
-      </c>
-      <c r="AP8" s="17">
-        <f t="shared" si="9"/>
         <v>0.286758193091231</v>
       </c>
       <c r="AQ8" s="56">
         <v>82.55</v>
       </c>
     </row>
-    <row r="9" ht="36.35" customHeight="1" spans="1:43">
-      <c r="A9" s="26">
+    <row r="9" ht="36" spans="1:43">
+      <c r="A9" s="25">
         <v>44519</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>74</v>
+      <c r="B9" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="16">
         <v>21.29</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>21.51</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>22.02</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>23.3</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>16.26</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <v>27.5</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="14">
+        <f t="shared" si="8"/>
+        <v>0.432964329643296</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="9"/>
+        <v>0.152727272727273</v>
+      </c>
+      <c r="K9" s="39"/>
+      <c r="L9" s="27">
+        <v>18.3</v>
+      </c>
+      <c r="M9" s="27">
+        <v>22.98</v>
+      </c>
+      <c r="N9" s="27">
+        <v>19.34</v>
+      </c>
+      <c r="O9" s="27">
+        <v>25.26</v>
+      </c>
+      <c r="P9" s="27">
+        <v>19.82</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>21.69</v>
+      </c>
+      <c r="R9" s="27">
+        <v>20.32</v>
+      </c>
+      <c r="S9" s="27">
+        <v>22.41</v>
+      </c>
+      <c r="T9" s="27">
+        <v>21.4</v>
+      </c>
+      <c r="U9" s="27">
+        <v>22.64</v>
+      </c>
+      <c r="V9" s="27">
+        <v>22</v>
+      </c>
+      <c r="W9" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="X9" s="43">
         <f t="shared" si="10"/>
-        <v>0.432964329643296</v>
-      </c>
-      <c r="J9" s="36">
+        <v>0.334545454545455</v>
+      </c>
+      <c r="Y9" s="46">
         <f t="shared" si="0"/>
-        <v>0.152727272727273</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="28">
-        <v>18.3</v>
-      </c>
-      <c r="M9" s="28">
-        <v>22.98</v>
-      </c>
-      <c r="N9" s="28">
-        <v>19.34</v>
-      </c>
-      <c r="O9" s="28">
-        <v>25.26</v>
-      </c>
-      <c r="P9" s="28">
-        <v>19.82</v>
-      </c>
-      <c r="Q9" s="28">
-        <v>21.69</v>
-      </c>
-      <c r="R9" s="28">
-        <v>20.32</v>
-      </c>
-      <c r="S9" s="28">
-        <v>22.41</v>
-      </c>
-      <c r="T9" s="28">
-        <v>21.4</v>
-      </c>
-      <c r="U9" s="28">
-        <v>22.64</v>
-      </c>
-      <c r="V9" s="28">
-        <v>22</v>
-      </c>
-      <c r="W9" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="X9" s="43">
+        <v>0.158398607484769</v>
+      </c>
+      <c r="Z9" s="46">
         <f t="shared" si="1"/>
-        <v>0.334545454545455</v>
-      </c>
-      <c r="Y9" s="46">
+        <v>0.215360253365004</v>
+      </c>
+      <c r="AA9" s="46">
         <f t="shared" si="2"/>
-        <v>0.158398607484769</v>
-      </c>
-      <c r="Z9" s="46">
+        <v>0.0631627478100508</v>
+      </c>
+      <c r="AB9" s="46">
         <f t="shared" si="3"/>
-        <v>0.215360253365004</v>
-      </c>
-      <c r="AA9" s="46">
-        <f t="shared" si="4"/>
-        <v>0.0631627478100508</v>
-      </c>
-      <c r="AB9" s="46">
-        <f t="shared" si="5"/>
         <v>0.0450691655510933</v>
       </c>
       <c r="AC9" s="46">
         <f>(U9-V9)/U9</f>
         <v>0.0282685512367491</v>
       </c>
-      <c r="AD9" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE9" s="44" t="s">
+      <c r="AD9" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="AF9" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG9" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH9" s="28">
+      <c r="AE9" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF9" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG9" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH9" s="27">
         <v>24.48</v>
       </c>
-      <c r="AI9" s="28">
+      <c r="AI9" s="27">
         <v>19.98</v>
       </c>
-      <c r="AJ9" s="28">
+      <c r="AJ9" s="27">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="AK9" s="27">
+        <v>23.56</v>
+      </c>
+      <c r="AL9" s="27">
+        <v>22.4</v>
+      </c>
+      <c r="AM9" s="27">
+        <v>27.75</v>
+      </c>
+      <c r="AN9" s="27">
+        <f t="shared" si="5"/>
+        <v>3.61206896551724</v>
+      </c>
+      <c r="AO9" s="17">
         <f t="shared" si="6"/>
-        <v>4.5</v>
-      </c>
-      <c r="AK9" s="28">
-        <v>23.56</v>
-      </c>
-      <c r="AL9" s="28">
-        <v>22.4</v>
-      </c>
-      <c r="AM9" s="28">
-        <v>27.75</v>
-      </c>
-      <c r="AN9" s="28">
+        <v>0.0492359932088285</v>
+      </c>
+      <c r="AP9" s="17">
         <f t="shared" si="7"/>
-        <v>3.61206896551724</v>
-      </c>
-      <c r="AO9" s="17">
-        <f t="shared" si="8"/>
-        <v>0.0492359932088285</v>
-      </c>
-      <c r="AP9" s="17">
-        <f t="shared" si="9"/>
         <v>0.177843803056027</v>
       </c>
       <c r="AQ9" s="57" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="10" ht="86.6" customHeight="1" spans="1:43">
-      <c r="A10" s="26">
+    <row r="10" ht="74" spans="1:43">
+      <c r="A10" s="25">
         <v>44517</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>78</v>
+      <c r="B10" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="C10" s="16">
         <v>4.31</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>4.51</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>4.87</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>5.19</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>1.86</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <v>7.01</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="14">
+        <f t="shared" si="8"/>
+        <v>1.79032258064516</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="9"/>
+        <v>0.25962910128388</v>
+      </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="X10" s="43">
         <f t="shared" si="10"/>
-        <v>1.79032258064516</v>
-      </c>
-      <c r="J10" s="36">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="46" t="e">
         <f t="shared" si="0"/>
-        <v>0.25962910128388</v>
-      </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="X10" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z10" s="46" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y10" s="46" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA10" s="46" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z10" s="46" t="e">
+      <c r="AB10" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA10" s="46" t="e">
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH10" s="27">
+        <v>5.54</v>
+      </c>
+      <c r="AI10" s="27">
+        <v>4.19</v>
+      </c>
+      <c r="AJ10" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB10" s="46" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH10" s="28">
-        <v>5.54</v>
-      </c>
-      <c r="AI10" s="28">
-        <v>4.19</v>
-      </c>
-      <c r="AJ10" s="28">
-        <f t="shared" si="6"/>
         <v>1.35</v>
       </c>
-      <c r="AK10" s="28">
+      <c r="AK10" s="27">
         <v>5.48</v>
       </c>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
       <c r="AQ10" s="56">
         <v>-15.78</v>
       </c>
     </row>
-    <row r="11" ht="84.35" customHeight="1" spans="1:43">
-      <c r="A11" s="26">
+    <row r="11" ht="74" spans="1:43">
+      <c r="A11" s="25">
         <v>44517</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>80</v>
+      <c r="B11" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="C11" s="16">
         <v>33.16</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>35.76</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <v>39.55</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <v>40.84</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>14.11</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="27">
         <v>66.5</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="14">
+        <f t="shared" ref="I11:I16" si="11">(F11-G11)/G11</f>
+        <v>1.89440113394756</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="9"/>
+        <v>0.385864661654135</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="X11" s="43">
         <f t="shared" si="10"/>
-        <v>1.89440113394756</v>
-      </c>
-      <c r="J11" s="36">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="46" t="e">
         <f t="shared" si="0"/>
-        <v>0.385864661654135</v>
-      </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="X11" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z11" s="46" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y11" s="46" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA11" s="46" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z11" s="46" t="e">
+      <c r="AB11" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA11" s="46" t="e">
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH11" s="27">
+        <v>45.49</v>
+      </c>
+      <c r="AI11" s="27">
+        <v>34.77</v>
+      </c>
+      <c r="AJ11" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB11" s="46" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH11" s="28">
-        <v>45.49</v>
-      </c>
-      <c r="AI11" s="28">
-        <v>34.77</v>
-      </c>
-      <c r="AJ11" s="28">
-        <f t="shared" si="6"/>
         <v>10.72</v>
       </c>
-      <c r="AK11" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="37"/>
+      <c r="AK11" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
       <c r="AQ11" s="57" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="12" ht="22.35" customHeight="1" spans="1:43">
-      <c r="A12" s="26">
+    <row r="12" ht="25" spans="1:43">
+      <c r="A12" s="25">
         <v>44519</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>84</v>
+      <c r="B12" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="C12" s="16">
         <v>15.38</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>15.75</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>16.69</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>17.14</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>11.61</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="27">
         <v>22.7</v>
       </c>
-      <c r="I12" s="36">
-        <f t="shared" si="10"/>
+      <c r="I12" s="14">
+        <f t="shared" si="11"/>
         <v>0.476313522825151</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="14">
+        <f t="shared" si="9"/>
+        <v>0.244933920704846</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="L12" s="27">
+        <v>15.1</v>
+      </c>
+      <c r="M12" s="27">
+        <v>16.1</v>
+      </c>
+      <c r="N12" s="27">
+        <v>15.26</v>
+      </c>
+      <c r="O12" s="27">
+        <v>16.92</v>
+      </c>
+      <c r="P12" s="27">
+        <v>16.36</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>17.75</v>
+      </c>
+      <c r="R12" s="27">
+        <v>16.98</v>
+      </c>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="X12" s="43">
+        <f>(H12-L12)/H12</f>
+        <v>0.334801762114537</v>
+      </c>
+      <c r="Y12" s="46">
         <f t="shared" si="0"/>
-        <v>0.244933920704846</v>
-      </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="28">
-        <v>15.1</v>
-      </c>
-      <c r="M12" s="28">
-        <v>16.1</v>
-      </c>
-      <c r="N12" s="28">
-        <v>15.26</v>
-      </c>
-      <c r="O12" s="28">
-        <v>16.92</v>
-      </c>
-      <c r="P12" s="28">
-        <v>16.36</v>
-      </c>
-      <c r="Q12" s="28">
-        <v>17.75</v>
-      </c>
-      <c r="R12" s="28">
-        <v>16.98</v>
-      </c>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="X12" s="43">
+        <v>0.0521739130434784</v>
+      </c>
+      <c r="Z12" s="46">
         <f t="shared" si="1"/>
-        <v>0.334801762114537</v>
-      </c>
-      <c r="Y12" s="46">
+        <v>0.0330969267139481</v>
+      </c>
+      <c r="AA12" s="46">
         <f t="shared" si="2"/>
-        <v>0.0521739130434784</v>
-      </c>
-      <c r="Z12" s="46">
+        <v>0.0433802816901408</v>
+      </c>
+      <c r="AB12" s="46" t="e">
         <f t="shared" si="3"/>
-        <v>0.0330969267139481</v>
-      </c>
-      <c r="AA12" s="46">
-        <f t="shared" si="4"/>
-        <v>0.0433802816901408</v>
-      </c>
-      <c r="AB12" s="46" t="e">
-        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="37"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
       <c r="AQ12" s="58"/>
     </row>
-    <row r="13" ht="22.35" customHeight="1" spans="1:43">
-      <c r="A13" s="26">
+    <row r="13" ht="25" spans="1:43">
+      <c r="A13" s="25">
         <v>44519</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>86</v>
+      <c r="B13" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="C13" s="16">
         <v>26.92</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>28.71</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>32.1</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="28">
         <v>33.88</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>11.79</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>46.88</v>
       </c>
-      <c r="I13" s="36">
-        <f t="shared" si="10"/>
+      <c r="I13" s="14">
+        <f t="shared" si="11"/>
         <v>1.87362171331637</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="14">
+        <f t="shared" si="9"/>
+        <v>0.277303754266212</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="27">
+        <v>28.02</v>
+      </c>
+      <c r="M13" s="27">
+        <v>35.35</v>
+      </c>
+      <c r="N13" s="27">
+        <v>32.02</v>
+      </c>
+      <c r="O13" s="27">
+        <v>34.49</v>
+      </c>
+      <c r="P13" s="27">
+        <v>33.63</v>
+      </c>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="X13" s="43">
+        <f>(H13-L13)/H13</f>
+        <v>0.402303754266212</v>
+      </c>
+      <c r="Y13" s="46">
         <f t="shared" si="0"/>
-        <v>0.277303754266212</v>
-      </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="28">
-        <v>28.02</v>
-      </c>
-      <c r="M13" s="28">
-        <v>35.35</v>
-      </c>
-      <c r="N13" s="28">
-        <v>32.02</v>
-      </c>
-      <c r="O13" s="28">
-        <v>34.49</v>
-      </c>
-      <c r="P13" s="28">
-        <v>33.63</v>
-      </c>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="X13" s="43">
+        <v>0.0942008486562941</v>
+      </c>
+      <c r="Z13" s="46">
         <f t="shared" si="1"/>
-        <v>0.402303754266212</v>
-      </c>
-      <c r="Y13" s="46">
+        <v>0.0249347636996231</v>
+      </c>
+      <c r="AA13" s="46" t="e">
         <f t="shared" si="2"/>
-        <v>0.0942008486562941</v>
-      </c>
-      <c r="Z13" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB13" s="46" t="e">
         <f t="shared" si="3"/>
-        <v>0.0249347636996231</v>
-      </c>
-      <c r="AA13" s="46" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB13" s="46" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
       <c r="AQ13" s="58"/>
     </row>
-    <row r="14" ht="22.35" customHeight="1" spans="1:43">
-      <c r="A14" s="26">
+    <row r="14" ht="25" spans="1:43">
+      <c r="A14" s="25">
         <v>44519</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>87</v>
+      <c r="B14" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="C14" s="16">
         <v>35.35</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>35.58</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <v>37.2</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <v>38.9</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="27">
         <v>28.09</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="27">
         <v>58.63</v>
       </c>
-      <c r="I14" s="36">
-        <f t="shared" si="10"/>
+      <c r="I14" s="14">
+        <f t="shared" si="11"/>
         <v>0.384834460662157</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="14">
+        <f>(H14-F14)/H14</f>
+        <v>0.33651714139519</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="27">
+        <v>33.45</v>
+      </c>
+      <c r="M14" s="27">
+        <v>38.48</v>
+      </c>
+      <c r="N14" s="27">
+        <v>36.62</v>
+      </c>
+      <c r="O14" s="27">
+        <v>38.88</v>
+      </c>
+      <c r="P14" s="27">
+        <v>36.26</v>
+      </c>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="X14" s="43">
+        <f>(H14-L14)/H14</f>
+        <v>0.429472966058332</v>
+      </c>
+      <c r="Y14" s="46">
         <f t="shared" si="0"/>
-        <v>0.33651714139519</v>
-      </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="28">
-        <v>33.45</v>
-      </c>
-      <c r="M14" s="28">
-        <v>38.48</v>
-      </c>
-      <c r="N14" s="28">
-        <v>36.62</v>
-      </c>
-      <c r="O14" s="28">
-        <v>38.88</v>
-      </c>
-      <c r="P14" s="28">
-        <v>36.26</v>
-      </c>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="X14" s="43">
+        <v>0.0483367983367983</v>
+      </c>
+      <c r="Z14" s="46">
         <f t="shared" si="1"/>
-        <v>0.429472966058332</v>
-      </c>
-      <c r="Y14" s="46">
+        <v>0.0673868312757203</v>
+      </c>
+      <c r="AA14" s="46" t="e">
         <f t="shared" si="2"/>
-        <v>0.0483367983367983</v>
-      </c>
-      <c r="Z14" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB14" s="46" t="e">
         <f t="shared" si="3"/>
-        <v>0.0673868312757203</v>
-      </c>
-      <c r="AA14" s="46" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB14" s="46" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="39"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="39"/>
       <c r="AQ14" s="58"/>
     </row>
-    <row r="15" ht="22.35" customHeight="1" spans="1:43">
-      <c r="A15" s="26">
+    <row r="15" ht="25" spans="1:43">
+      <c r="A15" s="25">
         <v>44519</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>88</v>
+      <c r="B15" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="C15" s="16">
         <v>16.62</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>16.82</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>17.84</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <v>18.08</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <v>12.36</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <v>25.47</v>
       </c>
-      <c r="I15" s="36">
-        <f t="shared" si="10"/>
+      <c r="I15" s="14">
+        <f t="shared" si="11"/>
         <v>0.462783171521036</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="14">
+        <f>(H15-F15)/H15</f>
+        <v>0.290145268943856</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="27">
+        <v>15.61</v>
+      </c>
+      <c r="M15" s="27">
+        <v>17.86</v>
+      </c>
+      <c r="N15" s="27">
+        <v>16.76</v>
+      </c>
+      <c r="O15" s="27">
+        <v>18.28</v>
+      </c>
+      <c r="P15" s="27">
+        <v>16.74</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>19</v>
+      </c>
+      <c r="R15" s="27">
+        <v>18.01</v>
+      </c>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="43">
+        <f>(H15-L15)/H15</f>
+        <v>0.387122104436592</v>
+      </c>
+      <c r="Y15" s="46">
         <f t="shared" si="0"/>
-        <v>0.290145268943856</v>
-      </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="28">
-        <v>15.61</v>
-      </c>
-      <c r="M15" s="28">
-        <v>17.86</v>
-      </c>
-      <c r="N15" s="28">
-        <v>16.76</v>
-      </c>
-      <c r="O15" s="28">
-        <v>18.28</v>
-      </c>
-      <c r="P15" s="28">
-        <v>16.74</v>
-      </c>
-      <c r="Q15" s="28">
-        <v>19</v>
-      </c>
-      <c r="R15" s="28">
-        <v>18.01</v>
-      </c>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="43">
+        <v>0.0615901455767076</v>
+      </c>
+      <c r="Z15" s="46">
         <f t="shared" si="1"/>
-        <v>0.387122104436592</v>
-      </c>
-      <c r="Y15" s="46">
+        <v>0.0842450765864334</v>
+      </c>
+      <c r="AA15" s="46">
         <f t="shared" si="2"/>
-        <v>0.0615901455767076</v>
-      </c>
-      <c r="Z15" s="46">
+        <v>0.0521052631578947</v>
+      </c>
+      <c r="AB15" s="46" t="e">
         <f t="shared" si="3"/>
-        <v>0.0842450765864334</v>
-      </c>
-      <c r="AA15" s="46">
-        <f t="shared" si="4"/>
-        <v>0.0521052631578947</v>
-      </c>
-      <c r="AB15" s="46" t="e">
-        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC15" s="48" t="e">
         <f>(U15-V15)/U15*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
+      <c r="AD15" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="39"/>
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="39"/>
       <c r="AQ15" s="58"/>
     </row>
-    <row r="16" ht="22.35" customHeight="1" spans="1:43">
+    <row r="16" ht="25" spans="1:43">
       <c r="A16" s="31">
         <v>44519</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C16" s="16">
         <v>22.34</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>23.02</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <v>25.02</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <v>26.63</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="27">
         <v>13.32</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="27">
         <v>33.8</v>
       </c>
-      <c r="I16" s="36">
-        <f t="shared" si="10"/>
+      <c r="I16" s="14">
+        <f t="shared" si="11"/>
         <v>0.999249249249249</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="14">
+        <f>(H16-F16)/H16</f>
+        <v>0.212130177514793</v>
+      </c>
+      <c r="K16" s="39"/>
+      <c r="L16" s="27">
+        <v>21.89</v>
+      </c>
+      <c r="M16" s="27">
+        <v>25.6</v>
+      </c>
+      <c r="N16" s="27">
+        <v>23.35</v>
+      </c>
+      <c r="O16" s="27">
+        <v>26.73</v>
+      </c>
+      <c r="P16" s="27">
+        <v>25.3</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>26.85</v>
+      </c>
+      <c r="R16" s="27">
+        <v>25.46</v>
+      </c>
+      <c r="S16" s="27">
+        <v>27.38</v>
+      </c>
+      <c r="T16" s="27">
+        <v>26.6</v>
+      </c>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="43">
+        <f>(H16-L16)/H16</f>
+        <v>0.352366863905325</v>
+      </c>
+      <c r="Y16" s="46">
         <f t="shared" si="0"/>
-        <v>0.212130177514793</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="28">
-        <v>21.89</v>
-      </c>
-      <c r="M16" s="28">
-        <v>25.6</v>
-      </c>
-      <c r="N16" s="28">
-        <v>23.35</v>
-      </c>
-      <c r="O16" s="28">
-        <v>26.73</v>
-      </c>
-      <c r="P16" s="28">
-        <v>25.3</v>
-      </c>
-      <c r="Q16" s="28">
-        <v>26.85</v>
-      </c>
-      <c r="R16" s="28">
-        <v>25.46</v>
-      </c>
-      <c r="S16" s="28">
-        <v>27.38</v>
-      </c>
-      <c r="T16" s="28">
-        <v>26.6</v>
-      </c>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="43">
+        <v>0.087890625</v>
+      </c>
+      <c r="Z16" s="46">
         <f t="shared" si="1"/>
-        <v>0.352366863905325</v>
-      </c>
-      <c r="Y16" s="46">
+        <v>0.0534979423868313</v>
+      </c>
+      <c r="AA16" s="46">
         <f t="shared" si="2"/>
-        <v>0.087890625</v>
-      </c>
-      <c r="Z16" s="46">
+        <v>0.0517690875232775</v>
+      </c>
+      <c r="AB16" s="46">
         <f t="shared" si="3"/>
-        <v>0.0534979423868313</v>
-      </c>
-      <c r="AA16" s="46">
-        <f t="shared" si="4"/>
-        <v>0.0517690875232775</v>
-      </c>
-      <c r="AB16" s="46">
-        <f t="shared" si="5"/>
         <v>0.0284879474068662</v>
       </c>
       <c r="AC16" s="48" t="e">
         <f>(U16-V16)/U16*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD16" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="37"/>
+      <c r="AD16" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4609,15 +4501,12 @@
   <hyperlinks>
     <hyperlink ref="B11" location="运行状态表2!A1" display="300631(久吾高科)"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
-  <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D10"/>
@@ -4636,16 +4525,16 @@
   <sheetData>
     <row r="1" ht="13" spans="1:4">
       <c r="A1" s="11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4730,7 +4619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E10"/>
@@ -4746,19 +4635,19 @@
   <sheetData>
     <row r="1" ht="13" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/我的创作/炒股/技术面研究.xlsx
+++ b/我的创作/炒股/技术面研究.xlsx
@@ -2657,18 +2657,24 @@
   <sheetPr/>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="11.9017857142857" customWidth="1"/>
     <col min="2" max="2" width="17.1160714285714" customWidth="1"/>
-    <col min="9" max="9" width="12.0714285714286"/>
-    <col min="10" max="10" width="9.85714285714286"/>
+    <col min="3" max="3" width="10.2589285714286" customWidth="1"/>
+    <col min="4" max="4" width="10.5625" customWidth="1"/>
+    <col min="9" max="9" width="13.8392857142857" customWidth="1"/>
+    <col min="10" max="10" width="11.6071428571429" customWidth="1"/>
+    <col min="11" max="11" width="40.7767857142857" customWidth="1"/>
     <col min="24" max="24" width="9.85714285714286"/>
     <col min="40" max="40" width="12.7857142857143"/>
+    <col min="41" max="41" width="11.3035714285714" customWidth="1"/>
+    <col min="42" max="42" width="11.1607142857143" customWidth="1"/>
+    <col min="43" max="43" width="10.2589285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43">

--- a/我的创作/炒股/技术面研究.xlsx
+++ b/我的创作/炒股/技术面研究.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>日期</t>
   </si>
@@ -206,12 +206,27 @@
     <t>减少一般，空头仍然较强</t>
   </si>
   <si>
+    <t>300631(久吾高科)</t>
+  </si>
+  <si>
+    <t>12w</t>
+  </si>
+  <si>
+    <t>减少明显,空头几乎被榨干</t>
+  </si>
+  <si>
+    <t>较清晰</t>
+  </si>
+  <si>
+    <t>48.41</t>
+  </si>
+  <si>
+    <t>69.53</t>
+  </si>
+  <si>
     <t>300606(今太阳)</t>
   </si>
   <si>
-    <t>12w</t>
-  </si>
-  <si>
     <t>减少明显，已有走高趋势</t>
   </si>
   <si>
@@ -246,18 +261,6 @@
   </si>
   <si>
     <t>20w   39.94/12.85/8.39  3T    成交量减少不明显</t>
-  </si>
-  <si>
-    <t>300631(久吾高科)</t>
-  </si>
-  <si>
-    <t>12w  48.20/8.18/10.10/9.03     4T   成交量减少</t>
-  </si>
-  <si>
-    <t>37.57/48.42</t>
-  </si>
-  <si>
-    <t>64.23/69.53</t>
   </si>
   <si>
     <t>002903(宇环数控)</t>
@@ -353,7 +356,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -387,6 +390,12 @@
       <sz val="10"/>
       <color theme="2" tint="-0.9"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1167,152 +1176,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1397,12 +1406,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1455,6 +1464,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2657,8 +2669,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
@@ -2741,14 +2753,14 @@
         <v>13</v>
       </c>
       <c r="AI1" s="41"/>
-      <c r="AJ1" s="49"/>
+      <c r="AJ1" s="50"/>
       <c r="AK1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="52" t="s">
+      <c r="AL1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="52" t="s">
+      <c r="AM1" s="53" t="s">
         <v>16</v>
       </c>
       <c r="AN1" s="19" t="s">
@@ -2760,7 +2772,7 @@
       <c r="AP1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="53" t="s">
+      <c r="AQ1" s="54" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2840,13 +2852,13 @@
         <v>41</v>
       </c>
       <c r="AG2" s="21"/>
-      <c r="AH2" s="50" t="s">
+      <c r="AH2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="50" t="s">
+      <c r="AI2" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="51" t="s">
+      <c r="AJ2" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AK2" s="21"/>
@@ -2855,7 +2867,7 @@
       <c r="AN2" s="21"/>
       <c r="AO2" s="21"/>
       <c r="AP2" s="21"/>
-      <c r="AQ2" s="54"/>
+      <c r="AQ2" s="55"/>
     </row>
     <row r="3" ht="36" spans="1:43">
       <c r="A3" s="22">
@@ -2924,19 +2936,19 @@
         <v>0.551262680768401</v>
       </c>
       <c r="Y3" s="43">
-        <f t="shared" ref="Y3:Y16" si="0">(M3-N3)/M3</f>
+        <f>(M3-N3)/M3</f>
         <v>0.265771812080537</v>
       </c>
       <c r="Z3" s="43">
-        <f t="shared" ref="Z3:Z16" si="1">(O3-P3)/O3</f>
+        <f>(O3-P3)/O3</f>
         <v>0.120922832140016</v>
       </c>
       <c r="AA3" s="43">
-        <f t="shared" ref="AA3:AA16" si="2">(Q3-R3)/Q3</f>
+        <f>(Q3-R3)/Q3</f>
         <v>0.0909090909090909</v>
       </c>
       <c r="AB3" s="43" t="e">
-        <f t="shared" ref="AB3:AB16" si="3">(S3-T3)/S3</f>
+        <f>(S3-T3)/S3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC3" s="38"/>
@@ -2959,7 +2971,7 @@
         <v>21.87</v>
       </c>
       <c r="AJ3" s="27">
-        <f t="shared" ref="AJ3:AJ11" si="4">AH3-AI3</f>
+        <f>AH3-AI3</f>
         <v>6.28</v>
       </c>
       <c r="AK3" s="24">
@@ -2972,18 +2984,18 @@
         <v>32.49</v>
       </c>
       <c r="AN3" s="24">
-        <f t="shared" ref="AN3:AN9" si="5">(AM3-AK3)/(AK3-AL3)</f>
+        <f>(AM3-AK3)/(AK3-AL3)</f>
         <v>4.13815789473685</v>
       </c>
       <c r="AO3" s="14">
-        <f t="shared" ref="AO3:AO9" si="6">(AK3-AL3)/AK3</f>
+        <f>(AK3-AL3)/AK3</f>
         <v>0.0580152671755725</v>
       </c>
       <c r="AP3" s="14">
-        <f t="shared" ref="AP3:AP9" si="7">(AM3-AK3)/AK3</f>
+        <f>(AM3-AK3)/AK3</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="AQ3" s="55">
+      <c r="AQ3" s="56">
         <v>150.88</v>
       </c>
     </row>
@@ -3013,27 +3025,27 @@
         <v>59.95</v>
       </c>
       <c r="I4" s="14">
-        <f t="shared" ref="I4:I10" si="8">(F4-G4)/G4</f>
+        <f>(F4-G4)/G4</f>
         <v>0.473062730627306</v>
       </c>
       <c r="J4" s="14">
-        <f t="shared" ref="J4:J13" si="9">(H4-F4)/H4</f>
+        <f>(H4-F4)/H4</f>
         <v>0.334111759799833</v>
       </c>
       <c r="K4" s="39"/>
-      <c r="L4" s="28">
+      <c r="L4" s="29">
         <v>36.59</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="29">
         <v>41.5</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="29">
         <v>37.17</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="29">
         <v>42</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="29">
         <v>39.01</v>
       </c>
       <c r="Q4" s="40"/>
@@ -3046,23 +3058,23 @@
         <v>52</v>
       </c>
       <c r="X4" s="43">
-        <f t="shared" ref="X4:X11" si="10">(H4-L4)/H4</f>
+        <f>(H4-L4)/H4</f>
         <v>0.389658048373645</v>
       </c>
       <c r="Y4" s="46">
-        <f t="shared" si="0"/>
+        <f>(M4-N4)/M4</f>
         <v>0.10433734939759</v>
       </c>
       <c r="Z4" s="46">
-        <f t="shared" si="1"/>
+        <f>(O4-P4)/O4</f>
         <v>0.0711904761904762</v>
       </c>
       <c r="AA4" s="46" t="e">
-        <f t="shared" si="2"/>
+        <f>(Q4-R4)/Q4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB4" s="46" t="e">
-        <f t="shared" si="3"/>
+        <f>(S4-T4)/S4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC4" s="40"/>
@@ -3085,7 +3097,7 @@
         <v>35.16</v>
       </c>
       <c r="AJ4" s="27">
-        <f t="shared" si="4"/>
+        <f>AH4-AI4</f>
         <v>8.76000000000001</v>
       </c>
       <c r="AK4" s="27">
@@ -3098,18 +3110,18 @@
         <v>52.05</v>
       </c>
       <c r="AN4" s="27">
-        <f t="shared" si="5"/>
+        <f>(AM4-AK4)/(AK4-AL4)</f>
         <v>3.84758364312267</v>
       </c>
       <c r="AO4" s="17">
-        <f t="shared" si="6"/>
+        <f>(AK4-AL4)/AK4</f>
         <v>0.0645083932853718</v>
       </c>
       <c r="AP4" s="17">
-        <f t="shared" si="7"/>
+        <f>(AM4-AK4)/AK4</f>
         <v>0.248201438848921</v>
       </c>
-      <c r="AQ4" s="56">
+      <c r="AQ4" s="57">
         <v>129.12</v>
       </c>
     </row>
@@ -3139,11 +3151,11 @@
         <v>44.42</v>
       </c>
       <c r="I5" s="14">
-        <f t="shared" si="8"/>
+        <f>(F5-G5)/G5</f>
         <v>0.467798085291558</v>
       </c>
       <c r="J5" s="14">
-        <f t="shared" si="9"/>
+        <f>(H5-F5)/H5</f>
         <v>0.240657361548852</v>
       </c>
       <c r="K5" s="39"/>
@@ -3176,23 +3188,23 @@
         <v>46</v>
       </c>
       <c r="X5" s="43">
-        <f t="shared" si="10"/>
+        <f>(H5-L5)/H5</f>
         <v>0.307068887888339</v>
       </c>
       <c r="Y5" s="46">
-        <f t="shared" si="0"/>
+        <f>(M5-N5)/M5</f>
         <v>0.106571428571429</v>
       </c>
       <c r="Z5" s="46">
-        <f t="shared" si="1"/>
+        <f>(O5-P5)/O5</f>
         <v>0.077541642734061</v>
       </c>
       <c r="AA5" s="46">
-        <f t="shared" si="2"/>
+        <f>(Q5-R5)/Q5</f>
         <v>0.0463207270595133</v>
       </c>
       <c r="AB5" s="46" t="e">
-        <f t="shared" si="3"/>
+        <f>(S5-T5)/S5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC5" s="39"/>
@@ -3215,7 +3227,7 @@
         <v>31.36</v>
       </c>
       <c r="AJ5" s="27">
-        <f t="shared" si="4"/>
+        <f>AH5-AI5</f>
         <v>4.12</v>
       </c>
       <c r="AK5" s="27">
@@ -3228,413 +3240,396 @@
         <v>39.33</v>
       </c>
       <c r="AN5" s="27">
-        <f t="shared" si="5"/>
+        <f>(AM5-AK5)/(AK5-AL5)</f>
         <v>3.27672955974844</v>
       </c>
       <c r="AO5" s="17">
-        <f t="shared" si="6"/>
+        <f>(AK5-AL5)/AK5</f>
         <v>0.0466002344665884</v>
       </c>
       <c r="AP5" s="17">
-        <f t="shared" si="7"/>
+        <f>(AM5-AK5)/AK5</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="AQ5" s="56">
+      <c r="AQ5" s="57">
         <v>37.41</v>
       </c>
     </row>
     <row r="6" ht="36" spans="1:43">
       <c r="A6" s="25">
-        <v>44519</v>
-      </c>
-      <c r="B6" s="26" t="s">
+        <v>44517</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="16">
+        <v>33.16</v>
+      </c>
+      <c r="D6" s="27">
+        <v>35.76</v>
+      </c>
+      <c r="E6" s="27">
+        <v>39.55</v>
+      </c>
+      <c r="F6" s="27">
+        <v>40.84</v>
+      </c>
+      <c r="G6" s="27">
+        <v>14.11</v>
+      </c>
+      <c r="H6" s="27">
+        <v>66.5</v>
+      </c>
+      <c r="I6" s="14">
+        <f>(F6-G6)/G6</f>
+        <v>1.89440113394756</v>
+      </c>
+      <c r="J6" s="14">
+        <f>(H6-F6)/H6</f>
+        <v>0.385864661654135</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39">
+        <v>34.53</v>
+      </c>
+      <c r="M6" s="39">
+        <v>44.44</v>
+      </c>
+      <c r="N6" s="39">
+        <v>35.34</v>
+      </c>
+      <c r="O6" s="39">
+        <v>41.6</v>
+      </c>
+      <c r="P6" s="39">
+        <v>37.4</v>
+      </c>
+      <c r="Q6" s="39">
+        <v>41.3</v>
+      </c>
+      <c r="R6" s="39">
+        <v>37.57</v>
+      </c>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="43">
+        <f>(H6-L6)/H6</f>
+        <v>0.480751879699248</v>
+      </c>
+      <c r="Y6" s="46">
+        <f>(M6-N6)/M6</f>
+        <v>0.204770477047705</v>
+      </c>
+      <c r="Z6" s="46">
+        <f>(O6-P6)/O6</f>
+        <v>0.100961538461539</v>
+      </c>
+      <c r="AA6" s="46">
+        <f>(Q6-R6)/Q6</f>
+        <v>0.0903147699757869</v>
+      </c>
+      <c r="AB6" s="46" t="e">
+        <f>(S6-T6)/S6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE6" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF6" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG6" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="27">
+        <v>45.49</v>
+      </c>
+      <c r="AI6" s="27">
+        <v>34.77</v>
+      </c>
+      <c r="AJ6" s="27">
+        <f>AH6-AI6</f>
+        <v>10.72</v>
+      </c>
+      <c r="AK6" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" ht="36" spans="1:43">
+      <c r="A7" s="25">
+        <v>44517</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="16">
         <v>19.1</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D7" s="29">
         <v>19.18</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E7" s="29">
         <v>19.66</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F7" s="29">
         <v>20.94</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G7" s="27">
         <v>15.72</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H7" s="27">
         <v>26.22</v>
       </c>
-      <c r="I6" s="14">
-        <f t="shared" si="8"/>
+      <c r="I7" s="14">
+        <f>(F7-G7)/G7</f>
         <v>0.33206106870229</v>
       </c>
-      <c r="J6" s="14">
-        <f t="shared" si="9"/>
+      <c r="J7" s="14">
+        <f>(H7-F7)/H7</f>
         <v>0.20137299771167</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="28">
+      <c r="K7" s="39"/>
+      <c r="L7" s="29">
         <v>17.62</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M7" s="29">
         <v>21.19</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N7" s="29">
         <v>18.13</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O7" s="29">
         <v>19.94</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P7" s="29">
         <v>19.09</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q7" s="29">
         <v>20.74</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R7" s="29">
         <v>19.91</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S7" s="29">
         <v>21.65</v>
       </c>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="44" t="s">
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="X6" s="43">
-        <f t="shared" si="10"/>
+      <c r="X7" s="43">
+        <f>(H7-L7)/H7</f>
         <v>0.327993897787948</v>
       </c>
-      <c r="Y6" s="46">
-        <f t="shared" si="0"/>
+      <c r="Y7" s="46">
+        <f>(M7-N7)/M7</f>
         <v>0.144407739499764</v>
       </c>
-      <c r="Z6" s="46">
-        <f t="shared" si="1"/>
+      <c r="Z7" s="46">
+        <f>(O7-P7)/O7</f>
         <v>0.0426278836509529</v>
       </c>
-      <c r="AA6" s="46">
-        <f t="shared" si="2"/>
+      <c r="AA7" s="46">
+        <f>(Q7-R7)/Q7</f>
         <v>0.0400192864030857</v>
       </c>
-      <c r="AB6" s="46">
-        <f t="shared" si="3"/>
+      <c r="AB7" s="46">
+        <f>(S7-T7)/S7</f>
         <v>1</v>
       </c>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="45" t="s">
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AE6" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF6" s="45" t="s">
+      <c r="AE7" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF7" s="45" t="s">
         <v>49</v>
-      </c>
-      <c r="AG6" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH6" s="27">
-        <v>22.09</v>
-      </c>
-      <c r="AI6" s="27">
-        <v>17.84</v>
-      </c>
-      <c r="AJ6" s="27">
-        <f t="shared" si="4"/>
-        <v>4.25</v>
-      </c>
-      <c r="AK6" s="27">
-        <v>21.66</v>
-      </c>
-      <c r="AL6" s="27">
-        <v>19.91</v>
-      </c>
-      <c r="AM6" s="27">
-        <v>26.99</v>
-      </c>
-      <c r="AN6" s="27">
-        <f t="shared" si="5"/>
-        <v>3.04571428571428</v>
-      </c>
-      <c r="AO6" s="17">
-        <f t="shared" si="6"/>
-        <v>0.0807940904893814</v>
-      </c>
-      <c r="AP6" s="17">
-        <f t="shared" si="7"/>
-        <v>0.246075715604801</v>
-      </c>
-      <c r="AQ6" s="56">
-        <v>41.29</v>
-      </c>
-    </row>
-    <row r="7" ht="48" spans="1:43">
-      <c r="A7" s="25">
-        <v>44519</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="16">
-        <v>28.2</v>
-      </c>
-      <c r="D7" s="28">
-        <v>29.15</v>
-      </c>
-      <c r="E7" s="28">
-        <v>31.53</v>
-      </c>
-      <c r="F7" s="28">
-        <v>32.57</v>
-      </c>
-      <c r="G7" s="27">
-        <v>20.61</v>
-      </c>
-      <c r="H7" s="27">
-        <v>41.5</v>
-      </c>
-      <c r="I7" s="14">
-        <f t="shared" si="8"/>
-        <v>0.58030082484231</v>
-      </c>
-      <c r="J7" s="14">
-        <f t="shared" si="9"/>
-        <v>0.215180722891566</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="27">
-        <v>28.42</v>
-      </c>
-      <c r="M7" s="27">
-        <v>34.7</v>
-      </c>
-      <c r="N7" s="27">
-        <v>29</v>
-      </c>
-      <c r="O7" s="27">
-        <v>35.27</v>
-      </c>
-      <c r="P7" s="27">
-        <v>30.89</v>
-      </c>
-      <c r="Q7" s="27">
-        <v>32.65</v>
-      </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="X7" s="43">
-        <f t="shared" si="10"/>
-        <v>0.315180722891566</v>
-      </c>
-      <c r="Y7" s="46">
-        <f t="shared" si="0"/>
-        <v>0.164265129682997</v>
-      </c>
-      <c r="Z7" s="46">
-        <f t="shared" si="1"/>
-        <v>0.124184859654097</v>
-      </c>
-      <c r="AA7" s="46">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AB7" s="46" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE7" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF7" s="44" t="s">
-        <v>55</v>
       </c>
       <c r="AG7" s="44" t="s">
         <v>50</v>
       </c>
       <c r="AH7" s="27">
-        <v>36.21</v>
+        <v>22.09</v>
       </c>
       <c r="AI7" s="27">
-        <v>27.35</v>
+        <v>17.84</v>
       </c>
       <c r="AJ7" s="27">
-        <f t="shared" si="4"/>
-        <v>8.86</v>
+        <f>AH7-AI7</f>
+        <v>4.25</v>
       </c>
       <c r="AK7" s="27">
-        <v>32.65</v>
+        <v>21.66</v>
       </c>
       <c r="AL7" s="27">
-        <v>30.89</v>
+        <v>19.91</v>
       </c>
       <c r="AM7" s="27">
-        <v>36.22</v>
+        <v>26.99</v>
       </c>
       <c r="AN7" s="27">
-        <f t="shared" si="5"/>
-        <v>2.02840909090909</v>
+        <f>(AM7-AK7)/(AK7-AL7)</f>
+        <v>3.04571428571428</v>
       </c>
       <c r="AO7" s="17">
-        <f t="shared" si="6"/>
-        <v>0.0539050535987748</v>
+        <f>(AK7-AL7)/AK7</f>
+        <v>0.0807940904893814</v>
       </c>
       <c r="AP7" s="17">
-        <f t="shared" si="7"/>
-        <v>0.109341500765697</v>
-      </c>
-      <c r="AQ7" s="56">
-        <v>28.82</v>
+        <f>(AM7-AK7)/AK7</f>
+        <v>0.246075715604801</v>
+      </c>
+      <c r="AQ7" s="57">
+        <v>41.29</v>
       </c>
     </row>
-    <row r="8" ht="36" spans="1:43">
+    <row r="8" ht="48" spans="1:43">
       <c r="A8" s="25">
         <v>44519</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C8" s="16">
-        <v>37.4</v>
-      </c>
-      <c r="D8" s="28">
-        <v>37.76</v>
-      </c>
-      <c r="E8" s="28">
-        <v>39.88</v>
-      </c>
-      <c r="F8" s="28">
-        <v>43.96</v>
+        <v>28.2</v>
+      </c>
+      <c r="D8" s="29">
+        <v>29.15</v>
+      </c>
+      <c r="E8" s="29">
+        <v>31.53</v>
+      </c>
+      <c r="F8" s="29">
+        <v>32.57</v>
       </c>
       <c r="G8" s="27">
-        <v>27.85</v>
+        <v>20.61</v>
       </c>
       <c r="H8" s="27">
-        <v>59.98</v>
+        <v>41.5</v>
       </c>
       <c r="I8" s="14">
-        <f t="shared" si="8"/>
-        <v>0.578456014362657</v>
+        <f>(F8-G8)/G8</f>
+        <v>0.58030082484231</v>
       </c>
       <c r="J8" s="14">
-        <f t="shared" si="9"/>
-        <v>0.267089029676559</v>
+        <f>(H8-F8)/H8</f>
+        <v>0.215180722891566</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="27">
-        <v>33.01</v>
+        <v>28.42</v>
       </c>
       <c r="M8" s="27">
-        <v>42.56</v>
+        <v>34.7</v>
       </c>
       <c r="N8" s="27">
-        <v>35.92</v>
+        <v>29</v>
       </c>
       <c r="O8" s="27">
-        <v>41.5</v>
+        <v>35.27</v>
       </c>
       <c r="P8" s="27">
-        <v>38</v>
+        <v>30.89</v>
       </c>
       <c r="Q8" s="27">
-        <v>43.61</v>
-      </c>
-      <c r="R8" s="27">
-        <v>39.32</v>
-      </c>
-      <c r="S8" s="27">
-        <v>45.16</v>
-      </c>
-      <c r="T8" s="27">
-        <v>42.57</v>
-      </c>
+        <v>32.65</v>
+      </c>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
       <c r="U8" s="39"/>
       <c r="V8" s="39"/>
       <c r="W8" s="44" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="X8" s="43">
-        <f t="shared" si="10"/>
-        <v>0.449649883294432</v>
+        <f>(H8-L8)/H8</f>
+        <v>0.315180722891566</v>
       </c>
       <c r="Y8" s="46">
-        <f t="shared" si="0"/>
-        <v>0.156015037593985</v>
+        <f>(M8-N8)/M8</f>
+        <v>0.164265129682997</v>
       </c>
       <c r="Z8" s="46">
-        <f t="shared" si="1"/>
-        <v>0.0843373493975904</v>
+        <f>(O8-P8)/O8</f>
+        <v>0.124184859654097</v>
       </c>
       <c r="AA8" s="46">
-        <f t="shared" si="2"/>
-        <v>0.0983719330428801</v>
-      </c>
-      <c r="AB8" s="46">
-        <f t="shared" si="3"/>
-        <v>0.0573516386182462</v>
+        <f>(Q8-R8)/Q8</f>
+        <v>1</v>
+      </c>
+      <c r="AB8" s="46" t="e">
+        <f>(S8-T8)/S8</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AC8" s="39"/>
-      <c r="AD8" s="44" t="s">
-        <v>64</v>
+      <c r="AD8" s="45" t="s">
+        <v>53</v>
       </c>
       <c r="AE8" s="44" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AF8" s="44" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AG8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="AH8" s="27">
-        <v>47.52</v>
+        <v>36.21</v>
       </c>
       <c r="AI8" s="27">
-        <v>33.98</v>
+        <v>27.35</v>
       </c>
       <c r="AJ8" s="27">
-        <f t="shared" si="4"/>
-        <v>13.54</v>
+        <f>AH8-AI8</f>
+        <v>8.86</v>
       </c>
       <c r="AK8" s="27">
-        <v>45.16</v>
+        <v>32.65</v>
       </c>
       <c r="AL8" s="27">
-        <v>39.22</v>
+        <v>30.89</v>
       </c>
       <c r="AM8" s="27">
-        <v>58.11</v>
+        <v>36.22</v>
       </c>
       <c r="AN8" s="27">
-        <f t="shared" si="5"/>
-        <v>2.18013468013468</v>
+        <f>(AM8-AK8)/(AK8-AL8)</f>
+        <v>2.02840909090909</v>
       </c>
       <c r="AO8" s="17">
-        <f t="shared" si="6"/>
-        <v>0.131532329495128</v>
+        <f>(AK8-AL8)/AK8</f>
+        <v>0.0539050535987748</v>
       </c>
       <c r="AP8" s="17">
-        <f t="shared" si="7"/>
-        <v>0.286758193091231</v>
-      </c>
-      <c r="AQ8" s="56">
-        <v>82.55</v>
+        <f>(AM8-AK8)/AK8</f>
+        <v>0.109341500765697</v>
+      </c>
+      <c r="AQ8" s="57">
+        <v>28.82</v>
       </c>
     </row>
     <row r="9" ht="36" spans="1:43">
@@ -3642,342 +3637,379 @@
         <v>44519</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" s="16">
-        <v>21.29</v>
-      </c>
-      <c r="D9" s="28">
-        <v>21.51</v>
-      </c>
-      <c r="E9" s="28">
-        <v>22.02</v>
-      </c>
-      <c r="F9" s="28">
-        <v>23.3</v>
+        <v>37.4</v>
+      </c>
+      <c r="D9" s="29">
+        <v>37.76</v>
+      </c>
+      <c r="E9" s="29">
+        <v>39.88</v>
+      </c>
+      <c r="F9" s="29">
+        <v>43.96</v>
       </c>
       <c r="G9" s="27">
-        <v>16.26</v>
+        <v>27.85</v>
       </c>
       <c r="H9" s="27">
-        <v>27.5</v>
+        <v>59.98</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" si="8"/>
-        <v>0.432964329643296</v>
+        <f>(F9-G9)/G9</f>
+        <v>0.578456014362657</v>
       </c>
       <c r="J9" s="14">
-        <f t="shared" si="9"/>
-        <v>0.152727272727273</v>
+        <f>(H9-F9)/H9</f>
+        <v>0.267089029676559</v>
       </c>
       <c r="K9" s="39"/>
       <c r="L9" s="27">
-        <v>18.3</v>
+        <v>33.01</v>
       </c>
       <c r="M9" s="27">
-        <v>22.98</v>
+        <v>42.56</v>
       </c>
       <c r="N9" s="27">
-        <v>19.34</v>
+        <v>35.92</v>
       </c>
       <c r="O9" s="27">
-        <v>25.26</v>
+        <v>41.5</v>
       </c>
       <c r="P9" s="27">
-        <v>19.82</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="27">
-        <v>21.69</v>
+        <v>43.61</v>
       </c>
       <c r="R9" s="27">
-        <v>20.32</v>
+        <v>39.32</v>
       </c>
       <c r="S9" s="27">
-        <v>22.41</v>
+        <v>45.16</v>
       </c>
       <c r="T9" s="27">
-        <v>21.4</v>
-      </c>
-      <c r="U9" s="27">
-        <v>22.64</v>
-      </c>
-      <c r="V9" s="27">
-        <v>22</v>
-      </c>
+        <v>42.57</v>
+      </c>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
       <c r="W9" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X9" s="43">
-        <f t="shared" si="10"/>
-        <v>0.334545454545455</v>
+        <f>(H9-L9)/H9</f>
+        <v>0.449649883294432</v>
       </c>
       <c r="Y9" s="46">
-        <f t="shared" si="0"/>
-        <v>0.158398607484769</v>
+        <f>(M9-N9)/M9</f>
+        <v>0.156015037593985</v>
       </c>
       <c r="Z9" s="46">
-        <f t="shared" si="1"/>
-        <v>0.215360253365004</v>
+        <f>(O9-P9)/O9</f>
+        <v>0.0843373493975904</v>
       </c>
       <c r="AA9" s="46">
-        <f t="shared" si="2"/>
-        <v>0.0631627478100508</v>
+        <f>(Q9-R9)/Q9</f>
+        <v>0.0983719330428801</v>
       </c>
       <c r="AB9" s="46">
-        <f t="shared" si="3"/>
-        <v>0.0450691655510933</v>
-      </c>
-      <c r="AC9" s="46">
-        <f>(U9-V9)/U9</f>
-        <v>0.0282685512367491</v>
-      </c>
-      <c r="AD9" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE9" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF9" s="45" t="s">
+        <f>(S9-T9)/S9</f>
+        <v>0.0573516386182462</v>
+      </c>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE9" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF9" s="44" t="s">
         <v>49</v>
       </c>
       <c r="AG9" s="44" t="s">
         <v>50</v>
       </c>
       <c r="AH9" s="27">
-        <v>24.48</v>
+        <v>47.52</v>
       </c>
       <c r="AI9" s="27">
-        <v>19.98</v>
+        <v>33.98</v>
       </c>
       <c r="AJ9" s="27">
-        <f t="shared" si="4"/>
-        <v>4.5</v>
+        <f>AH9-AI9</f>
+        <v>13.54</v>
       </c>
       <c r="AK9" s="27">
-        <v>23.56</v>
+        <v>45.16</v>
       </c>
       <c r="AL9" s="27">
-        <v>22.4</v>
+        <v>39.22</v>
       </c>
       <c r="AM9" s="27">
-        <v>27.75</v>
+        <v>58.11</v>
       </c>
       <c r="AN9" s="27">
-        <f t="shared" si="5"/>
-        <v>3.61206896551724</v>
+        <f>(AM9-AK9)/(AK9-AL9)</f>
+        <v>2.18013468013468</v>
       </c>
       <c r="AO9" s="17">
-        <f t="shared" si="6"/>
-        <v>0.0492359932088285</v>
+        <f>(AK9-AL9)/AK9</f>
+        <v>0.131532329495128</v>
       </c>
       <c r="AP9" s="17">
-        <f t="shared" si="7"/>
-        <v>0.177843803056027</v>
-      </c>
-      <c r="AQ9" s="57" t="s">
-        <v>69</v>
+        <f>(AM9-AK9)/AK9</f>
+        <v>0.286758193091231</v>
+      </c>
+      <c r="AQ9" s="57">
+        <v>82.55</v>
       </c>
     </row>
-    <row r="10" ht="74" spans="1:43">
+    <row r="10" ht="36" spans="1:43">
       <c r="A10" s="25">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="16">
-        <v>4.31</v>
-      </c>
-      <c r="D10" s="27">
-        <v>4.51</v>
-      </c>
-      <c r="E10" s="27">
-        <v>4.87</v>
-      </c>
-      <c r="F10" s="27">
-        <v>5.19</v>
+        <v>21.29</v>
+      </c>
+      <c r="D10" s="29">
+        <v>21.51</v>
+      </c>
+      <c r="E10" s="29">
+        <v>22.02</v>
+      </c>
+      <c r="F10" s="29">
+        <v>23.3</v>
       </c>
       <c r="G10" s="27">
-        <v>1.86</v>
+        <v>16.26</v>
       </c>
       <c r="H10" s="27">
-        <v>7.01</v>
+        <v>27.5</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" si="8"/>
-        <v>1.79032258064516</v>
+        <f>(F10-G10)/G10</f>
+        <v>0.432964329643296</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="9"/>
-        <v>0.25962910128388</v>
+        <f>(H10-F10)/H10</f>
+        <v>0.152727272727273</v>
       </c>
       <c r="K10" s="39"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
+      <c r="L10" s="27">
+        <v>18.3</v>
+      </c>
+      <c r="M10" s="27">
+        <v>22.98</v>
+      </c>
+      <c r="N10" s="27">
+        <v>19.34</v>
+      </c>
+      <c r="O10" s="27">
+        <v>25.26</v>
+      </c>
+      <c r="P10" s="27">
+        <v>19.82</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>21.69</v>
+      </c>
+      <c r="R10" s="27">
+        <v>20.32</v>
+      </c>
+      <c r="S10" s="27">
+        <v>22.41</v>
+      </c>
+      <c r="T10" s="27">
+        <v>21.4</v>
+      </c>
+      <c r="U10" s="27">
+        <v>22.64</v>
+      </c>
+      <c r="V10" s="27">
+        <v>22</v>
+      </c>
       <c r="W10" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X10" s="43">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Y10" s="46" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z10" s="46" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA10" s="46" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB10" s="46" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
+        <f>(H10-L10)/H10</f>
+        <v>0.334545454545455</v>
+      </c>
+      <c r="Y10" s="46">
+        <f>(M10-N10)/M10</f>
+        <v>0.158398607484769</v>
+      </c>
+      <c r="Z10" s="46">
+        <f>(O10-P10)/O10</f>
+        <v>0.215360253365004</v>
+      </c>
+      <c r="AA10" s="46">
+        <f>(Q10-R10)/Q10</f>
+        <v>0.0631627478100508</v>
+      </c>
+      <c r="AB10" s="46">
+        <f>(S10-T10)/S10</f>
+        <v>0.0450691655510933</v>
+      </c>
+      <c r="AC10" s="46">
+        <f>(U10-V10)/U10</f>
+        <v>0.0282685512367491</v>
+      </c>
+      <c r="AD10" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE10" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF10" s="45" t="s">
+        <v>49</v>
+      </c>
       <c r="AG10" s="44" t="s">
         <v>50</v>
       </c>
       <c r="AH10" s="27">
-        <v>5.54</v>
+        <v>24.48</v>
       </c>
       <c r="AI10" s="27">
-        <v>4.19</v>
+        <v>19.98</v>
       </c>
       <c r="AJ10" s="27">
-        <f t="shared" si="4"/>
-        <v>1.35</v>
+        <f>AH10-AI10</f>
+        <v>4.5</v>
       </c>
       <c r="AK10" s="27">
-        <v>5.48</v>
-      </c>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="39"/>
-      <c r="AQ10" s="56">
-        <v>-15.78</v>
+        <v>23.56</v>
+      </c>
+      <c r="AL10" s="27">
+        <v>22.4</v>
+      </c>
+      <c r="AM10" s="27">
+        <v>27.75</v>
+      </c>
+      <c r="AN10" s="27">
+        <f>(AM10-AK10)/(AK10-AL10)</f>
+        <v>3.61206896551724</v>
+      </c>
+      <c r="AO10" s="17">
+        <f>(AK10-AL10)/AK10</f>
+        <v>0.0492359932088285</v>
+      </c>
+      <c r="AP10" s="17">
+        <f>(AM10-AK10)/AK10</f>
+        <v>0.177843803056027</v>
+      </c>
+      <c r="AQ10" s="58" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" ht="74" spans="1:43">
       <c r="A11" s="25">
         <v>44517</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>72</v>
+      <c r="B11" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="C11" s="16">
-        <v>33.16</v>
+        <v>4.31</v>
       </c>
       <c r="D11" s="27">
-        <v>35.76</v>
+        <v>4.51</v>
       </c>
       <c r="E11" s="27">
-        <v>39.55</v>
+        <v>4.87</v>
       </c>
       <c r="F11" s="27">
-        <v>40.84</v>
+        <v>5.19</v>
       </c>
       <c r="G11" s="27">
-        <v>14.11</v>
+        <v>1.86</v>
       </c>
       <c r="H11" s="27">
-        <v>66.5</v>
+        <v>7.01</v>
       </c>
       <c r="I11" s="14">
-        <f t="shared" ref="I11:I16" si="11">(F11-G11)/G11</f>
-        <v>1.89440113394756</v>
+        <f>(F11-G11)/G11</f>
+        <v>1.79032258064516</v>
       </c>
       <c r="J11" s="14">
-        <f t="shared" si="9"/>
-        <v>0.385864661654135</v>
+        <f>(H11-F11)/H11</f>
+        <v>0.25962910128388</v>
       </c>
       <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="45" t="s">
-        <v>73</v>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="44" t="s">
+        <v>76</v>
       </c>
       <c r="X11" s="43">
-        <f t="shared" si="10"/>
+        <f>(H11-L11)/H11</f>
         <v>1</v>
       </c>
       <c r="Y11" s="46" t="e">
-        <f t="shared" si="0"/>
+        <f>(M11-N11)/M11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z11" s="46" t="e">
-        <f t="shared" si="1"/>
+        <f>(O11-P11)/O11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA11" s="46" t="e">
-        <f t="shared" si="2"/>
+        <f>(Q11-R11)/Q11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB11" s="46" t="e">
-        <f t="shared" si="3"/>
+        <f>(S11-T11)/S11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="45" t="s">
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="44" t="s">
         <v>50</v>
       </c>
       <c r="AH11" s="27">
-        <v>45.49</v>
+        <v>5.54</v>
       </c>
       <c r="AI11" s="27">
-        <v>34.77</v>
+        <v>4.19</v>
       </c>
       <c r="AJ11" s="27">
-        <f t="shared" si="4"/>
-        <v>10.72</v>
-      </c>
-      <c r="AK11" s="44" t="s">
-        <v>74</v>
+        <f>AH11-AI11</f>
+        <v>1.35</v>
+      </c>
+      <c r="AK11" s="27">
+        <v>5.48</v>
       </c>
       <c r="AL11" s="39"/>
       <c r="AM11" s="39"/>
       <c r="AN11" s="39"/>
       <c r="AO11" s="39"/>
       <c r="AP11" s="39"/>
-      <c r="AQ11" s="57" t="s">
-        <v>75</v>
+      <c r="AQ11" s="57">
+        <v>-15.78</v>
       </c>
     </row>
-    <row r="12" ht="25" spans="1:43">
+    <row r="12" ht="13" spans="1:43">
       <c r="A12" s="25">
         <v>44519</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="16">
         <v>15.38</v>
@@ -3998,11 +4030,11 @@
         <v>22.7</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" si="11"/>
+        <f>(F12-G12)/G12</f>
         <v>0.476313522825151</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" si="9"/>
+        <f>(H12-F12)/H12</f>
         <v>0.244933920704846</v>
       </c>
       <c r="K12" s="39"/>
@@ -4039,19 +4071,19 @@
         <v>0.334801762114537</v>
       </c>
       <c r="Y12" s="46">
-        <f t="shared" si="0"/>
+        <f>(M12-N12)/M12</f>
         <v>0.0521739130434784</v>
       </c>
       <c r="Z12" s="46">
-        <f t="shared" si="1"/>
+        <f>(O12-P12)/O12</f>
         <v>0.0330969267139481</v>
       </c>
       <c r="AA12" s="46">
-        <f t="shared" si="2"/>
+        <f>(Q12-R12)/Q12</f>
         <v>0.0433802816901408</v>
       </c>
       <c r="AB12" s="46" t="e">
-        <f t="shared" si="3"/>
+        <f>(S12-T12)/S12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC12" s="39"/>
@@ -4061,7 +4093,7 @@
       <c r="AE12" s="39"/>
       <c r="AF12" s="39"/>
       <c r="AG12" s="44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" s="39"/>
       <c r="AI12" s="39"/>
@@ -4072,25 +4104,25 @@
       <c r="AN12" s="39"/>
       <c r="AO12" s="39"/>
       <c r="AP12" s="39"/>
-      <c r="AQ12" s="58"/>
+      <c r="AQ12" s="59"/>
     </row>
-    <row r="13" ht="25" spans="1:43">
+    <row r="13" ht="13" spans="1:43">
       <c r="A13" s="25">
         <v>44519</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="16">
         <v>26.92</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="29">
         <v>28.71</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="29">
         <v>32.1</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="29">
         <v>33.88</v>
       </c>
       <c r="G13" s="27">
@@ -4100,11 +4132,11 @@
         <v>46.88</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="11"/>
+        <f>(F13-G13)/G13</f>
         <v>1.87362171331637</v>
       </c>
       <c r="J13" s="14">
-        <f t="shared" si="9"/>
+        <f>(H13-F13)/H13</f>
         <v>0.277303754266212</v>
       </c>
       <c r="K13" s="39"/>
@@ -4130,26 +4162,26 @@
       <c r="U13" s="39"/>
       <c r="V13" s="39"/>
       <c r="W13" s="44" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="X13" s="43">
         <f>(H13-L13)/H13</f>
         <v>0.402303754266212</v>
       </c>
       <c r="Y13" s="46">
-        <f t="shared" si="0"/>
+        <f>(M13-N13)/M13</f>
         <v>0.0942008486562941</v>
       </c>
       <c r="Z13" s="46">
-        <f t="shared" si="1"/>
+        <f>(O13-P13)/O13</f>
         <v>0.0249347636996231</v>
       </c>
       <c r="AA13" s="46" t="e">
-        <f t="shared" si="2"/>
+        <f>(Q13-R13)/Q13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB13" s="46" t="e">
-        <f t="shared" si="3"/>
+        <f>(S13-T13)/S13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC13" s="39"/>
@@ -4159,7 +4191,7 @@
       <c r="AE13" s="39"/>
       <c r="AF13" s="39"/>
       <c r="AG13" s="44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" s="39"/>
       <c r="AI13" s="39"/>
@@ -4170,25 +4202,25 @@
       <c r="AN13" s="39"/>
       <c r="AO13" s="39"/>
       <c r="AP13" s="39"/>
-      <c r="AQ13" s="58"/>
+      <c r="AQ13" s="59"/>
     </row>
     <row r="14" ht="25" spans="1:43">
       <c r="A14" s="25">
         <v>44519</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="16">
         <v>35.35</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="29">
         <v>35.58</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="29">
         <v>37.2</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="29">
         <v>38.9</v>
       </c>
       <c r="G14" s="27">
@@ -4198,7 +4230,7 @@
         <v>58.63</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" si="11"/>
+        <f>(F14-G14)/G14</f>
         <v>0.384834460662157</v>
       </c>
       <c r="J14" s="14">
@@ -4228,26 +4260,26 @@
       <c r="U14" s="39"/>
       <c r="V14" s="39"/>
       <c r="W14" s="44" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="X14" s="43">
         <f>(H14-L14)/H14</f>
         <v>0.429472966058332</v>
       </c>
       <c r="Y14" s="46">
-        <f t="shared" si="0"/>
+        <f>(M14-N14)/M14</f>
         <v>0.0483367983367983</v>
       </c>
       <c r="Z14" s="46">
-        <f t="shared" si="1"/>
+        <f>(O14-P14)/O14</f>
         <v>0.0673868312757203</v>
       </c>
       <c r="AA14" s="46" t="e">
-        <f t="shared" si="2"/>
+        <f>(Q14-R14)/Q14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB14" s="46" t="e">
-        <f t="shared" si="3"/>
+        <f>(S14-T14)/S14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC14" s="39"/>
@@ -4257,7 +4289,7 @@
       <c r="AE14" s="39"/>
       <c r="AF14" s="39"/>
       <c r="AG14" s="44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" s="39"/>
       <c r="AI14" s="39"/>
@@ -4268,25 +4300,25 @@
       <c r="AN14" s="39"/>
       <c r="AO14" s="39"/>
       <c r="AP14" s="39"/>
-      <c r="AQ14" s="58"/>
+      <c r="AQ14" s="59"/>
     </row>
     <row r="15" ht="25" spans="1:43">
       <c r="A15" s="25">
         <v>44519</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="16">
         <v>16.62</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="29">
         <v>16.82</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="29">
         <v>17.84</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="29">
         <v>18.08</v>
       </c>
       <c r="G15" s="27">
@@ -4296,7 +4328,7 @@
         <v>25.47</v>
       </c>
       <c r="I15" s="14">
-        <f t="shared" si="11"/>
+        <f>(F15-G15)/G15</f>
         <v>0.462783171521036</v>
       </c>
       <c r="J15" s="14">
@@ -4335,22 +4367,22 @@
         <v>0.387122104436592</v>
       </c>
       <c r="Y15" s="46">
-        <f t="shared" si="0"/>
+        <f>(M15-N15)/M15</f>
         <v>0.0615901455767076</v>
       </c>
       <c r="Z15" s="46">
-        <f t="shared" si="1"/>
+        <f>(O15-P15)/O15</f>
         <v>0.0842450765864334</v>
       </c>
       <c r="AA15" s="46">
-        <f t="shared" si="2"/>
+        <f>(Q15-R15)/Q15</f>
         <v>0.0521052631578947</v>
       </c>
       <c r="AB15" s="46" t="e">
-        <f t="shared" si="3"/>
+        <f>(S15-T15)/S15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC15" s="48" t="e">
+      <c r="AC15" s="49" t="e">
         <f>(U15-V15)/U15*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -4360,7 +4392,7 @@
       <c r="AE15" s="39"/>
       <c r="AF15" s="39"/>
       <c r="AG15" s="44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" s="39"/>
       <c r="AI15" s="39"/>
@@ -4371,25 +4403,25 @@
       <c r="AN15" s="39"/>
       <c r="AO15" s="39"/>
       <c r="AP15" s="39"/>
-      <c r="AQ15" s="58"/>
+      <c r="AQ15" s="59"/>
     </row>
-    <row r="16" ht="25" spans="1:43">
+    <row r="16" ht="13" spans="1:43">
       <c r="A16" s="31">
         <v>44519</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="16">
         <v>22.34</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="29">
         <v>23.02</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="29">
         <v>25.02</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="29">
         <v>26.63</v>
       </c>
       <c r="G16" s="27">
@@ -4399,7 +4431,7 @@
         <v>33.8</v>
       </c>
       <c r="I16" s="14">
-        <f t="shared" si="11"/>
+        <f>(F16-G16)/G16</f>
         <v>0.999249249249249</v>
       </c>
       <c r="J16" s="14">
@@ -4442,32 +4474,32 @@
         <v>0.352366863905325</v>
       </c>
       <c r="Y16" s="46">
-        <f t="shared" si="0"/>
+        <f>(M16-N16)/M16</f>
         <v>0.087890625</v>
       </c>
       <c r="Z16" s="46">
-        <f t="shared" si="1"/>
+        <f>(O16-P16)/O16</f>
         <v>0.0534979423868313</v>
       </c>
       <c r="AA16" s="46">
-        <f t="shared" si="2"/>
+        <f>(Q16-R16)/Q16</f>
         <v>0.0517690875232775</v>
       </c>
       <c r="AB16" s="46">
-        <f t="shared" si="3"/>
+        <f>(S16-T16)/S16</f>
         <v>0.0284879474068662</v>
       </c>
-      <c r="AC16" s="48" t="e">
+      <c r="AC16" s="49" t="e">
         <f>(U16-V16)/U16*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD16" s="45" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="AE16" s="39"/>
       <c r="AF16" s="39"/>
       <c r="AG16" s="44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" s="39"/>
       <c r="AI16" s="39"/>
@@ -4505,7 +4537,7 @@
     <mergeCell ref="AQ1:AQ2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B11" location="运行状态表2!A1" display="300631(久吾高科)"/>
+    <hyperlink ref="B6" location="运行状态表2!A1" display="300631(久吾高科)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -4534,13 +4566,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4644,16 +4676,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/我的创作/炒股/技术面研究.xlsx
+++ b/我的创作/炒股/技术面研究.xlsx
@@ -2669,8 +2669,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AQ6" sqref="AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
@@ -3363,11 +3363,24 @@
       <c r="AK6" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
+      <c r="AL6" s="39">
+        <v>44.05</v>
+      </c>
+      <c r="AM6" s="39">
+        <v>57.6</v>
+      </c>
+      <c r="AN6" s="27">
+        <f>(AM6-AK6)/(AK6-AL6)</f>
+        <v>2.10779816513762</v>
+      </c>
+      <c r="AO6" s="17">
+        <f>(AK6-AL6)/AK6</f>
+        <v>0.0900640363561248</v>
+      </c>
+      <c r="AP6" s="17">
+        <f>(AM6-AK6)/AK6</f>
+        <v>0.189836810576327</v>
+      </c>
       <c r="AQ6" s="58" t="s">
         <v>63</v>
       </c>

--- a/我的创作/炒股/技术面研究.xlsx
+++ b/我的创作/炒股/技术面研究.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13020"/>
+    <workbookView windowWidth="27240" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="买入筛选条件" sheetId="7" r:id="rId1"/>
@@ -364,19 +364,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1269,7 +1269,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1321,32 +1321,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1355,58 +1358,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,25 +1397,25 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1445,7 +1427,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1472,7 +1454,7 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1481,13 +1463,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2669,8 +2651,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AQ6" sqref="AQ6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
@@ -2690,1840 +2672,1840 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="19" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AH1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="19" t="s">
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="53" t="s">
+      <c r="AL1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="53" t="s">
+      <c r="AM1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AN1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AO1" s="19" t="s">
+      <c r="AO1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AP1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="54" t="s">
+      <c r="AQ1" s="48" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:43">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="37" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="U2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="37" t="s">
+      <c r="X2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="Y2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="AA2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="37" t="s">
+      <c r="AB2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="37" t="s">
+      <c r="AD2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="37" t="s">
+      <c r="AE2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="51" t="s">
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="51" t="s">
+      <c r="AI2" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="52" t="s">
+      <c r="AJ2" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="55"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="49"/>
     </row>
     <row r="3" ht="36" spans="1:43">
-      <c r="A3" s="22">
+      <c r="A3" s="18">
         <v>44517</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="4">
         <v>22.15</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="5">
         <v>23.55</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="5">
         <v>24.52</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="5">
         <v>25.7</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="5">
         <v>5.46</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="5">
         <v>46.33</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="12">
         <f>(F3-G3)/G3</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="12">
         <f>(H3-F3)/H3</f>
         <v>0.445283833369307</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="24">
+      <c r="K3" s="32"/>
+      <c r="L3" s="5">
         <v>20.79</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="5">
         <v>29.8</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="5">
         <v>21.88</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="5">
         <v>25.14</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="5">
         <v>22.1</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="5">
         <v>26.4</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="5">
         <v>24</v>
       </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="42" t="s">
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="43">
+      <c r="X3" s="37">
         <f>(H3-L3)/H3</f>
         <v>0.551262680768401</v>
       </c>
-      <c r="Y3" s="43">
+      <c r="Y3" s="37">
         <f>(M3-N3)/M3</f>
         <v>0.265771812080537</v>
       </c>
-      <c r="Z3" s="43">
+      <c r="Z3" s="37">
         <f>(O3-P3)/O3</f>
         <v>0.120922832140016</v>
       </c>
-      <c r="AA3" s="43">
+      <c r="AA3" s="37">
         <f>(Q3-R3)/Q3</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="AB3" s="43" t="e">
+      <c r="AB3" s="37" t="e">
         <f>(S3-T3)/S3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="47" t="s">
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AE3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="AF3" s="47" t="s">
+      <c r="AF3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AG3" s="42" t="s">
+      <c r="AG3" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AH3" s="24">
+      <c r="AH3" s="5">
         <v>28.15</v>
       </c>
-      <c r="AI3" s="24">
+      <c r="AI3" s="5">
         <v>21.87</v>
       </c>
-      <c r="AJ3" s="27">
+      <c r="AJ3" s="8">
         <f>AH3-AI3</f>
         <v>6.28</v>
       </c>
-      <c r="AK3" s="24">
+      <c r="AK3" s="5">
         <v>26.2</v>
       </c>
-      <c r="AL3" s="24">
+      <c r="AL3" s="5">
         <v>24.68</v>
       </c>
-      <c r="AM3" s="24">
+      <c r="AM3" s="5">
         <v>32.49</v>
       </c>
-      <c r="AN3" s="24">
+      <c r="AN3" s="5">
         <f>(AM3-AK3)/(AK3-AL3)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="AO3" s="14">
+      <c r="AO3" s="12">
         <f>(AK3-AL3)/AK3</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="AP3" s="14">
+      <c r="AP3" s="12">
         <f>(AM3-AK3)/AK3</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="AQ3" s="56">
+      <c r="AQ3" s="50">
         <v>150.88</v>
       </c>
     </row>
     <row r="4" ht="48" spans="1:43">
-      <c r="A4" s="25">
+      <c r="A4" s="20">
         <v>44517</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="7">
         <v>38.45</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="8">
         <v>39.06</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="8">
         <v>39.91</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="8">
         <v>39.92</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="8">
         <v>27.1</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="8">
         <v>59.95</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="12">
         <f>(F4-G4)/G4</f>
         <v>0.473062730627306</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="12">
         <f>(H4-F4)/H4</f>
         <v>0.334111759799833</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="29">
+      <c r="K4" s="33"/>
+      <c r="L4" s="23">
         <v>36.59</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="23">
         <v>41.5</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="23">
         <v>37.17</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="23">
         <v>42</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="23">
         <v>39.01</v>
       </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="44" t="s">
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="43">
+      <c r="X4" s="37">
         <f>(H4-L4)/H4</f>
         <v>0.389658048373645</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="40">
         <f>(M4-N4)/M4</f>
         <v>0.10433734939759</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="Z4" s="40">
         <f>(O4-P4)/O4</f>
         <v>0.0711904761904762</v>
       </c>
-      <c r="AA4" s="46" t="e">
+      <c r="AA4" s="40" t="e">
         <f>(Q4-R4)/Q4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB4" s="46" t="e">
+      <c r="AB4" s="40" t="e">
         <f>(S4-T4)/S4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="45" t="s">
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="45" t="s">
+      <c r="AE4" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AF4" s="45" t="s">
+      <c r="AF4" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AG4" s="44" t="s">
+      <c r="AG4" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AH4" s="27">
+      <c r="AH4" s="8">
         <v>43.92</v>
       </c>
-      <c r="AI4" s="27">
+      <c r="AI4" s="8">
         <v>35.16</v>
       </c>
-      <c r="AJ4" s="27">
+      <c r="AJ4" s="8">
         <f>AH4-AI4</f>
         <v>8.76000000000001</v>
       </c>
-      <c r="AK4" s="27">
+      <c r="AK4" s="8">
         <v>41.7</v>
       </c>
-      <c r="AL4" s="27">
+      <c r="AL4" s="8">
         <v>39.01</v>
       </c>
-      <c r="AM4" s="27">
+      <c r="AM4" s="8">
         <v>52.05</v>
       </c>
-      <c r="AN4" s="27">
+      <c r="AN4" s="8">
         <f>(AM4-AK4)/(AK4-AL4)</f>
         <v>3.84758364312267</v>
       </c>
-      <c r="AO4" s="17">
+      <c r="AO4" s="13">
         <f>(AK4-AL4)/AK4</f>
         <v>0.0645083932853718</v>
       </c>
-      <c r="AP4" s="17">
+      <c r="AP4" s="13">
         <f>(AM4-AK4)/AK4</f>
         <v>0.248201438848921</v>
       </c>
-      <c r="AQ4" s="57">
+      <c r="AQ4" s="51">
         <v>129.12</v>
       </c>
     </row>
     <row r="5" ht="36" spans="1:43">
-      <c r="A5" s="25">
+      <c r="A5" s="20">
         <v>44517</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="7">
         <v>31.92</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="8">
         <v>32.63</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="8">
         <v>33.17</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="8">
         <v>33.73</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="8">
         <v>22.98</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="8">
         <v>44.42</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="12">
         <f>(F5-G5)/G5</f>
         <v>0.467798085291558</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="12">
         <f>(H5-F5)/H5</f>
         <v>0.240657361548852</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="27">
+      <c r="K5" s="33"/>
+      <c r="L5" s="8">
         <v>30.78</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="8">
         <v>35</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="8">
         <v>31.27</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="8">
         <v>34.82</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="8">
         <v>32.12</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="8">
         <v>34.11</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="8">
         <v>32.53</v>
       </c>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="44" t="s">
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="43">
+      <c r="X5" s="37">
         <f>(H5-L5)/H5</f>
         <v>0.307068887888339</v>
       </c>
-      <c r="Y5" s="46">
+      <c r="Y5" s="40">
         <f>(M5-N5)/M5</f>
         <v>0.106571428571429</v>
       </c>
-      <c r="Z5" s="46">
+      <c r="Z5" s="40">
         <f>(O5-P5)/O5</f>
         <v>0.077541642734061</v>
       </c>
-      <c r="AA5" s="46">
+      <c r="AA5" s="40">
         <f>(Q5-R5)/Q5</f>
         <v>0.0463207270595133</v>
       </c>
-      <c r="AB5" s="46" t="e">
+      <c r="AB5" s="40" t="e">
         <f>(S5-T5)/S5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="44" t="s">
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AE5" s="44" t="s">
+      <c r="AE5" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="AF5" s="44" t="s">
+      <c r="AF5" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="45" t="s">
+      <c r="AG5" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AH5" s="27">
+      <c r="AH5" s="8">
         <v>35.48</v>
       </c>
-      <c r="AI5" s="27">
+      <c r="AI5" s="8">
         <v>31.36</v>
       </c>
-      <c r="AJ5" s="27">
+      <c r="AJ5" s="8">
         <f>AH5-AI5</f>
         <v>4.12</v>
       </c>
-      <c r="AK5" s="27">
+      <c r="AK5" s="8">
         <v>34.12</v>
       </c>
-      <c r="AL5" s="27">
+      <c r="AL5" s="8">
         <v>32.53</v>
       </c>
-      <c r="AM5" s="27">
+      <c r="AM5" s="8">
         <v>39.33</v>
       </c>
-      <c r="AN5" s="27">
+      <c r="AN5" s="8">
         <f>(AM5-AK5)/(AK5-AL5)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="AO5" s="17">
+      <c r="AO5" s="13">
         <f>(AK5-AL5)/AK5</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="AP5" s="17">
+      <c r="AP5" s="13">
         <f>(AM5-AK5)/AK5</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="AQ5" s="57">
+      <c r="AQ5" s="51">
         <v>37.41</v>
       </c>
     </row>
     <row r="6" ht="36" spans="1:43">
-      <c r="A6" s="25">
+      <c r="A6" s="20">
         <v>44517</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="7">
         <v>33.16</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="8">
         <v>35.76</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="8">
         <v>39.55</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="8">
         <v>40.84</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="8">
         <v>14.11</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="8">
         <v>66.5</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="12">
         <f>(F6-G6)/G6</f>
         <v>1.89440113394756</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="12">
         <f>(H6-F6)/H6</f>
         <v>0.385864661654135</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33">
         <v>34.53</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="33">
         <v>44.44</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="33">
         <v>35.34</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="33">
         <v>41.6</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P6" s="33">
         <v>37.4</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="Q6" s="33">
         <v>41.3</v>
       </c>
-      <c r="R6" s="39">
+      <c r="R6" s="33">
         <v>37.57</v>
       </c>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="45" t="s">
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="X6" s="43">
+      <c r="X6" s="37">
         <f>(H6-L6)/H6</f>
         <v>0.480751879699248</v>
       </c>
-      <c r="Y6" s="46">
+      <c r="Y6" s="40">
         <f>(M6-N6)/M6</f>
         <v>0.204770477047705</v>
       </c>
-      <c r="Z6" s="46">
+      <c r="Z6" s="40">
         <f>(O6-P6)/O6</f>
         <v>0.100961538461539</v>
       </c>
-      <c r="AA6" s="46">
+      <c r="AA6" s="40">
         <f>(Q6-R6)/Q6</f>
         <v>0.0903147699757869</v>
       </c>
-      <c r="AB6" s="46" t="e">
+      <c r="AB6" s="40" t="e">
         <f>(S6-T6)/S6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39" t="s">
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AE6" s="48" t="s">
+      <c r="AE6" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="AF6" s="48" t="s">
+      <c r="AF6" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="AG6" s="45" t="s">
+      <c r="AG6" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AH6" s="27">
+      <c r="AH6" s="8">
         <v>45.49</v>
       </c>
-      <c r="AI6" s="27">
+      <c r="AI6" s="8">
         <v>34.77</v>
       </c>
-      <c r="AJ6" s="27">
+      <c r="AJ6" s="8">
         <f>AH6-AI6</f>
         <v>10.72</v>
       </c>
-      <c r="AK6" s="44" t="s">
+      <c r="AK6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AL6" s="39">
+      <c r="AL6" s="33">
         <v>44.05</v>
       </c>
-      <c r="AM6" s="39">
+      <c r="AM6" s="33">
         <v>57.6</v>
       </c>
-      <c r="AN6" s="27">
+      <c r="AN6" s="8">
         <f>(AM6-AK6)/(AK6-AL6)</f>
         <v>2.10779816513762</v>
       </c>
-      <c r="AO6" s="17">
+      <c r="AO6" s="13">
         <f>(AK6-AL6)/AK6</f>
         <v>0.0900640363561248</v>
       </c>
-      <c r="AP6" s="17">
+      <c r="AP6" s="13">
         <f>(AM6-AK6)/AK6</f>
         <v>0.189836810576327</v>
       </c>
-      <c r="AQ6" s="58" t="s">
+      <c r="AQ6" s="52" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="36" spans="1:43">
-      <c r="A7" s="25">
+      <c r="A7" s="20">
         <v>44517</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="7">
         <v>19.1</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="23">
         <v>19.18</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="23">
         <v>19.66</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="23">
         <v>20.94</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="8">
         <v>15.72</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="8">
         <v>26.22</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <f>(F7-G7)/G7</f>
         <v>0.33206106870229</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="12">
         <f>(H7-F7)/H7</f>
         <v>0.20137299771167</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="29">
+      <c r="K7" s="33"/>
+      <c r="L7" s="23">
         <v>17.62</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="23">
         <v>21.19</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="23">
         <v>18.13</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="23">
         <v>19.94</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="23">
         <v>19.09</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="23">
         <v>20.74</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="23">
         <v>19.91</v>
       </c>
-      <c r="S7" s="29">
+      <c r="S7" s="23">
         <v>21.65</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="44" t="s">
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="X7" s="43">
+      <c r="X7" s="37">
         <f>(H7-L7)/H7</f>
         <v>0.327993897787948</v>
       </c>
-      <c r="Y7" s="46">
+      <c r="Y7" s="40">
         <f>(M7-N7)/M7</f>
         <v>0.144407739499764</v>
       </c>
-      <c r="Z7" s="46">
+      <c r="Z7" s="40">
         <f>(O7-P7)/O7</f>
         <v>0.0426278836509529</v>
       </c>
-      <c r="AA7" s="46">
+      <c r="AA7" s="40">
         <f>(Q7-R7)/Q7</f>
         <v>0.0400192864030857</v>
       </c>
-      <c r="AB7" s="46">
+      <c r="AB7" s="40">
         <f>(S7-T7)/S7</f>
         <v>1</v>
       </c>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="45" t="s">
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AE7" s="45" t="s">
+      <c r="AE7" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="AF7" s="45" t="s">
+      <c r="AF7" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AG7" s="44" t="s">
+      <c r="AG7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AH7" s="27">
+      <c r="AH7" s="8">
         <v>22.09</v>
       </c>
-      <c r="AI7" s="27">
+      <c r="AI7" s="8">
         <v>17.84</v>
       </c>
-      <c r="AJ7" s="27">
+      <c r="AJ7" s="8">
         <f>AH7-AI7</f>
         <v>4.25</v>
       </c>
-      <c r="AK7" s="27">
+      <c r="AK7" s="8">
         <v>21.66</v>
       </c>
-      <c r="AL7" s="27">
+      <c r="AL7" s="8">
         <v>19.91</v>
       </c>
-      <c r="AM7" s="27">
+      <c r="AM7" s="8">
         <v>26.99</v>
       </c>
-      <c r="AN7" s="27">
+      <c r="AN7" s="8">
         <f>(AM7-AK7)/(AK7-AL7)</f>
         <v>3.04571428571428</v>
       </c>
-      <c r="AO7" s="17">
+      <c r="AO7" s="13">
         <f>(AK7-AL7)/AK7</f>
         <v>0.0807940904893814</v>
       </c>
-      <c r="AP7" s="17">
+      <c r="AP7" s="13">
         <f>(AM7-AK7)/AK7</f>
         <v>0.246075715604801</v>
       </c>
-      <c r="AQ7" s="57">
+      <c r="AQ7" s="51">
         <v>41.29</v>
       </c>
     </row>
     <row r="8" ht="48" spans="1:43">
-      <c r="A8" s="25">
+      <c r="A8" s="20">
         <v>44519</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="7">
         <v>28.2</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="23">
         <v>29.15</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="23">
         <v>31.53</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="23">
         <v>32.57</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="8">
         <v>20.61</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="8">
         <v>41.5</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <f>(F8-G8)/G8</f>
         <v>0.58030082484231</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="12">
         <f>(H8-F8)/H8</f>
         <v>0.215180722891566</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="27">
+      <c r="K8" s="33"/>
+      <c r="L8" s="8">
         <v>28.42</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="8">
         <v>34.7</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="8">
         <v>29</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="8">
         <v>35.27</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="8">
         <v>30.89</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="8">
         <v>32.65</v>
       </c>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="44" t="s">
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="X8" s="43">
+      <c r="X8" s="37">
         <f>(H8-L8)/H8</f>
         <v>0.315180722891566</v>
       </c>
-      <c r="Y8" s="46">
+      <c r="Y8" s="40">
         <f>(M8-N8)/M8</f>
         <v>0.164265129682997</v>
       </c>
-      <c r="Z8" s="46">
+      <c r="Z8" s="40">
         <f>(O8-P8)/O8</f>
         <v>0.124184859654097</v>
       </c>
-      <c r="AA8" s="46">
+      <c r="AA8" s="40">
         <f>(Q8-R8)/Q8</f>
         <v>1</v>
       </c>
-      <c r="AB8" s="46" t="e">
+      <c r="AB8" s="40" t="e">
         <f>(S8-T8)/S8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="45" t="s">
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="AE8" s="44" t="s">
+      <c r="AE8" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AF8" s="44" t="s">
+      <c r="AF8" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AG8" s="44" t="s">
+      <c r="AG8" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AH8" s="27">
+      <c r="AH8" s="8">
         <v>36.21</v>
       </c>
-      <c r="AI8" s="27">
+      <c r="AI8" s="8">
         <v>27.35</v>
       </c>
-      <c r="AJ8" s="27">
+      <c r="AJ8" s="8">
         <f>AH8-AI8</f>
         <v>8.86</v>
       </c>
-      <c r="AK8" s="27">
+      <c r="AK8" s="8">
         <v>32.65</v>
       </c>
-      <c r="AL8" s="27">
+      <c r="AL8" s="8">
         <v>30.89</v>
       </c>
-      <c r="AM8" s="27">
+      <c r="AM8" s="8">
         <v>36.22</v>
       </c>
-      <c r="AN8" s="27">
+      <c r="AN8" s="8">
         <f>(AM8-AK8)/(AK8-AL8)</f>
         <v>2.02840909090909</v>
       </c>
-      <c r="AO8" s="17">
+      <c r="AO8" s="13">
         <f>(AK8-AL8)/AK8</f>
         <v>0.0539050535987748</v>
       </c>
-      <c r="AP8" s="17">
+      <c r="AP8" s="13">
         <f>(AM8-AK8)/AK8</f>
         <v>0.109341500765697</v>
       </c>
-      <c r="AQ8" s="57">
+      <c r="AQ8" s="51">
         <v>28.82</v>
       </c>
     </row>
     <row r="9" ht="36" spans="1:43">
-      <c r="A9" s="25">
+      <c r="A9" s="20">
         <v>44519</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="7">
         <v>37.4</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="23">
         <v>37.76</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="23">
         <v>39.88</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="23">
         <v>43.96</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="8">
         <v>27.85</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="8">
         <v>59.98</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="12">
         <f>(F9-G9)/G9</f>
         <v>0.578456014362657</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="12">
         <f>(H9-F9)/H9</f>
         <v>0.267089029676559</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="27">
+      <c r="K9" s="33"/>
+      <c r="L9" s="8">
         <v>33.01</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="8">
         <v>42.56</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="8">
         <v>35.92</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="8">
         <v>41.5</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="8">
         <v>38</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="8">
         <v>43.61</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="8">
         <v>39.32</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="8">
         <v>45.16</v>
       </c>
-      <c r="T9" s="27">
+      <c r="T9" s="8">
         <v>42.57</v>
       </c>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="44" t="s">
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="X9" s="43">
+      <c r="X9" s="37">
         <f>(H9-L9)/H9</f>
         <v>0.449649883294432</v>
       </c>
-      <c r="Y9" s="46">
+      <c r="Y9" s="40">
         <f>(M9-N9)/M9</f>
         <v>0.156015037593985</v>
       </c>
-      <c r="Z9" s="46">
+      <c r="Z9" s="40">
         <f>(O9-P9)/O9</f>
         <v>0.0843373493975904</v>
       </c>
-      <c r="AA9" s="46">
+      <c r="AA9" s="40">
         <f>(Q9-R9)/Q9</f>
         <v>0.0983719330428801</v>
       </c>
-      <c r="AB9" s="46">
+      <c r="AB9" s="40">
         <f>(S9-T9)/S9</f>
         <v>0.0573516386182462</v>
       </c>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="44" t="s">
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AE9" s="44" t="s">
+      <c r="AE9" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AF9" s="44" t="s">
+      <c r="AF9" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AG9" s="44" t="s">
+      <c r="AG9" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AH9" s="27">
+      <c r="AH9" s="8">
         <v>47.52</v>
       </c>
-      <c r="AI9" s="27">
+      <c r="AI9" s="8">
         <v>33.98</v>
       </c>
-      <c r="AJ9" s="27">
+      <c r="AJ9" s="8">
         <f>AH9-AI9</f>
         <v>13.54</v>
       </c>
-      <c r="AK9" s="27">
+      <c r="AK9" s="8">
         <v>45.16</v>
       </c>
-      <c r="AL9" s="27">
+      <c r="AL9" s="8">
         <v>39.22</v>
       </c>
-      <c r="AM9" s="27">
+      <c r="AM9" s="8">
         <v>58.11</v>
       </c>
-      <c r="AN9" s="27">
+      <c r="AN9" s="8">
         <f>(AM9-AK9)/(AK9-AL9)</f>
         <v>2.18013468013468</v>
       </c>
-      <c r="AO9" s="17">
+      <c r="AO9" s="13">
         <f>(AK9-AL9)/AK9</f>
         <v>0.131532329495128</v>
       </c>
-      <c r="AP9" s="17">
+      <c r="AP9" s="13">
         <f>(AM9-AK9)/AK9</f>
         <v>0.286758193091231</v>
       </c>
-      <c r="AQ9" s="57">
+      <c r="AQ9" s="51">
         <v>82.55</v>
       </c>
     </row>
     <row r="10" ht="36" spans="1:43">
-      <c r="A10" s="25">
+      <c r="A10" s="20">
         <v>44519</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="7">
         <v>21.29</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="23">
         <v>21.51</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="23">
         <v>22.02</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="23">
         <v>23.3</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="8">
         <v>16.26</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="8">
         <v>27.5</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <f>(F10-G10)/G10</f>
         <v>0.432964329643296</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="12">
         <f>(H10-F10)/H10</f>
         <v>0.152727272727273</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="27">
+      <c r="K10" s="33"/>
+      <c r="L10" s="8">
         <v>18.3</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="8">
         <v>22.98</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="8">
         <v>19.34</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="8">
         <v>25.26</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="8">
         <v>19.82</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="8">
         <v>21.69</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="8">
         <v>20.32</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="8">
         <v>22.41</v>
       </c>
-      <c r="T10" s="27">
+      <c r="T10" s="8">
         <v>21.4</v>
       </c>
-      <c r="U10" s="27">
+      <c r="U10" s="8">
         <v>22.64</v>
       </c>
-      <c r="V10" s="27">
+      <c r="V10" s="8">
         <v>22</v>
       </c>
-      <c r="W10" s="44" t="s">
+      <c r="W10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="X10" s="43">
+      <c r="X10" s="37">
         <f>(H10-L10)/H10</f>
         <v>0.334545454545455</v>
       </c>
-      <c r="Y10" s="46">
+      <c r="Y10" s="40">
         <f>(M10-N10)/M10</f>
         <v>0.158398607484769</v>
       </c>
-      <c r="Z10" s="46">
+      <c r="Z10" s="40">
         <f>(O10-P10)/O10</f>
         <v>0.215360253365004</v>
       </c>
-      <c r="AA10" s="46">
+      <c r="AA10" s="40">
         <f>(Q10-R10)/Q10</f>
         <v>0.0631627478100508</v>
       </c>
-      <c r="AB10" s="46">
+      <c r="AB10" s="40">
         <f>(S10-T10)/S10</f>
         <v>0.0450691655510933</v>
       </c>
-      <c r="AC10" s="46">
+      <c r="AC10" s="40">
         <f>(U10-V10)/U10</f>
         <v>0.0282685512367491</v>
       </c>
-      <c r="AD10" s="45" t="s">
+      <c r="AD10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="AE10" s="45" t="s">
+      <c r="AE10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="AF10" s="45" t="s">
+      <c r="AF10" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AG10" s="44" t="s">
+      <c r="AG10" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AH10" s="27">
+      <c r="AH10" s="8">
         <v>24.48</v>
       </c>
-      <c r="AI10" s="27">
+      <c r="AI10" s="8">
         <v>19.98</v>
       </c>
-      <c r="AJ10" s="27">
+      <c r="AJ10" s="8">
         <f>AH10-AI10</f>
         <v>4.5</v>
       </c>
-      <c r="AK10" s="27">
+      <c r="AK10" s="8">
         <v>23.56</v>
       </c>
-      <c r="AL10" s="27">
+      <c r="AL10" s="8">
         <v>22.4</v>
       </c>
-      <c r="AM10" s="27">
+      <c r="AM10" s="8">
         <v>27.75</v>
       </c>
-      <c r="AN10" s="27">
+      <c r="AN10" s="8">
         <f>(AM10-AK10)/(AK10-AL10)</f>
         <v>3.61206896551724</v>
       </c>
-      <c r="AO10" s="17">
+      <c r="AO10" s="13">
         <f>(AK10-AL10)/AK10</f>
         <v>0.0492359932088285</v>
       </c>
-      <c r="AP10" s="17">
+      <c r="AP10" s="13">
         <f>(AM10-AK10)/AK10</f>
         <v>0.177843803056027</v>
       </c>
-      <c r="AQ10" s="58" t="s">
+      <c r="AQ10" s="52" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" ht="74" spans="1:43">
-      <c r="A11" s="25">
+      <c r="A11" s="20">
         <v>44517</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="7">
         <v>4.31</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="8">
         <v>4.51</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="8">
         <v>4.87</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="8">
         <v>5.19</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="8">
         <v>1.86</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="8">
         <v>7.01</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="12">
         <f>(F11-G11)/G11</f>
         <v>1.79032258064516</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <f>(H11-F11)/H11</f>
         <v>0.25962910128388</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="44" t="s">
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="X11" s="43">
+      <c r="X11" s="37">
         <f>(H11-L11)/H11</f>
         <v>1</v>
       </c>
-      <c r="Y11" s="46" t="e">
+      <c r="Y11" s="40" t="e">
         <f>(M11-N11)/M11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z11" s="46" t="e">
+      <c r="Z11" s="40" t="e">
         <f>(O11-P11)/O11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA11" s="46" t="e">
+      <c r="AA11" s="40" t="e">
         <f>(Q11-R11)/Q11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB11" s="46" t="e">
+      <c r="AB11" s="40" t="e">
         <f>(S11-T11)/S11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="44" t="s">
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AH11" s="27">
+      <c r="AH11" s="8">
         <v>5.54</v>
       </c>
-      <c r="AI11" s="27">
+      <c r="AI11" s="8">
         <v>4.19</v>
       </c>
-      <c r="AJ11" s="27">
+      <c r="AJ11" s="8">
         <f>AH11-AI11</f>
         <v>1.35</v>
       </c>
-      <c r="AK11" s="27">
+      <c r="AK11" s="8">
         <v>5.48</v>
       </c>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
-      <c r="AO11" s="39"/>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="57">
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="51">
         <v>-15.78</v>
       </c>
     </row>
     <row r="12" ht="13" spans="1:43">
-      <c r="A12" s="25">
+      <c r="A12" s="20">
         <v>44519</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="7">
         <v>15.38</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="8">
         <v>15.75</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="8">
         <v>16.69</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="8">
         <v>17.14</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="8">
         <v>11.61</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="8">
         <v>22.7</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="12">
         <f>(F12-G12)/G12</f>
         <v>0.476313522825151</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="12">
         <f>(H12-F12)/H12</f>
         <v>0.244933920704846</v>
       </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="27">
+      <c r="K12" s="33"/>
+      <c r="L12" s="8">
         <v>15.1</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="8">
         <v>16.1</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="8">
         <v>15.26</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="8">
         <v>16.92</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="8">
         <v>16.36</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="8">
         <v>17.75</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="8">
         <v>16.98</v>
       </c>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="45" t="s">
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="X12" s="43">
+      <c r="X12" s="37">
         <f>(H12-L12)/H12</f>
         <v>0.334801762114537</v>
       </c>
-      <c r="Y12" s="46">
+      <c r="Y12" s="40">
         <f>(M12-N12)/M12</f>
         <v>0.0521739130434784</v>
       </c>
-      <c r="Z12" s="46">
+      <c r="Z12" s="40">
         <f>(O12-P12)/O12</f>
         <v>0.0330969267139481</v>
       </c>
-      <c r="AA12" s="46">
+      <c r="AA12" s="40">
         <f>(Q12-R12)/Q12</f>
         <v>0.0433802816901408</v>
       </c>
-      <c r="AB12" s="46" t="e">
+      <c r="AB12" s="40" t="e">
         <f>(S12-T12)/S12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="44" t="s">
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="44" t="s">
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="39"/>
-      <c r="AP12" s="39"/>
-      <c r="AQ12" s="59"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="33"/>
+      <c r="AQ12" s="53"/>
     </row>
     <row r="13" ht="13" spans="1:43">
-      <c r="A13" s="25">
+      <c r="A13" s="20">
         <v>44519</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="7">
         <v>26.92</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="23">
         <v>28.71</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="23">
         <v>32.1</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="23">
         <v>33.88</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="8">
         <v>11.79</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="8">
         <v>46.88</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <f>(F13-G13)/G13</f>
         <v>1.87362171331637</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <f>(H13-F13)/H13</f>
         <v>0.277303754266212</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="27">
+      <c r="K13" s="33"/>
+      <c r="L13" s="8">
         <v>28.02</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="8">
         <v>35.35</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="8">
         <v>32.02</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="8">
         <v>34.49</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="8">
         <v>33.63</v>
       </c>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="44" t="s">
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="X13" s="43">
+      <c r="X13" s="37">
         <f>(H13-L13)/H13</f>
         <v>0.402303754266212</v>
       </c>
-      <c r="Y13" s="46">
+      <c r="Y13" s="40">
         <f>(M13-N13)/M13</f>
         <v>0.0942008486562941</v>
       </c>
-      <c r="Z13" s="46">
+      <c r="Z13" s="40">
         <f>(O13-P13)/O13</f>
         <v>0.0249347636996231</v>
       </c>
-      <c r="AA13" s="46" t="e">
+      <c r="AA13" s="40" t="e">
         <f>(Q13-R13)/Q13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB13" s="46" t="e">
+      <c r="AB13" s="40" t="e">
         <f>(S13-T13)/S13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="44" t="s">
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="44" t="s">
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="39"/>
-      <c r="AP13" s="39"/>
-      <c r="AQ13" s="59"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="33"/>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="33"/>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="33"/>
+      <c r="AP13" s="33"/>
+      <c r="AQ13" s="53"/>
     </row>
     <row r="14" ht="25" spans="1:43">
-      <c r="A14" s="25">
+      <c r="A14" s="20">
         <v>44519</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="7">
         <v>35.35</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="23">
         <v>35.58</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="23">
         <v>37.2</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="23">
         <v>38.9</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="8">
         <v>28.09</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="8">
         <v>58.63</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="12">
         <f>(F14-G14)/G14</f>
         <v>0.384834460662157</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <f>(H14-F14)/H14</f>
         <v>0.33651714139519</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="27">
+      <c r="K14" s="33"/>
+      <c r="L14" s="8">
         <v>33.45</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="8">
         <v>38.48</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="8">
         <v>36.62</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="8">
         <v>38.88</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="8">
         <v>36.26</v>
       </c>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="44" t="s">
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="X14" s="43">
+      <c r="X14" s="37">
         <f>(H14-L14)/H14</f>
         <v>0.429472966058332</v>
       </c>
-      <c r="Y14" s="46">
+      <c r="Y14" s="40">
         <f>(M14-N14)/M14</f>
         <v>0.0483367983367983</v>
       </c>
-      <c r="Z14" s="46">
+      <c r="Z14" s="40">
         <f>(O14-P14)/O14</f>
         <v>0.0673868312757203</v>
       </c>
-      <c r="AA14" s="46" t="e">
+      <c r="AA14" s="40" t="e">
         <f>(Q14-R14)/Q14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB14" s="46" t="e">
+      <c r="AB14" s="40" t="e">
         <f>(S14-T14)/S14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="44" t="s">
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="44" t="s">
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="39"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="39"/>
-      <c r="AP14" s="39"/>
-      <c r="AQ14" s="59"/>
+      <c r="AH14" s="33"/>
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="33"/>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="33"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="33"/>
+      <c r="AP14" s="33"/>
+      <c r="AQ14" s="53"/>
     </row>
     <row r="15" ht="25" spans="1:43">
-      <c r="A15" s="25">
+      <c r="A15" s="20">
         <v>44519</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="7">
         <v>16.62</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="23">
         <v>16.82</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="23">
         <v>17.84</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="23">
         <v>18.08</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="8">
         <v>12.36</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="8">
         <v>25.47</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="12">
         <f>(F15-G15)/G15</f>
         <v>0.462783171521036</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="12">
         <f>(H15-F15)/H15</f>
         <v>0.290145268943856</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="27">
+      <c r="K15" s="33"/>
+      <c r="L15" s="8">
         <v>15.61</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="8">
         <v>17.86</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="8">
         <v>16.76</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="8">
         <v>18.28</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="8">
         <v>16.74</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="8">
         <v>19</v>
       </c>
-      <c r="R15" s="27">
+      <c r="R15" s="8">
         <v>18.01</v>
       </c>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="43">
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="37">
         <f>(H15-L15)/H15</f>
         <v>0.387122104436592</v>
       </c>
-      <c r="Y15" s="46">
+      <c r="Y15" s="40">
         <f>(M15-N15)/M15</f>
         <v>0.0615901455767076</v>
       </c>
-      <c r="Z15" s="46">
+      <c r="Z15" s="40">
         <f>(O15-P15)/O15</f>
         <v>0.0842450765864334</v>
       </c>
-      <c r="AA15" s="46">
+      <c r="AA15" s="40">
         <f>(Q15-R15)/Q15</f>
         <v>0.0521052631578947</v>
       </c>
-      <c r="AB15" s="46" t="e">
+      <c r="AB15" s="40" t="e">
         <f>(S15-T15)/S15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC15" s="49" t="e">
+      <c r="AC15" s="43" t="e">
         <f>(U15-V15)/U15*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="45" t="s">
+      <c r="AD15" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="44" t="s">
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="39"/>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="39"/>
-      <c r="AN15" s="39"/>
-      <c r="AO15" s="39"/>
-      <c r="AP15" s="39"/>
-      <c r="AQ15" s="59"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="53"/>
     </row>
     <row r="16" ht="13" spans="1:43">
-      <c r="A16" s="31">
+      <c r="A16" s="25">
         <v>44519</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="7">
         <v>22.34</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="23">
         <v>23.02</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="23">
         <v>25.02</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="23">
         <v>26.63</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="8">
         <v>13.32</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="8">
         <v>33.8</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="12">
         <f>(F16-G16)/G16</f>
         <v>0.999249249249249</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="12">
         <f>(H16-F16)/H16</f>
         <v>0.212130177514793</v>
       </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="27">
+      <c r="K16" s="33"/>
+      <c r="L16" s="8">
         <v>21.89</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="8">
         <v>25.6</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="8">
         <v>23.35</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="8">
         <v>26.73</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="8">
         <v>25.3</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="8">
         <v>26.85</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="8">
         <v>25.46</v>
       </c>
-      <c r="S16" s="27">
+      <c r="S16" s="8">
         <v>27.38</v>
       </c>
-      <c r="T16" s="27">
+      <c r="T16" s="8">
         <v>26.6</v>
       </c>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="43">
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="37">
         <f>(H16-L16)/H16</f>
         <v>0.352366863905325</v>
       </c>
-      <c r="Y16" s="46">
+      <c r="Y16" s="40">
         <f>(M16-N16)/M16</f>
         <v>0.087890625</v>
       </c>
-      <c r="Z16" s="46">
+      <c r="Z16" s="40">
         <f>(O16-P16)/O16</f>
         <v>0.0534979423868313</v>
       </c>
-      <c r="AA16" s="46">
+      <c r="AA16" s="40">
         <f>(Q16-R16)/Q16</f>
         <v>0.0517690875232775</v>
       </c>
-      <c r="AB16" s="46">
+      <c r="AB16" s="40">
         <f>(S16-T16)/S16</f>
         <v>0.0284879474068662</v>
       </c>
-      <c r="AC16" s="49" t="e">
+      <c r="AC16" s="43" t="e">
         <f>(U16-V16)/U16*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD16" s="45" t="s">
+      <c r="AD16" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="44" t="s">
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="39"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4550,7 +4532,7 @@
     <mergeCell ref="AQ1:AQ2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" location="运行状态表2!A1" display="300631(久吾高科)"/>
+    <hyperlink ref="B6" location="久吾高科日志!A1" display="300631(久吾高科)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -4562,8 +4544,8 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -4574,95 +4556,95 @@
     <col min="4" max="4" width="11.5982142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" spans="1:4">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="12">
+    <row r="2" ht="30" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>44518</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="4">
         <f>VLOOKUP(久吾高科日志!A3,久吾高科日志!A2:E10,4,FALSE)-VLOOKUP(久吾高科日志!A3,久吾高科日志!A2:E10,2,FALSE)</f>
         <v>6.38</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <f>(VLOOKUP(久吾高科日志!A3,久吾高科日志!A2:E9,4,FALSE)-VLOOKUP(久吾高科日志!A2,久吾高科日志!A2:E9,4,FALSE))/VLOOKUP(久吾高科日志!A2,久吾高科日志!A2:E9,4,FALSE)</f>
         <v>0.127081292850147</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <f>(VLOOKUP(久吾高科日志!A3,久吾高科日志!A2:E10,5,FALSE)-VLOOKUP(久吾高科日志!A2,久吾高科日志!A2:E10,5,FALSE))/VLOOKUP(久吾高科日志!A2,久吾高科日志!A2:E10,5,FALSE)</f>
         <v>0.898795180722892</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="15">
+    <row r="3" ht="32" customHeight="1" spans="1:4">
+      <c r="A3" s="6">
         <v>44519</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="7">
         <f>VLOOKUP(久吾高科日志!A4,久吾高科日志!A3:E10,4,FALSE)-VLOOKUP(久吾高科日志!A4,久吾高科日志!A3:E10,2,FALSE)</f>
         <v>4.56</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="13">
         <f>(VLOOKUP(久吾高科日志!A4,久吾高科日志!A3:E10,4,FALSE)-VLOOKUP(久吾高科日志!A3,久吾高科日志!A3:E10,4,FALSE))/VLOOKUP(久吾高科日志!A3,久吾高科日志!A3:E10,4,FALSE)</f>
         <v>-0.0293286986747773</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <f>(VLOOKUP(久吾高科日志!A4,久吾高科日志!A3:E10,5,FALSE)-VLOOKUP(久吾高科日志!A3,久吾高科日志!A3:E10,5,FALSE))/VLOOKUP(久吾高科日志!A3,久吾高科日志!A3:E10,5,FALSE)</f>
         <v>-0.258883248730965</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4676,125 +4658,128 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.1964285714286" customWidth="1"/>
+    <col min="1" max="1" width="12.3392857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" spans="1:5">
+    <row r="1" ht="23" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
+    <row r="2" ht="22" customHeight="1" spans="1:5">
+      <c r="A2" s="3">
         <v>44517</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>38.97</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>38.25</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>40.84</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>12.45</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5">
+    <row r="3" ht="24" customHeight="1" spans="1:5">
+      <c r="A3" s="6">
         <v>44518</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>39.65</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>40.05</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>46.03</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>23.64</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5">
+    <row r="4" ht="30" customHeight="1" spans="1:5">
+      <c r="A4" s="6">
         <v>44519</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>40.12</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>44.4</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>44.68</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>17.52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="久吾高科运行指标!A1" display="日期"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/我的创作/炒股/技术面研究.xlsx
+++ b/我的创作/炒股/技术面研究.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13020" activeTab="1"/>
+    <workbookView windowWidth="27240" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="买入筛选条件" sheetId="7" r:id="rId1"/>
-    <sheet name="久吾高科运行指标" sheetId="5" r:id="rId2"/>
-    <sheet name="久吾高科日志" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>日期</t>
   </si>
@@ -324,27 +322,6 @@
       <t>)</t>
     </r>
   </si>
-  <si>
-    <t>20日均线与开盘价关系</t>
-  </si>
-  <si>
-    <t>上涨/下跌幅度</t>
-  </si>
-  <si>
-    <t>放量/缩量(w)</t>
-  </si>
-  <si>
-    <t>20日均线</t>
-  </si>
-  <si>
-    <t>开盘价</t>
-  </si>
-  <si>
-    <t>收盘价</t>
-  </si>
-  <si>
-    <t>成交量(w)</t>
-  </si>
 </sst>
 </file>
 
@@ -364,19 +341,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -415,14 +392,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,6 +453,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,7 +533,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,19 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="12"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="16"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +761,37 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
@@ -806,126 +807,6 @@
     <border>
       <left style="thin">
         <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
@@ -955,7 +836,97 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
@@ -1176,303 +1147,282 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2651,8 +2601,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
@@ -2672,1840 +2622,1840 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="15" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="15" t="s">
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="47" t="s">
+      <c r="AL1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="47" t="s">
+      <c r="AM1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AO1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="48" t="s">
+      <c r="AQ1" s="40" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:43">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="31" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Y2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="Z2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="31" t="s">
+      <c r="AA2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="31" t="s">
+      <c r="AB2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="31" t="s">
+      <c r="AC2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="31" t="s">
+      <c r="AD2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="31" t="s">
+      <c r="AE2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="31" t="s">
+      <c r="AF2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="45" t="s">
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="45" t="s">
+      <c r="AI2" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="46" t="s">
+      <c r="AJ2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="49"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="41"/>
     </row>
     <row r="3" ht="36" spans="1:43">
-      <c r="A3" s="18">
+      <c r="A3" s="5">
         <v>44517</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>22.15</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>23.55</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>24.52</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>25.7</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="8">
         <v>5.46</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="8">
         <v>46.33</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="23">
         <f>(F3-G3)/G3</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="23">
         <f>(H3-F3)/H3</f>
         <v>0.445283833369307</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="5">
+      <c r="K3" s="24"/>
+      <c r="L3" s="8">
         <v>20.79</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="8">
         <v>29.8</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="8">
         <v>21.88</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="8">
         <v>25.14</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="8">
         <v>22.1</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="8">
         <v>26.4</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="8">
         <v>24</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="36" t="s">
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="37">
+      <c r="X3" s="29">
         <f>(H3-L3)/H3</f>
         <v>0.551262680768401</v>
       </c>
-      <c r="Y3" s="37">
+      <c r="Y3" s="29">
         <f>(M3-N3)/M3</f>
         <v>0.265771812080537</v>
       </c>
-      <c r="Z3" s="37">
+      <c r="Z3" s="29">
         <f>(O3-P3)/O3</f>
         <v>0.120922832140016</v>
       </c>
-      <c r="AA3" s="37">
+      <c r="AA3" s="29">
         <f>(Q3-R3)/Q3</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="AB3" s="37" t="e">
+      <c r="AB3" s="29" t="e">
         <f>(S3-T3)/S3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="41" t="s">
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AE3" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="AG3" s="36" t="s">
+      <c r="AG3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AH3" s="8">
         <v>28.15</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AI3" s="8">
         <v>21.87</v>
       </c>
-      <c r="AJ3" s="8">
+      <c r="AJ3" s="12">
         <f>AH3-AI3</f>
         <v>6.28</v>
       </c>
-      <c r="AK3" s="5">
+      <c r="AK3" s="8">
         <v>26.2</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AL3" s="8">
         <v>24.68</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AM3" s="8">
         <v>32.49</v>
       </c>
-      <c r="AN3" s="5">
+      <c r="AN3" s="8">
         <f>(AM3-AK3)/(AK3-AL3)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="AO3" s="12">
+      <c r="AO3" s="23">
         <f>(AK3-AL3)/AK3</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="AP3" s="12">
+      <c r="AP3" s="23">
         <f>(AM3-AK3)/AK3</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="AQ3" s="50">
+      <c r="AQ3" s="42">
         <v>150.88</v>
       </c>
     </row>
     <row r="4" ht="48" spans="1:43">
-      <c r="A4" s="20">
+      <c r="A4" s="9">
         <v>44517</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="11">
         <v>38.45</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="12">
         <v>39.06</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="12">
         <v>39.91</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="12">
         <v>39.92</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="12">
         <v>27.1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="12">
         <v>59.95</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="23">
         <f>(F4-G4)/G4</f>
         <v>0.473062730627306</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="23">
         <f>(H4-F4)/H4</f>
         <v>0.334111759799833</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="23">
+      <c r="K4" s="25"/>
+      <c r="L4" s="14">
         <v>36.59</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="14">
         <v>41.5</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="14">
         <v>37.17</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="14">
         <v>42</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="14">
         <v>39.01</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="38" t="s">
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="37">
+      <c r="X4" s="29">
         <f>(H4-L4)/H4</f>
         <v>0.389658048373645</v>
       </c>
-      <c r="Y4" s="40">
+      <c r="Y4" s="32">
         <f>(M4-N4)/M4</f>
         <v>0.10433734939759</v>
       </c>
-      <c r="Z4" s="40">
+      <c r="Z4" s="32">
         <f>(O4-P4)/O4</f>
         <v>0.0711904761904762</v>
       </c>
-      <c r="AA4" s="40" t="e">
+      <c r="AA4" s="32" t="e">
         <f>(Q4-R4)/Q4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB4" s="40" t="e">
+      <c r="AB4" s="32" t="e">
         <f>(S4-T4)/S4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="39" t="s">
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="39" t="s">
+      <c r="AE4" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="AF4" s="39" t="s">
+      <c r="AF4" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="AG4" s="38" t="s">
+      <c r="AG4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH4" s="12">
         <v>43.92</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI4" s="12">
         <v>35.16</v>
       </c>
-      <c r="AJ4" s="8">
+      <c r="AJ4" s="12">
         <f>AH4-AI4</f>
         <v>8.76000000000001</v>
       </c>
-      <c r="AK4" s="8">
+      <c r="AK4" s="12">
         <v>41.7</v>
       </c>
-      <c r="AL4" s="8">
+      <c r="AL4" s="12">
         <v>39.01</v>
       </c>
-      <c r="AM4" s="8">
+      <c r="AM4" s="12">
         <v>52.05</v>
       </c>
-      <c r="AN4" s="8">
+      <c r="AN4" s="12">
         <f>(AM4-AK4)/(AK4-AL4)</f>
         <v>3.84758364312267</v>
       </c>
-      <c r="AO4" s="13">
+      <c r="AO4" s="43">
         <f>(AK4-AL4)/AK4</f>
         <v>0.0645083932853718</v>
       </c>
-      <c r="AP4" s="13">
+      <c r="AP4" s="43">
         <f>(AM4-AK4)/AK4</f>
         <v>0.248201438848921</v>
       </c>
-      <c r="AQ4" s="51">
+      <c r="AQ4" s="44">
         <v>129.12</v>
       </c>
     </row>
     <row r="5" ht="36" spans="1:43">
-      <c r="A5" s="20">
+      <c r="A5" s="9">
         <v>44517</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="11">
         <v>31.92</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="12">
         <v>32.63</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <v>33.17</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="12">
         <v>33.73</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="12">
         <v>22.98</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="12">
         <v>44.42</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="23">
         <f>(F5-G5)/G5</f>
         <v>0.467798085291558</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="23">
         <f>(H5-F5)/H5</f>
         <v>0.240657361548852</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="8">
+      <c r="K5" s="25"/>
+      <c r="L5" s="12">
         <v>30.78</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="12">
         <v>35</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="12">
         <v>31.27</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="12">
         <v>34.82</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="12">
         <v>32.12</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="12">
         <v>34.11</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="12">
         <v>32.53</v>
       </c>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="38" t="s">
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="37">
+      <c r="X5" s="29">
         <f>(H5-L5)/H5</f>
         <v>0.307068887888339</v>
       </c>
-      <c r="Y5" s="40">
+      <c r="Y5" s="32">
         <f>(M5-N5)/M5</f>
         <v>0.106571428571429</v>
       </c>
-      <c r="Z5" s="40">
+      <c r="Z5" s="32">
         <f>(O5-P5)/O5</f>
         <v>0.077541642734061</v>
       </c>
-      <c r="AA5" s="40">
+      <c r="AA5" s="32">
         <f>(Q5-R5)/Q5</f>
         <v>0.0463207270595133</v>
       </c>
-      <c r="AB5" s="40" t="e">
+      <c r="AB5" s="32" t="e">
         <f>(S5-T5)/S5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="38" t="s">
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="AE5" s="38" t="s">
+      <c r="AE5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AF5" s="38" t="s">
+      <c r="AF5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="39" t="s">
+      <c r="AG5" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AH5" s="12">
         <v>35.48</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AI5" s="12">
         <v>31.36</v>
       </c>
-      <c r="AJ5" s="8">
+      <c r="AJ5" s="12">
         <f>AH5-AI5</f>
         <v>4.12</v>
       </c>
-      <c r="AK5" s="8">
+      <c r="AK5" s="12">
         <v>34.12</v>
       </c>
-      <c r="AL5" s="8">
+      <c r="AL5" s="12">
         <v>32.53</v>
       </c>
-      <c r="AM5" s="8">
+      <c r="AM5" s="12">
         <v>39.33</v>
       </c>
-      <c r="AN5" s="8">
+      <c r="AN5" s="12">
         <f>(AM5-AK5)/(AK5-AL5)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="AO5" s="13">
+      <c r="AO5" s="43">
         <f>(AK5-AL5)/AK5</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="AP5" s="13">
+      <c r="AP5" s="43">
         <f>(AM5-AK5)/AK5</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="AQ5" s="51">
+      <c r="AQ5" s="44">
         <v>37.41</v>
       </c>
     </row>
     <row r="6" ht="36" spans="1:43">
-      <c r="A6" s="20">
+      <c r="A6" s="9">
         <v>44517</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="11">
         <v>33.16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="12">
         <v>35.76</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="12">
         <v>39.55</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="12">
         <v>40.84</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="12">
         <v>14.11</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="12">
         <v>66.5</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="23">
         <f>(F6-G6)/G6</f>
         <v>1.89440113394756</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="23">
         <f>(H6-F6)/H6</f>
         <v>0.385864661654135</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25">
         <v>34.53</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="25">
         <v>44.44</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="25">
         <v>35.34</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="25">
         <v>41.6</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="25">
         <v>37.4</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="25">
         <v>41.3</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R6" s="25">
         <v>37.57</v>
       </c>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="39" t="s">
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="X6" s="37">
+      <c r="X6" s="29">
         <f>(H6-L6)/H6</f>
         <v>0.480751879699248</v>
       </c>
-      <c r="Y6" s="40">
+      <c r="Y6" s="32">
         <f>(M6-N6)/M6</f>
         <v>0.204770477047705</v>
       </c>
-      <c r="Z6" s="40">
+      <c r="Z6" s="32">
         <f>(O6-P6)/O6</f>
         <v>0.100961538461539</v>
       </c>
-      <c r="AA6" s="40">
+      <c r="AA6" s="32">
         <f>(Q6-R6)/Q6</f>
         <v>0.0903147699757869</v>
       </c>
-      <c r="AB6" s="40" t="e">
+      <c r="AB6" s="32" t="e">
         <f>(S6-T6)/S6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33" t="s">
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AE6" s="42" t="s">
+      <c r="AE6" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AF6" s="42" t="s">
+      <c r="AF6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AG6" s="39" t="s">
+      <c r="AG6" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AH6" s="12">
         <v>45.49</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AI6" s="12">
         <v>34.77</v>
       </c>
-      <c r="AJ6" s="8">
+      <c r="AJ6" s="12">
         <f>AH6-AI6</f>
         <v>10.72</v>
       </c>
-      <c r="AK6" s="38" t="s">
+      <c r="AK6" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AL6" s="33">
+      <c r="AL6" s="25">
         <v>44.05</v>
       </c>
-      <c r="AM6" s="33">
+      <c r="AM6" s="25">
         <v>57.6</v>
       </c>
-      <c r="AN6" s="8">
+      <c r="AN6" s="12">
         <f>(AM6-AK6)/(AK6-AL6)</f>
         <v>2.10779816513762</v>
       </c>
-      <c r="AO6" s="13">
+      <c r="AO6" s="43">
         <f>(AK6-AL6)/AK6</f>
         <v>0.0900640363561248</v>
       </c>
-      <c r="AP6" s="13">
+      <c r="AP6" s="43">
         <f>(AM6-AK6)/AK6</f>
         <v>0.189836810576327</v>
       </c>
-      <c r="AQ6" s="52" t="s">
+      <c r="AQ6" s="45" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="36" spans="1:43">
-      <c r="A7" s="20">
+      <c r="A7" s="9">
         <v>44517</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="11">
         <v>19.1</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="14">
         <v>19.18</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="14">
         <v>19.66</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="14">
         <v>20.94</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="12">
         <v>15.72</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="12">
         <v>26.22</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="23">
         <f>(F7-G7)/G7</f>
         <v>0.33206106870229</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="23">
         <f>(H7-F7)/H7</f>
         <v>0.20137299771167</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="23">
+      <c r="K7" s="25"/>
+      <c r="L7" s="14">
         <v>17.62</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="14">
         <v>21.19</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="14">
         <v>18.13</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="14">
         <v>19.94</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="14">
         <v>19.09</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="14">
         <v>20.74</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="14">
         <v>19.91</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="14">
         <v>21.65</v>
       </c>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="38" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="X7" s="37">
+      <c r="X7" s="29">
         <f>(H7-L7)/H7</f>
         <v>0.327993897787948</v>
       </c>
-      <c r="Y7" s="40">
+      <c r="Y7" s="32">
         <f>(M7-N7)/M7</f>
         <v>0.144407739499764</v>
       </c>
-      <c r="Z7" s="40">
+      <c r="Z7" s="32">
         <f>(O7-P7)/O7</f>
         <v>0.0426278836509529</v>
       </c>
-      <c r="AA7" s="40">
+      <c r="AA7" s="32">
         <f>(Q7-R7)/Q7</f>
         <v>0.0400192864030857</v>
       </c>
-      <c r="AB7" s="40">
+      <c r="AB7" s="32">
         <f>(S7-T7)/S7</f>
         <v>1</v>
       </c>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="39" t="s">
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AE7" s="39" t="s">
+      <c r="AE7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AF7" s="39" t="s">
+      <c r="AF7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AG7" s="38" t="s">
+      <c r="AG7" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AH7" s="12">
         <v>22.09</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AI7" s="12">
         <v>17.84</v>
       </c>
-      <c r="AJ7" s="8">
+      <c r="AJ7" s="12">
         <f>AH7-AI7</f>
         <v>4.25</v>
       </c>
-      <c r="AK7" s="8">
+      <c r="AK7" s="12">
         <v>21.66</v>
       </c>
-      <c r="AL7" s="8">
+      <c r="AL7" s="12">
         <v>19.91</v>
       </c>
-      <c r="AM7" s="8">
+      <c r="AM7" s="12">
         <v>26.99</v>
       </c>
-      <c r="AN7" s="8">
+      <c r="AN7" s="12">
         <f>(AM7-AK7)/(AK7-AL7)</f>
         <v>3.04571428571428</v>
       </c>
-      <c r="AO7" s="13">
+      <c r="AO7" s="43">
         <f>(AK7-AL7)/AK7</f>
         <v>0.0807940904893814</v>
       </c>
-      <c r="AP7" s="13">
+      <c r="AP7" s="43">
         <f>(AM7-AK7)/AK7</f>
         <v>0.246075715604801</v>
       </c>
-      <c r="AQ7" s="51">
+      <c r="AQ7" s="44">
         <v>41.29</v>
       </c>
     </row>
     <row r="8" ht="48" spans="1:43">
-      <c r="A8" s="20">
+      <c r="A8" s="9">
         <v>44519</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="11">
         <v>28.2</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="14">
         <v>29.15</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="14">
         <v>31.53</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="14">
         <v>32.57</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="12">
         <v>20.61</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="12">
         <v>41.5</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="23">
         <f>(F8-G8)/G8</f>
         <v>0.58030082484231</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="23">
         <f>(H8-F8)/H8</f>
         <v>0.215180722891566</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="8">
+      <c r="K8" s="25"/>
+      <c r="L8" s="12">
         <v>28.42</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="12">
         <v>34.7</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="12">
         <v>29</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="12">
         <v>35.27</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="12">
         <v>30.89</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="12">
         <v>32.65</v>
       </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="38" t="s">
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="X8" s="37">
+      <c r="X8" s="29">
         <f>(H8-L8)/H8</f>
         <v>0.315180722891566</v>
       </c>
-      <c r="Y8" s="40">
+      <c r="Y8" s="32">
         <f>(M8-N8)/M8</f>
         <v>0.164265129682997</v>
       </c>
-      <c r="Z8" s="40">
+      <c r="Z8" s="32">
         <f>(O8-P8)/O8</f>
         <v>0.124184859654097</v>
       </c>
-      <c r="AA8" s="40">
+      <c r="AA8" s="32">
         <f>(Q8-R8)/Q8</f>
         <v>1</v>
       </c>
-      <c r="AB8" s="40" t="e">
+      <c r="AB8" s="32" t="e">
         <f>(S8-T8)/S8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="39" t="s">
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AE8" s="38" t="s">
+      <c r="AE8" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="AF8" s="38" t="s">
+      <c r="AF8" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AG8" s="38" t="s">
+      <c r="AG8" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AH8" s="12">
         <v>36.21</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AI8" s="12">
         <v>27.35</v>
       </c>
-      <c r="AJ8" s="8">
+      <c r="AJ8" s="12">
         <f>AH8-AI8</f>
         <v>8.86</v>
       </c>
-      <c r="AK8" s="8">
+      <c r="AK8" s="12">
         <v>32.65</v>
       </c>
-      <c r="AL8" s="8">
+      <c r="AL8" s="12">
         <v>30.89</v>
       </c>
-      <c r="AM8" s="8">
+      <c r="AM8" s="12">
         <v>36.22</v>
       </c>
-      <c r="AN8" s="8">
+      <c r="AN8" s="12">
         <f>(AM8-AK8)/(AK8-AL8)</f>
         <v>2.02840909090909</v>
       </c>
-      <c r="AO8" s="13">
+      <c r="AO8" s="43">
         <f>(AK8-AL8)/AK8</f>
         <v>0.0539050535987748</v>
       </c>
-      <c r="AP8" s="13">
+      <c r="AP8" s="43">
         <f>(AM8-AK8)/AK8</f>
         <v>0.109341500765697</v>
       </c>
-      <c r="AQ8" s="51">
+      <c r="AQ8" s="44">
         <v>28.82</v>
       </c>
     </row>
     <row r="9" ht="36" spans="1:43">
-      <c r="A9" s="20">
+      <c r="A9" s="9">
         <v>44519</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="11">
         <v>37.4</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="14">
         <v>37.76</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="14">
         <v>39.88</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="14">
         <v>43.96</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="12">
         <v>27.85</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="12">
         <v>59.98</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="23">
         <f>(F9-G9)/G9</f>
         <v>0.578456014362657</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="23">
         <f>(H9-F9)/H9</f>
         <v>0.267089029676559</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="8">
+      <c r="K9" s="25"/>
+      <c r="L9" s="12">
         <v>33.01</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="12">
         <v>42.56</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="12">
         <v>35.92</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="12">
         <v>41.5</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="12">
         <v>38</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="12">
         <v>43.61</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="12">
         <v>39.32</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="12">
         <v>45.16</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="12">
         <v>42.57</v>
       </c>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="38" t="s">
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="X9" s="37">
+      <c r="X9" s="29">
         <f>(H9-L9)/H9</f>
         <v>0.449649883294432</v>
       </c>
-      <c r="Y9" s="40">
+      <c r="Y9" s="32">
         <f>(M9-N9)/M9</f>
         <v>0.156015037593985</v>
       </c>
-      <c r="Z9" s="40">
+      <c r="Z9" s="32">
         <f>(O9-P9)/O9</f>
         <v>0.0843373493975904</v>
       </c>
-      <c r="AA9" s="40">
+      <c r="AA9" s="32">
         <f>(Q9-R9)/Q9</f>
         <v>0.0983719330428801</v>
       </c>
-      <c r="AB9" s="40">
+      <c r="AB9" s="32">
         <f>(S9-T9)/S9</f>
         <v>0.0573516386182462</v>
       </c>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="38" t="s">
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="AE9" s="38" t="s">
+      <c r="AE9" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="AF9" s="38" t="s">
+      <c r="AF9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AG9" s="38" t="s">
+      <c r="AG9" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AH9" s="12">
         <v>47.52</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AI9" s="12">
         <v>33.98</v>
       </c>
-      <c r="AJ9" s="8">
+      <c r="AJ9" s="12">
         <f>AH9-AI9</f>
         <v>13.54</v>
       </c>
-      <c r="AK9" s="8">
+      <c r="AK9" s="12">
         <v>45.16</v>
       </c>
-      <c r="AL9" s="8">
+      <c r="AL9" s="12">
         <v>39.22</v>
       </c>
-      <c r="AM9" s="8">
+      <c r="AM9" s="12">
         <v>58.11</v>
       </c>
-      <c r="AN9" s="8">
+      <c r="AN9" s="12">
         <f>(AM9-AK9)/(AK9-AL9)</f>
         <v>2.18013468013468</v>
       </c>
-      <c r="AO9" s="13">
+      <c r="AO9" s="43">
         <f>(AK9-AL9)/AK9</f>
         <v>0.131532329495128</v>
       </c>
-      <c r="AP9" s="13">
+      <c r="AP9" s="43">
         <f>(AM9-AK9)/AK9</f>
         <v>0.286758193091231</v>
       </c>
-      <c r="AQ9" s="51">
+      <c r="AQ9" s="44">
         <v>82.55</v>
       </c>
     </row>
     <row r="10" ht="36" spans="1:43">
-      <c r="A10" s="20">
+      <c r="A10" s="9">
         <v>44519</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="11">
         <v>21.29</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="14">
         <v>21.51</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="14">
         <v>22.02</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="14">
         <v>23.3</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="12">
         <v>16.26</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="12">
         <v>27.5</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="23">
         <f>(F10-G10)/G10</f>
         <v>0.432964329643296</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="23">
         <f>(H10-F10)/H10</f>
         <v>0.152727272727273</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="8">
+      <c r="K10" s="25"/>
+      <c r="L10" s="12">
         <v>18.3</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="12">
         <v>22.98</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="12">
         <v>19.34</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="12">
         <v>25.26</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="12">
         <v>19.82</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="12">
         <v>21.69</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="12">
         <v>20.32</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="12">
         <v>22.41</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="12">
         <v>21.4</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="12">
         <v>22.64</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="12">
         <v>22</v>
       </c>
-      <c r="W10" s="38" t="s">
+      <c r="W10" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="X10" s="37">
+      <c r="X10" s="29">
         <f>(H10-L10)/H10</f>
         <v>0.334545454545455</v>
       </c>
-      <c r="Y10" s="40">
+      <c r="Y10" s="32">
         <f>(M10-N10)/M10</f>
         <v>0.158398607484769</v>
       </c>
-      <c r="Z10" s="40">
+      <c r="Z10" s="32">
         <f>(O10-P10)/O10</f>
         <v>0.215360253365004</v>
       </c>
-      <c r="AA10" s="40">
+      <c r="AA10" s="32">
         <f>(Q10-R10)/Q10</f>
         <v>0.0631627478100508</v>
       </c>
-      <c r="AB10" s="40">
+      <c r="AB10" s="32">
         <f>(S10-T10)/S10</f>
         <v>0.0450691655510933</v>
       </c>
-      <c r="AC10" s="40">
+      <c r="AC10" s="32">
         <f>(U10-V10)/U10</f>
         <v>0.0282685512367491</v>
       </c>
-      <c r="AD10" s="39" t="s">
+      <c r="AD10" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="AE10" s="39" t="s">
+      <c r="AE10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AF10" s="39" t="s">
+      <c r="AF10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AG10" s="38" t="s">
+      <c r="AG10" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AH10" s="12">
         <v>24.48</v>
       </c>
-      <c r="AI10" s="8">
+      <c r="AI10" s="12">
         <v>19.98</v>
       </c>
-      <c r="AJ10" s="8">
+      <c r="AJ10" s="12">
         <f>AH10-AI10</f>
         <v>4.5</v>
       </c>
-      <c r="AK10" s="8">
+      <c r="AK10" s="12">
         <v>23.56</v>
       </c>
-      <c r="AL10" s="8">
+      <c r="AL10" s="12">
         <v>22.4</v>
       </c>
-      <c r="AM10" s="8">
+      <c r="AM10" s="12">
         <v>27.75</v>
       </c>
-      <c r="AN10" s="8">
+      <c r="AN10" s="12">
         <f>(AM10-AK10)/(AK10-AL10)</f>
         <v>3.61206896551724</v>
       </c>
-      <c r="AO10" s="13">
+      <c r="AO10" s="43">
         <f>(AK10-AL10)/AK10</f>
         <v>0.0492359932088285</v>
       </c>
-      <c r="AP10" s="13">
+      <c r="AP10" s="43">
         <f>(AM10-AK10)/AK10</f>
         <v>0.177843803056027</v>
       </c>
-      <c r="AQ10" s="52" t="s">
+      <c r="AQ10" s="45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" ht="74" spans="1:43">
-      <c r="A11" s="20">
+      <c r="A11" s="9">
         <v>44517</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="11">
         <v>4.31</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="12">
         <v>4.51</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="12">
         <v>4.87</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="12">
         <v>5.19</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="12">
         <v>1.86</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="12">
         <v>7.01</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="23">
         <f>(F11-G11)/G11</f>
         <v>1.79032258064516</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="23">
         <f>(H11-F11)/H11</f>
         <v>0.25962910128388</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="38" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="X11" s="37">
+      <c r="X11" s="29">
         <f>(H11-L11)/H11</f>
         <v>1</v>
       </c>
-      <c r="Y11" s="40" t="e">
+      <c r="Y11" s="32" t="e">
         <f>(M11-N11)/M11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z11" s="40" t="e">
+      <c r="Z11" s="32" t="e">
         <f>(O11-P11)/O11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA11" s="40" t="e">
+      <c r="AA11" s="32" t="e">
         <f>(Q11-R11)/Q11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB11" s="40" t="e">
+      <c r="AB11" s="32" t="e">
         <f>(S11-T11)/S11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="38" t="s">
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AH11" s="8">
+      <c r="AH11" s="12">
         <v>5.54</v>
       </c>
-      <c r="AI11" s="8">
+      <c r="AI11" s="12">
         <v>4.19</v>
       </c>
-      <c r="AJ11" s="8">
+      <c r="AJ11" s="12">
         <f>AH11-AI11</f>
         <v>1.35</v>
       </c>
-      <c r="AK11" s="8">
+      <c r="AK11" s="12">
         <v>5.48</v>
       </c>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="51">
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="44">
         <v>-15.78</v>
       </c>
     </row>
     <row r="12" ht="13" spans="1:43">
-      <c r="A12" s="20">
+      <c r="A12" s="9">
         <v>44519</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="11">
         <v>15.38</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="12">
         <v>15.75</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="12">
         <v>16.69</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="12">
         <v>17.14</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="12">
         <v>11.61</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="12">
         <v>22.7</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="23">
         <f>(F12-G12)/G12</f>
         <v>0.476313522825151</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="23">
         <f>(H12-F12)/H12</f>
         <v>0.244933920704846</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="8">
+      <c r="K12" s="25"/>
+      <c r="L12" s="12">
         <v>15.1</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="12">
         <v>16.1</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="12">
         <v>15.26</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="12">
         <v>16.92</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="12">
         <v>16.36</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="12">
         <v>17.75</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="12">
         <v>16.98</v>
       </c>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="39" t="s">
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="X12" s="37">
+      <c r="X12" s="29">
         <f>(H12-L12)/H12</f>
         <v>0.334801762114537</v>
       </c>
-      <c r="Y12" s="40">
+      <c r="Y12" s="32">
         <f>(M12-N12)/M12</f>
         <v>0.0521739130434784</v>
       </c>
-      <c r="Z12" s="40">
+      <c r="Z12" s="32">
         <f>(O12-P12)/O12</f>
         <v>0.0330969267139481</v>
       </c>
-      <c r="AA12" s="40">
+      <c r="AA12" s="32">
         <f>(Q12-R12)/Q12</f>
         <v>0.0433802816901408</v>
       </c>
-      <c r="AB12" s="40" t="e">
+      <c r="AB12" s="32" t="e">
         <f>(S12-T12)/S12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="38" t="s">
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="38" t="s">
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="53"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="46"/>
     </row>
     <row r="13" ht="13" spans="1:43">
-      <c r="A13" s="20">
+      <c r="A13" s="9">
         <v>44519</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="11">
         <v>26.92</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="14">
         <v>28.71</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="14">
         <v>32.1</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="14">
         <v>33.88</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="12">
         <v>11.79</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="12">
         <v>46.88</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="23">
         <f>(F13-G13)/G13</f>
         <v>1.87362171331637</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="23">
         <f>(H13-F13)/H13</f>
         <v>0.277303754266212</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="8">
+      <c r="K13" s="25"/>
+      <c r="L13" s="12">
         <v>28.02</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="12">
         <v>35.35</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="12">
         <v>32.02</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="12">
         <v>34.49</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="12">
         <v>33.63</v>
       </c>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="38" t="s">
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="X13" s="37">
+      <c r="X13" s="29">
         <f>(H13-L13)/H13</f>
         <v>0.402303754266212</v>
       </c>
-      <c r="Y13" s="40">
+      <c r="Y13" s="32">
         <f>(M13-N13)/M13</f>
         <v>0.0942008486562941</v>
       </c>
-      <c r="Z13" s="40">
+      <c r="Z13" s="32">
         <f>(O13-P13)/O13</f>
         <v>0.0249347636996231</v>
       </c>
-      <c r="AA13" s="40" t="e">
+      <c r="AA13" s="32" t="e">
         <f>(Q13-R13)/Q13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB13" s="40" t="e">
+      <c r="AB13" s="32" t="e">
         <f>(S13-T13)/S13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="38" t="s">
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="38" t="s">
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="53"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="46"/>
     </row>
     <row r="14" ht="25" spans="1:43">
-      <c r="A14" s="20">
+      <c r="A14" s="9">
         <v>44519</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="11">
         <v>35.35</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="14">
         <v>35.58</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="14">
         <v>37.2</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="14">
         <v>38.9</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="12">
         <v>28.09</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="12">
         <v>58.63</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="23">
         <f>(F14-G14)/G14</f>
         <v>0.384834460662157</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="23">
         <f>(H14-F14)/H14</f>
         <v>0.33651714139519</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="8">
+      <c r="K14" s="25"/>
+      <c r="L14" s="12">
         <v>33.45</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="12">
         <v>38.48</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="12">
         <v>36.62</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="12">
         <v>38.88</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="12">
         <v>36.26</v>
       </c>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="38" t="s">
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="X14" s="37">
+      <c r="X14" s="29">
         <f>(H14-L14)/H14</f>
         <v>0.429472966058332</v>
       </c>
-      <c r="Y14" s="40">
+      <c r="Y14" s="32">
         <f>(M14-N14)/M14</f>
         <v>0.0483367983367983</v>
       </c>
-      <c r="Z14" s="40">
+      <c r="Z14" s="32">
         <f>(O14-P14)/O14</f>
         <v>0.0673868312757203</v>
       </c>
-      <c r="AA14" s="40" t="e">
+      <c r="AA14" s="32" t="e">
         <f>(Q14-R14)/Q14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB14" s="40" t="e">
+      <c r="AB14" s="32" t="e">
         <f>(S14-T14)/S14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="38" t="s">
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="38" t="s">
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="53"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="46"/>
     </row>
     <row r="15" ht="25" spans="1:43">
-      <c r="A15" s="20">
+      <c r="A15" s="9">
         <v>44519</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="11">
         <v>16.62</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="14">
         <v>16.82</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="14">
         <v>17.84</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="14">
         <v>18.08</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="12">
         <v>12.36</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="12">
         <v>25.47</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="23">
         <f>(F15-G15)/G15</f>
         <v>0.462783171521036</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="23">
         <f>(H15-F15)/H15</f>
         <v>0.290145268943856</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="8">
+      <c r="K15" s="25"/>
+      <c r="L15" s="12">
         <v>15.61</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="12">
         <v>17.86</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="12">
         <v>16.76</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="12">
         <v>18.28</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="12">
         <v>16.74</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="12">
         <v>19</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="12">
         <v>18.01</v>
       </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="37">
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="29">
         <f>(H15-L15)/H15</f>
         <v>0.387122104436592</v>
       </c>
-      <c r="Y15" s="40">
+      <c r="Y15" s="32">
         <f>(M15-N15)/M15</f>
         <v>0.0615901455767076</v>
       </c>
-      <c r="Z15" s="40">
+      <c r="Z15" s="32">
         <f>(O15-P15)/O15</f>
         <v>0.0842450765864334</v>
       </c>
-      <c r="AA15" s="40">
+      <c r="AA15" s="32">
         <f>(Q15-R15)/Q15</f>
         <v>0.0521052631578947</v>
       </c>
-      <c r="AB15" s="40" t="e">
+      <c r="AB15" s="32" t="e">
         <f>(S15-T15)/S15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC15" s="43" t="e">
+      <c r="AC15" s="35" t="e">
         <f>(U15-V15)/U15*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="39" t="s">
+      <c r="AD15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="38" t="s">
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="53"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="46"/>
     </row>
     <row r="16" ht="13" spans="1:43">
-      <c r="A16" s="25">
+      <c r="A16" s="16">
         <v>44519</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="11">
         <v>22.34</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="14">
         <v>23.02</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="14">
         <v>25.02</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="14">
         <v>26.63</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="12">
         <v>13.32</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="12">
         <v>33.8</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="23">
         <f>(F16-G16)/G16</f>
         <v>0.999249249249249</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="23">
         <f>(H16-F16)/H16</f>
         <v>0.212130177514793</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="8">
+      <c r="K16" s="25"/>
+      <c r="L16" s="12">
         <v>21.89</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="12">
         <v>25.6</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="12">
         <v>23.35</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="12">
         <v>26.73</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="12">
         <v>25.3</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="12">
         <v>26.85</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="12">
         <v>25.46</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="12">
         <v>27.38</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="12">
         <v>26.6</v>
       </c>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="37">
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="29">
         <f>(H16-L16)/H16</f>
         <v>0.352366863905325</v>
       </c>
-      <c r="Y16" s="40">
+      <c r="Y16" s="32">
         <f>(M16-N16)/M16</f>
         <v>0.087890625</v>
       </c>
-      <c r="Z16" s="40">
+      <c r="Z16" s="32">
         <f>(O16-P16)/O16</f>
         <v>0.0534979423868313</v>
       </c>
-      <c r="AA16" s="40">
+      <c r="AA16" s="32">
         <f>(Q16-R16)/Q16</f>
         <v>0.0517690875232775</v>
       </c>
-      <c r="AB16" s="40">
+      <c r="AB16" s="32">
         <f>(S16-T16)/S16</f>
         <v>0.0284879474068662</v>
       </c>
-      <c r="AC16" s="43" t="e">
+      <c r="AC16" s="35" t="e">
         <f>(U16-V16)/U16*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD16" s="39" t="s">
+      <c r="AD16" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="38" t="s">
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="33"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4532,253 +4482,7 @@
     <mergeCell ref="AQ1:AQ2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" location="久吾高科日志!A1" display="300631(久吾高科)"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="14.1339285714286" customWidth="1"/>
-    <col min="2" max="2" width="19.9375" customWidth="1"/>
-    <col min="3" max="3" width="13.0892857142857" customWidth="1"/>
-    <col min="4" max="4" width="11.5982142857143" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
-        <v>44518</v>
-      </c>
-      <c r="B2" s="4">
-        <f>VLOOKUP(久吾高科日志!A3,久吾高科日志!A2:E10,4,FALSE)-VLOOKUP(久吾高科日志!A3,久吾高科日志!A2:E10,2,FALSE)</f>
-        <v>6.38</v>
-      </c>
-      <c r="C2" s="12">
-        <f>(VLOOKUP(久吾高科日志!A3,久吾高科日志!A2:E9,4,FALSE)-VLOOKUP(久吾高科日志!A2,久吾高科日志!A2:E9,4,FALSE))/VLOOKUP(久吾高科日志!A2,久吾高科日志!A2:E9,4,FALSE)</f>
-        <v>0.127081292850147</v>
-      </c>
-      <c r="D2" s="12">
-        <f>(VLOOKUP(久吾高科日志!A3,久吾高科日志!A2:E10,5,FALSE)-VLOOKUP(久吾高科日志!A2,久吾高科日志!A2:E10,5,FALSE))/VLOOKUP(久吾高科日志!A2,久吾高科日志!A2:E10,5,FALSE)</f>
-        <v>0.898795180722892</v>
-      </c>
-    </row>
-    <row r="3" ht="32" customHeight="1" spans="1:4">
-      <c r="A3" s="6">
-        <v>44519</v>
-      </c>
-      <c r="B3" s="7">
-        <f>VLOOKUP(久吾高科日志!A4,久吾高科日志!A3:E10,4,FALSE)-VLOOKUP(久吾高科日志!A4,久吾高科日志!A3:E10,2,FALSE)</f>
-        <v>4.56</v>
-      </c>
-      <c r="C3" s="13">
-        <f>(VLOOKUP(久吾高科日志!A4,久吾高科日志!A3:E10,4,FALSE)-VLOOKUP(久吾高科日志!A3,久吾高科日志!A3:E10,4,FALSE))/VLOOKUP(久吾高科日志!A3,久吾高科日志!A3:E10,4,FALSE)</f>
-        <v>-0.0293286986747773</v>
-      </c>
-      <c r="D3" s="13">
-        <f>(VLOOKUP(久吾高科日志!A4,久吾高科日志!A3:E10,5,FALSE)-VLOOKUP(久吾高科日志!A3,久吾高科日志!A3:E10,5,FALSE))/VLOOKUP(久吾高科日志!A3,久吾高科日志!A3:E10,5,FALSE)</f>
-        <v>-0.258883248730965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="12.3392857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" ht="22" customHeight="1" spans="1:5">
-      <c r="A2" s="3">
-        <v>44517</v>
-      </c>
-      <c r="B2" s="4">
-        <v>38.97</v>
-      </c>
-      <c r="C2" s="5">
-        <v>38.25</v>
-      </c>
-      <c r="D2" s="5">
-        <v>40.84</v>
-      </c>
-      <c r="E2" s="5">
-        <v>12.45</v>
-      </c>
-    </row>
-    <row r="3" ht="24" customHeight="1" spans="1:5">
-      <c r="A3" s="6">
-        <v>44518</v>
-      </c>
-      <c r="B3" s="7">
-        <v>39.65</v>
-      </c>
-      <c r="C3" s="8">
-        <v>40.05</v>
-      </c>
-      <c r="D3" s="8">
-        <v>46.03</v>
-      </c>
-      <c r="E3" s="8">
-        <v>23.64</v>
-      </c>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:5">
-      <c r="A4" s="6">
-        <v>44519</v>
-      </c>
-      <c r="B4" s="7">
-        <v>40.12</v>
-      </c>
-      <c r="C4" s="8">
-        <v>44.4</v>
-      </c>
-      <c r="D4" s="8">
-        <v>44.68</v>
-      </c>
-      <c r="E4" s="8">
-        <v>17.52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="久吾高科运行指标!A1" display="日期"/>
+    <hyperlink ref="B6" r:id="rId1" display="300631(久吾高科)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/炒股/技术面研究.xlsx
+++ b/我的创作/炒股/技术面研究.xlsx
@@ -38,6 +38,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="2" tint="-0.9"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>52</t>
     </r>
     <r>
@@ -274,6 +281,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>605169(</t>
     </r>
     <r>
@@ -299,6 +313,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>300687(</t>
     </r>
     <r>
@@ -350,7 +371,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,10 +397,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,22 +426,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,7 +480,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -428,10 +488,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,9 +502,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,44 +525,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
@@ -504,16 +533,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,7 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +599,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,19 +695,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,49 +755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,85 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,8 +1069,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,24 +1125,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,37 +1149,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,148 +1168,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1332,7 +1353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2601,8 +2622,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
@@ -2827,11 +2848,11 @@
         <v>46.33</v>
       </c>
       <c r="I3" s="23">
-        <f>(F3-G3)/G3</f>
+        <f t="shared" ref="I3:I16" si="0">(F3-G3)/G3</f>
         <v>3.70695970695971</v>
       </c>
       <c r="J3" s="23">
-        <f>(H3-F3)/H3</f>
+        <f t="shared" ref="J3:J16" si="1">(H3-F3)/H3</f>
         <v>0.445283833369307</v>
       </c>
       <c r="K3" s="24"/>
@@ -2864,23 +2885,23 @@
         <v>46</v>
       </c>
       <c r="X3" s="29">
-        <f>(H3-L3)/H3</f>
+        <f t="shared" ref="X3:X16" si="2">(H3-L3)/H3</f>
         <v>0.551262680768401</v>
       </c>
       <c r="Y3" s="29">
-        <f>(M3-N3)/M3</f>
+        <f t="shared" ref="Y3:Y16" si="3">(M3-N3)/M3</f>
         <v>0.265771812080537</v>
       </c>
       <c r="Z3" s="29">
-        <f>(O3-P3)/O3</f>
+        <f t="shared" ref="Z3:Z16" si="4">(O3-P3)/O3</f>
         <v>0.120922832140016</v>
       </c>
       <c r="AA3" s="29">
-        <f>(Q3-R3)/Q3</f>
+        <f t="shared" ref="AA3:AA16" si="5">(Q3-R3)/Q3</f>
         <v>0.0909090909090909</v>
       </c>
       <c r="AB3" s="29" t="e">
-        <f>(S3-T3)/S3</f>
+        <f t="shared" ref="AB3:AB16" si="6">(S3-T3)/S3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC3" s="24"/>
@@ -2903,7 +2924,7 @@
         <v>21.87</v>
       </c>
       <c r="AJ3" s="12">
-        <f>AH3-AI3</f>
+        <f t="shared" ref="AJ3:AJ11" si="7">AH3-AI3</f>
         <v>6.28</v>
       </c>
       <c r="AK3" s="8">
@@ -2916,15 +2937,15 @@
         <v>32.49</v>
       </c>
       <c r="AN3" s="8">
-        <f>(AM3-AK3)/(AK3-AL3)</f>
+        <f t="shared" ref="AN3:AN10" si="8">(AM3-AK3)/(AK3-AL3)</f>
         <v>4.13815789473685</v>
       </c>
       <c r="AO3" s="23">
-        <f>(AK3-AL3)/AK3</f>
+        <f t="shared" ref="AO3:AO10" si="9">(AK3-AL3)/AK3</f>
         <v>0.0580152671755725</v>
       </c>
       <c r="AP3" s="23">
-        <f>(AM3-AK3)/AK3</f>
+        <f t="shared" ref="AP3:AP10" si="10">(AM3-AK3)/AK3</f>
         <v>0.240076335877863</v>
       </c>
       <c r="AQ3" s="42">
@@ -2957,11 +2978,11 @@
         <v>59.95</v>
       </c>
       <c r="I4" s="23">
-        <f>(F4-G4)/G4</f>
+        <f t="shared" si="0"/>
         <v>0.473062730627306</v>
       </c>
       <c r="J4" s="23">
-        <f>(H4-F4)/H4</f>
+        <f t="shared" si="1"/>
         <v>0.334111759799833</v>
       </c>
       <c r="K4" s="25"/>
@@ -2990,23 +3011,23 @@
         <v>52</v>
       </c>
       <c r="X4" s="29">
-        <f>(H4-L4)/H4</f>
+        <f t="shared" si="2"/>
         <v>0.389658048373645</v>
       </c>
       <c r="Y4" s="32">
-        <f>(M4-N4)/M4</f>
+        <f t="shared" si="3"/>
         <v>0.10433734939759</v>
       </c>
       <c r="Z4" s="32">
-        <f>(O4-P4)/O4</f>
+        <f t="shared" si="4"/>
         <v>0.0711904761904762</v>
       </c>
       <c r="AA4" s="32" t="e">
-        <f>(Q4-R4)/Q4</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB4" s="32" t="e">
-        <f>(S4-T4)/S4</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC4" s="26"/>
@@ -3029,7 +3050,7 @@
         <v>35.16</v>
       </c>
       <c r="AJ4" s="12">
-        <f>AH4-AI4</f>
+        <f t="shared" si="7"/>
         <v>8.76000000000001</v>
       </c>
       <c r="AK4" s="12">
@@ -3042,15 +3063,15 @@
         <v>52.05</v>
       </c>
       <c r="AN4" s="12">
-        <f>(AM4-AK4)/(AK4-AL4)</f>
+        <f t="shared" si="8"/>
         <v>3.84758364312267</v>
       </c>
       <c r="AO4" s="43">
-        <f>(AK4-AL4)/AK4</f>
+        <f t="shared" si="9"/>
         <v>0.0645083932853718</v>
       </c>
       <c r="AP4" s="43">
-        <f>(AM4-AK4)/AK4</f>
+        <f t="shared" si="10"/>
         <v>0.248201438848921</v>
       </c>
       <c r="AQ4" s="44">
@@ -3083,11 +3104,11 @@
         <v>44.42</v>
       </c>
       <c r="I5" s="23">
-        <f>(F5-G5)/G5</f>
+        <f t="shared" si="0"/>
         <v>0.467798085291558</v>
       </c>
       <c r="J5" s="23">
-        <f>(H5-F5)/H5</f>
+        <f t="shared" si="1"/>
         <v>0.240657361548852</v>
       </c>
       <c r="K5" s="25"/>
@@ -3120,23 +3141,23 @@
         <v>46</v>
       </c>
       <c r="X5" s="29">
-        <f>(H5-L5)/H5</f>
+        <f t="shared" si="2"/>
         <v>0.307068887888339</v>
       </c>
       <c r="Y5" s="32">
-        <f>(M5-N5)/M5</f>
+        <f t="shared" si="3"/>
         <v>0.106571428571429</v>
       </c>
       <c r="Z5" s="32">
-        <f>(O5-P5)/O5</f>
+        <f t="shared" si="4"/>
         <v>0.077541642734061</v>
       </c>
       <c r="AA5" s="32">
-        <f>(Q5-R5)/Q5</f>
+        <f t="shared" si="5"/>
         <v>0.0463207270595133</v>
       </c>
       <c r="AB5" s="32" t="e">
-        <f>(S5-T5)/S5</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC5" s="25"/>
@@ -3159,7 +3180,7 @@
         <v>31.36</v>
       </c>
       <c r="AJ5" s="12">
-        <f>AH5-AI5</f>
+        <f t="shared" si="7"/>
         <v>4.12</v>
       </c>
       <c r="AK5" s="12">
@@ -3172,15 +3193,15 @@
         <v>39.33</v>
       </c>
       <c r="AN5" s="12">
-        <f>(AM5-AK5)/(AK5-AL5)</f>
+        <f t="shared" si="8"/>
         <v>3.27672955974844</v>
       </c>
       <c r="AO5" s="43">
-        <f>(AK5-AL5)/AK5</f>
+        <f t="shared" si="9"/>
         <v>0.0466002344665884</v>
       </c>
       <c r="AP5" s="43">
-        <f>(AM5-AK5)/AK5</f>
+        <f t="shared" si="10"/>
         <v>0.152696365767878</v>
       </c>
       <c r="AQ5" s="44">
@@ -3213,11 +3234,11 @@
         <v>66.5</v>
       </c>
       <c r="I6" s="23">
-        <f>(F6-G6)/G6</f>
+        <f t="shared" si="0"/>
         <v>1.89440113394756</v>
       </c>
       <c r="J6" s="23">
-        <f>(H6-F6)/H6</f>
+        <f t="shared" si="1"/>
         <v>0.385864661654135</v>
       </c>
       <c r="K6" s="25"/>
@@ -3250,23 +3271,23 @@
         <v>59</v>
       </c>
       <c r="X6" s="29">
-        <f>(H6-L6)/H6</f>
+        <f t="shared" si="2"/>
         <v>0.480751879699248</v>
       </c>
       <c r="Y6" s="32">
-        <f>(M6-N6)/M6</f>
+        <f t="shared" si="3"/>
         <v>0.204770477047705</v>
       </c>
       <c r="Z6" s="32">
-        <f>(O6-P6)/O6</f>
+        <f t="shared" si="4"/>
         <v>0.100961538461539</v>
       </c>
       <c r="AA6" s="32">
-        <f>(Q6-R6)/Q6</f>
+        <f t="shared" si="5"/>
         <v>0.0903147699757869</v>
       </c>
       <c r="AB6" s="32" t="e">
-        <f>(S6-T6)/S6</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC6" s="25"/>
@@ -3289,7 +3310,7 @@
         <v>34.77</v>
       </c>
       <c r="AJ6" s="12">
-        <f>AH6-AI6</f>
+        <f t="shared" si="7"/>
         <v>10.72</v>
       </c>
       <c r="AK6" s="30" t="s">
@@ -3302,15 +3323,15 @@
         <v>57.6</v>
       </c>
       <c r="AN6" s="12">
-        <f>(AM6-AK6)/(AK6-AL6)</f>
+        <f t="shared" si="8"/>
         <v>2.10779816513762</v>
       </c>
       <c r="AO6" s="43">
-        <f>(AK6-AL6)/AK6</f>
+        <f t="shared" si="9"/>
         <v>0.0900640363561248</v>
       </c>
       <c r="AP6" s="43">
-        <f>(AM6-AK6)/AK6</f>
+        <f t="shared" si="10"/>
         <v>0.189836810576327</v>
       </c>
       <c r="AQ6" s="45" t="s">
@@ -3343,11 +3364,11 @@
         <v>26.22</v>
       </c>
       <c r="I7" s="23">
-        <f>(F7-G7)/G7</f>
+        <f t="shared" si="0"/>
         <v>0.33206106870229</v>
       </c>
       <c r="J7" s="23">
-        <f>(H7-F7)/H7</f>
+        <f t="shared" si="1"/>
         <v>0.20137299771167</v>
       </c>
       <c r="K7" s="25"/>
@@ -3382,23 +3403,23 @@
         <v>59</v>
       </c>
       <c r="X7" s="29">
-        <f>(H7-L7)/H7</f>
+        <f t="shared" si="2"/>
         <v>0.327993897787948</v>
       </c>
       <c r="Y7" s="32">
-        <f>(M7-N7)/M7</f>
+        <f t="shared" si="3"/>
         <v>0.144407739499764</v>
       </c>
       <c r="Z7" s="32">
-        <f>(O7-P7)/O7</f>
+        <f t="shared" si="4"/>
         <v>0.0426278836509529</v>
       </c>
       <c r="AA7" s="32">
-        <f>(Q7-R7)/Q7</f>
+        <f t="shared" si="5"/>
         <v>0.0400192864030857</v>
       </c>
       <c r="AB7" s="32">
-        <f>(S7-T7)/S7</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC7" s="26"/>
@@ -3421,7 +3442,7 @@
         <v>17.84</v>
       </c>
       <c r="AJ7" s="12">
-        <f>AH7-AI7</f>
+        <f t="shared" si="7"/>
         <v>4.25</v>
       </c>
       <c r="AK7" s="12">
@@ -3434,15 +3455,15 @@
         <v>26.99</v>
       </c>
       <c r="AN7" s="12">
-        <f>(AM7-AK7)/(AK7-AL7)</f>
+        <f t="shared" si="8"/>
         <v>3.04571428571428</v>
       </c>
       <c r="AO7" s="43">
-        <f>(AK7-AL7)/AK7</f>
+        <f t="shared" si="9"/>
         <v>0.0807940904893814</v>
       </c>
       <c r="AP7" s="43">
-        <f>(AM7-AK7)/AK7</f>
+        <f t="shared" si="10"/>
         <v>0.246075715604801</v>
       </c>
       <c r="AQ7" s="44">
@@ -3475,11 +3496,11 @@
         <v>41.5</v>
       </c>
       <c r="I8" s="23">
-        <f>(F8-G8)/G8</f>
+        <f t="shared" si="0"/>
         <v>0.58030082484231</v>
       </c>
       <c r="J8" s="23">
-        <f>(H8-F8)/H8</f>
+        <f t="shared" si="1"/>
         <v>0.215180722891566</v>
       </c>
       <c r="K8" s="25"/>
@@ -3510,23 +3531,23 @@
         <v>67</v>
       </c>
       <c r="X8" s="29">
-        <f>(H8-L8)/H8</f>
+        <f t="shared" si="2"/>
         <v>0.315180722891566</v>
       </c>
       <c r="Y8" s="32">
-        <f>(M8-N8)/M8</f>
+        <f t="shared" si="3"/>
         <v>0.164265129682997</v>
       </c>
       <c r="Z8" s="32">
-        <f>(O8-P8)/O8</f>
+        <f t="shared" si="4"/>
         <v>0.124184859654097</v>
       </c>
       <c r="AA8" s="32">
-        <f>(Q8-R8)/Q8</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB8" s="32" t="e">
-        <f>(S8-T8)/S8</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC8" s="25"/>
@@ -3549,7 +3570,7 @@
         <v>27.35</v>
       </c>
       <c r="AJ8" s="12">
-        <f>AH8-AI8</f>
+        <f t="shared" si="7"/>
         <v>8.86</v>
       </c>
       <c r="AK8" s="12">
@@ -3562,15 +3583,15 @@
         <v>36.22</v>
       </c>
       <c r="AN8" s="12">
-        <f>(AM8-AK8)/(AK8-AL8)</f>
+        <f t="shared" si="8"/>
         <v>2.02840909090909</v>
       </c>
       <c r="AO8" s="43">
-        <f>(AK8-AL8)/AK8</f>
+        <f t="shared" si="9"/>
         <v>0.0539050535987748</v>
       </c>
       <c r="AP8" s="43">
-        <f>(AM8-AK8)/AK8</f>
+        <f t="shared" si="10"/>
         <v>0.109341500765697</v>
       </c>
       <c r="AQ8" s="44">
@@ -3603,11 +3624,11 @@
         <v>59.98</v>
       </c>
       <c r="I9" s="23">
-        <f>(F9-G9)/G9</f>
+        <f t="shared" si="0"/>
         <v>0.578456014362657</v>
       </c>
       <c r="J9" s="23">
-        <f>(H9-F9)/H9</f>
+        <f t="shared" si="1"/>
         <v>0.267089029676559</v>
       </c>
       <c r="K9" s="25"/>
@@ -3644,23 +3665,23 @@
         <v>67</v>
       </c>
       <c r="X9" s="29">
-        <f>(H9-L9)/H9</f>
+        <f t="shared" si="2"/>
         <v>0.449649883294432</v>
       </c>
       <c r="Y9" s="32">
-        <f>(M9-N9)/M9</f>
+        <f t="shared" si="3"/>
         <v>0.156015037593985</v>
       </c>
       <c r="Z9" s="32">
-        <f>(O9-P9)/O9</f>
+        <f t="shared" si="4"/>
         <v>0.0843373493975904</v>
       </c>
       <c r="AA9" s="32">
-        <f>(Q9-R9)/Q9</f>
+        <f t="shared" si="5"/>
         <v>0.0983719330428801</v>
       </c>
       <c r="AB9" s="32">
-        <f>(S9-T9)/S9</f>
+        <f t="shared" si="6"/>
         <v>0.0573516386182462</v>
       </c>
       <c r="AC9" s="25"/>
@@ -3683,7 +3704,7 @@
         <v>33.98</v>
       </c>
       <c r="AJ9" s="12">
-        <f>AH9-AI9</f>
+        <f t="shared" si="7"/>
         <v>13.54</v>
       </c>
       <c r="AK9" s="12">
@@ -3696,15 +3717,15 @@
         <v>58.11</v>
       </c>
       <c r="AN9" s="12">
-        <f>(AM9-AK9)/(AK9-AL9)</f>
+        <f t="shared" si="8"/>
         <v>2.18013468013468</v>
       </c>
       <c r="AO9" s="43">
-        <f>(AK9-AL9)/AK9</f>
+        <f t="shared" si="9"/>
         <v>0.131532329495128</v>
       </c>
       <c r="AP9" s="43">
-        <f>(AM9-AK9)/AK9</f>
+        <f t="shared" si="10"/>
         <v>0.286758193091231</v>
       </c>
       <c r="AQ9" s="44">
@@ -3737,11 +3758,11 @@
         <v>27.5</v>
       </c>
       <c r="I10" s="23">
-        <f>(F10-G10)/G10</f>
+        <f t="shared" si="0"/>
         <v>0.432964329643296</v>
       </c>
       <c r="J10" s="23">
-        <f>(H10-F10)/H10</f>
+        <f t="shared" si="1"/>
         <v>0.152727272727273</v>
       </c>
       <c r="K10" s="25"/>
@@ -3782,23 +3803,23 @@
         <v>72</v>
       </c>
       <c r="X10" s="29">
-        <f>(H10-L10)/H10</f>
+        <f t="shared" si="2"/>
         <v>0.334545454545455</v>
       </c>
       <c r="Y10" s="32">
-        <f>(M10-N10)/M10</f>
+        <f t="shared" si="3"/>
         <v>0.158398607484769</v>
       </c>
       <c r="Z10" s="32">
-        <f>(O10-P10)/O10</f>
+        <f t="shared" si="4"/>
         <v>0.215360253365004</v>
       </c>
       <c r="AA10" s="32">
-        <f>(Q10-R10)/Q10</f>
+        <f t="shared" si="5"/>
         <v>0.0631627478100508</v>
       </c>
       <c r="AB10" s="32">
-        <f>(S10-T10)/S10</f>
+        <f t="shared" si="6"/>
         <v>0.0450691655510933</v>
       </c>
       <c r="AC10" s="32">
@@ -3824,7 +3845,7 @@
         <v>19.98</v>
       </c>
       <c r="AJ10" s="12">
-        <f>AH10-AI10</f>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="AK10" s="12">
@@ -3837,15 +3858,15 @@
         <v>27.75</v>
       </c>
       <c r="AN10" s="12">
-        <f>(AM10-AK10)/(AK10-AL10)</f>
+        <f t="shared" si="8"/>
         <v>3.61206896551724</v>
       </c>
       <c r="AO10" s="43">
-        <f>(AK10-AL10)/AK10</f>
+        <f t="shared" si="9"/>
         <v>0.0492359932088285</v>
       </c>
       <c r="AP10" s="43">
-        <f>(AM10-AK10)/AK10</f>
+        <f t="shared" si="10"/>
         <v>0.177843803056027</v>
       </c>
       <c r="AQ10" s="45" t="s">
@@ -3878,19 +3899,29 @@
         <v>7.01</v>
       </c>
       <c r="I11" s="23">
-        <f>(F11-G11)/G11</f>
+        <f t="shared" si="0"/>
         <v>1.79032258064516</v>
       </c>
       <c r="J11" s="23">
-        <f>(H11-F11)/H11</f>
+        <f t="shared" si="1"/>
         <v>0.25962910128388</v>
       </c>
       <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="L11" s="26">
+        <v>4.21</v>
+      </c>
+      <c r="M11" s="26">
+        <v>5.06</v>
+      </c>
+      <c r="N11" s="26">
+        <v>4.41</v>
+      </c>
+      <c r="O11" s="26">
+        <v>5.48</v>
+      </c>
+      <c r="P11" s="26">
+        <v>5.02</v>
+      </c>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
@@ -3901,16 +3932,16 @@
         <v>76</v>
       </c>
       <c r="X11" s="29">
-        <f>(H11-L11)/H11</f>
-        <v>1</v>
-      </c>
-      <c r="Y11" s="32" t="e">
-        <f>(M11-N11)/M11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z11" s="32" t="e">
-        <f>(O11-P11)/O11</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>0.399429386590585</v>
+      </c>
+      <c r="Y11" s="32">
+        <f t="shared" si="3"/>
+        <v>0.128458498023715</v>
+      </c>
+      <c r="Z11" s="32">
+        <f t="shared" si="4"/>
+        <v>0.0839416058394162</v>
       </c>
       <c r="AA11" s="32" t="e">
         <f>(Q11-R11)/Q11</f>
@@ -3934,7 +3965,7 @@
         <v>4.19</v>
       </c>
       <c r="AJ11" s="12">
-        <f>AH11-AI11</f>
+        <f t="shared" si="7"/>
         <v>1.35</v>
       </c>
       <c r="AK11" s="12">
@@ -3975,11 +4006,11 @@
         <v>22.7</v>
       </c>
       <c r="I12" s="23">
-        <f>(F12-G12)/G12</f>
+        <f t="shared" si="0"/>
         <v>0.476313522825151</v>
       </c>
       <c r="J12" s="23">
-        <f>(H12-F12)/H12</f>
+        <f t="shared" si="1"/>
         <v>0.244933920704846</v>
       </c>
       <c r="K12" s="25"/>
@@ -4012,23 +4043,23 @@
         <v>59</v>
       </c>
       <c r="X12" s="29">
-        <f>(H12-L12)/H12</f>
+        <f t="shared" si="2"/>
         <v>0.334801762114537</v>
       </c>
       <c r="Y12" s="32">
-        <f>(M12-N12)/M12</f>
+        <f t="shared" si="3"/>
         <v>0.0521739130434784</v>
       </c>
       <c r="Z12" s="32">
-        <f>(O12-P12)/O12</f>
+        <f t="shared" si="4"/>
         <v>0.0330969267139481</v>
       </c>
       <c r="AA12" s="32">
-        <f>(Q12-R12)/Q12</f>
+        <f t="shared" si="5"/>
         <v>0.0433802816901408</v>
       </c>
       <c r="AB12" s="32" t="e">
-        <f>(S12-T12)/S12</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC12" s="25"/>
@@ -4077,11 +4108,11 @@
         <v>46.88</v>
       </c>
       <c r="I13" s="23">
-        <f>(F13-G13)/G13</f>
+        <f t="shared" si="0"/>
         <v>1.87362171331637</v>
       </c>
       <c r="J13" s="23">
-        <f>(H13-F13)/H13</f>
+        <f t="shared" si="1"/>
         <v>0.277303754266212</v>
       </c>
       <c r="K13" s="25"/>
@@ -4110,23 +4141,23 @@
         <v>67</v>
       </c>
       <c r="X13" s="29">
-        <f>(H13-L13)/H13</f>
+        <f t="shared" si="2"/>
         <v>0.402303754266212</v>
       </c>
       <c r="Y13" s="32">
-        <f>(M13-N13)/M13</f>
+        <f t="shared" si="3"/>
         <v>0.0942008486562941</v>
       </c>
       <c r="Z13" s="32">
-        <f>(O13-P13)/O13</f>
+        <f t="shared" si="4"/>
         <v>0.0249347636996231</v>
       </c>
       <c r="AA13" s="32" t="e">
-        <f>(Q13-R13)/Q13</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB13" s="32" t="e">
-        <f>(S13-T13)/S13</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC13" s="25"/>
@@ -4149,7 +4180,7 @@
       <c r="AP13" s="25"/>
       <c r="AQ13" s="46"/>
     </row>
-    <row r="14" ht="25" spans="1:43">
+    <row r="14" ht="13" spans="1:43">
       <c r="A14" s="9">
         <v>44519</v>
       </c>
@@ -4175,11 +4206,11 @@
         <v>58.63</v>
       </c>
       <c r="I14" s="23">
-        <f>(F14-G14)/G14</f>
+        <f t="shared" si="0"/>
         <v>0.384834460662157</v>
       </c>
       <c r="J14" s="23">
-        <f>(H14-F14)/H14</f>
+        <f t="shared" si="1"/>
         <v>0.33651714139519</v>
       </c>
       <c r="K14" s="25"/>
@@ -4208,23 +4239,23 @@
         <v>67</v>
       </c>
       <c r="X14" s="29">
-        <f>(H14-L14)/H14</f>
+        <f t="shared" si="2"/>
         <v>0.429472966058332</v>
       </c>
       <c r="Y14" s="32">
-        <f>(M14-N14)/M14</f>
+        <f t="shared" si="3"/>
         <v>0.0483367983367983</v>
       </c>
       <c r="Z14" s="32">
-        <f>(O14-P14)/O14</f>
+        <f t="shared" si="4"/>
         <v>0.0673868312757203</v>
       </c>
       <c r="AA14" s="32" t="e">
-        <f>(Q14-R14)/Q14</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB14" s="32" t="e">
-        <f>(S14-T14)/S14</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC14" s="25"/>
@@ -4247,7 +4278,7 @@
       <c r="AP14" s="25"/>
       <c r="AQ14" s="46"/>
     </row>
-    <row r="15" ht="25" spans="1:43">
+    <row r="15" ht="13" spans="1:43">
       <c r="A15" s="9">
         <v>44519</v>
       </c>
@@ -4273,11 +4304,11 @@
         <v>25.47</v>
       </c>
       <c r="I15" s="23">
-        <f>(F15-G15)/G15</f>
+        <f t="shared" si="0"/>
         <v>0.462783171521036</v>
       </c>
       <c r="J15" s="23">
-        <f>(H15-F15)/H15</f>
+        <f t="shared" si="1"/>
         <v>0.290145268943856</v>
       </c>
       <c r="K15" s="25"/>
@@ -4308,23 +4339,23 @@
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
       <c r="X15" s="29">
-        <f>(H15-L15)/H15</f>
+        <f t="shared" si="2"/>
         <v>0.387122104436592</v>
       </c>
       <c r="Y15" s="32">
-        <f>(M15-N15)/M15</f>
+        <f t="shared" si="3"/>
         <v>0.0615901455767076</v>
       </c>
       <c r="Z15" s="32">
-        <f>(O15-P15)/O15</f>
+        <f t="shared" si="4"/>
         <v>0.0842450765864334</v>
       </c>
       <c r="AA15" s="32">
-        <f>(Q15-R15)/Q15</f>
+        <f t="shared" si="5"/>
         <v>0.0521052631578947</v>
       </c>
       <c r="AB15" s="32" t="e">
-        <f>(S15-T15)/S15</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC15" s="35" t="e">
@@ -4376,11 +4407,11 @@
         <v>33.8</v>
       </c>
       <c r="I16" s="23">
-        <f>(F16-G16)/G16</f>
+        <f t="shared" si="0"/>
         <v>0.999249249249249</v>
       </c>
       <c r="J16" s="23">
-        <f>(H16-F16)/H16</f>
+        <f t="shared" si="1"/>
         <v>0.212130177514793</v>
       </c>
       <c r="K16" s="25"/>
@@ -4415,23 +4446,23 @@
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
       <c r="X16" s="29">
-        <f>(H16-L16)/H16</f>
+        <f t="shared" si="2"/>
         <v>0.352366863905325</v>
       </c>
       <c r="Y16" s="32">
-        <f>(M16-N16)/M16</f>
+        <f t="shared" si="3"/>
         <v>0.087890625</v>
       </c>
       <c r="Z16" s="32">
-        <f>(O16-P16)/O16</f>
+        <f t="shared" si="4"/>
         <v>0.0534979423868313</v>
       </c>
       <c r="AA16" s="32">
-        <f>(Q16-R16)/Q16</f>
+        <f t="shared" si="5"/>
         <v>0.0517690875232775</v>
       </c>
       <c r="AB16" s="32">
-        <f>(S16-T16)/S16</f>
+        <f t="shared" si="6"/>
         <v>0.0284879474068662</v>
       </c>
       <c r="AC16" s="35" t="e">

--- a/我的创作/炒股/技术面研究.xlsx
+++ b/我的创作/炒股/技术面研究.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27240" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="买入筛选条件" sheetId="7" r:id="rId1"/>
+    <sheet name="入场指标" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2622,8 +2622,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>

--- a/我的创作/炒股/技术面研究.xlsx
+++ b/我的创作/炒股/技术面研究.xlsx
@@ -2622,8 +2622,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
